--- a/simulation_env/environment_maincrops/data/Erträge.xlsx
+++ b/simulation_env/environment_maincrops/data/Erträge.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Magnus\Documents\GitHub\cro_symbolic_mbpo\simulation_env\environment_maincrops\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C308ABE7-D48A-4679-B4E6-969DAA413B1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6263005-316E-4CD3-9211-706F71D6E320}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="19" activeTab="28" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="19" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kleegras 2j" sheetId="30" r:id="rId1"/>
@@ -44,7 +44,6 @@
     <sheet name="Modell" sheetId="9" r:id="rId29"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1584,6 +1583,7 @@
     <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="3" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1599,7 +1599,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="3" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Link" xfId="3" builtinId="8"/>
@@ -15956,8 +15955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEBC5245-C226-4EBF-9797-453338F0B92D}">
   <dimension ref="A3:K31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="I13:J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18362,10 +18361,10 @@
       </c>
     </row>
     <row r="3" spans="1:27" ht="31.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="112" t="s">
+      <c r="A3" s="113" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="112"/>
+      <c r="B3" s="113"/>
       <c r="C3" s="5" t="s">
         <v>23</v>
       </c>
@@ -19202,13 +19201,13 @@
       <c r="A2" t="s">
         <v>281</v>
       </c>
-      <c r="B2" s="113" t="s">
+      <c r="B2" s="114" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="114"/>
-      <c r="D2" s="114"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="114"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="115"/>
     </row>
     <row r="3" spans="1:28" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -21951,7 +21950,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB6D9549-3E0E-4FEE-ABD4-7A1FDA7B5692}">
   <dimension ref="A1:Q55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+    <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
@@ -21972,15 +21971,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="116" t="s">
         <v>217</v>
       </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -22053,10 +22052,10 @@
       <c r="B5" s="43">
         <v>0.05</v>
       </c>
-      <c r="D5" s="116" t="s">
+      <c r="D5" s="117" t="s">
         <v>268</v>
       </c>
-      <c r="E5" s="116"/>
+      <c r="E5" s="117"/>
       <c r="F5" s="19">
         <v>0.4</v>
       </c>
@@ -22224,15 +22223,15 @@
       <c r="K18" s="19"/>
     </row>
     <row r="19" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="115" t="s">
+      <c r="A19" s="116" t="s">
         <v>201</v>
       </c>
-      <c r="B19" s="115"/>
-      <c r="C19" s="115"/>
-      <c r="D19" s="115"/>
-      <c r="E19" s="115"/>
-      <c r="F19" s="115"/>
-      <c r="G19" s="115"/>
+      <c r="B19" s="116"/>
+      <c r="C19" s="116"/>
+      <c r="D19" s="116"/>
+      <c r="E19" s="116"/>
+      <c r="F19" s="116"/>
+      <c r="G19" s="116"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -22240,15 +22239,15 @@
       </c>
     </row>
     <row r="27" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="115" t="s">
+      <c r="A27" s="116" t="s">
         <v>221</v>
       </c>
-      <c r="B27" s="115"/>
-      <c r="C27" s="115"/>
-      <c r="D27" s="115"/>
-      <c r="E27" s="115"/>
-      <c r="F27" s="115"/>
-      <c r="G27" s="115"/>
+      <c r="B27" s="116"/>
+      <c r="C27" s="116"/>
+      <c r="D27" s="116"/>
+      <c r="E27" s="116"/>
+      <c r="F27" s="116"/>
+      <c r="G27" s="116"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
@@ -22258,7 +22257,7 @@
       <c r="P28" s="2"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A29" s="117" t="s">
+      <c r="A29" s="112" t="s">
         <v>223</v>
       </c>
       <c r="B29" t="s">

--- a/simulation_env/environment_maincrops/data/Erträge.xlsx
+++ b/simulation_env/environment_maincrops/data/Erträge.xlsx
@@ -8,28 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Magnus\Documents\GitHub\cro_symbolic_mbpo\simulation_env\environment_maincrops\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6263005-316E-4CD3-9211-706F71D6E320}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E69780A-263C-42E3-ACB7-EF3FFE188317}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="19" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Kleegras 2j" sheetId="30" r:id="rId1"/>
-    <sheet name="Luzerne 2j" sheetId="31" r:id="rId2"/>
-    <sheet name="Ackerbohne" sheetId="20" r:id="rId3"/>
-    <sheet name="Körnererbse" sheetId="19" r:id="rId4"/>
-    <sheet name="Sojabohne" sheetId="21" r:id="rId5"/>
-    <sheet name="FutterLupine" sheetId="29" r:id="rId6"/>
-    <sheet name="Winterweizen" sheetId="8" r:id="rId7"/>
-    <sheet name="Sommerweizen" sheetId="28" r:id="rId8"/>
-    <sheet name="(K)-Durum" sheetId="32" r:id="rId9"/>
-    <sheet name="Speise-Dinkel" sheetId="13" r:id="rId10"/>
-    <sheet name="Triticale" sheetId="14" r:id="rId11"/>
-    <sheet name="Winterroggen" sheetId="15" r:id="rId12"/>
-    <sheet name="Wintergerste" sheetId="10" r:id="rId13"/>
-    <sheet name="Sommergerste" sheetId="11" r:id="rId14"/>
-    <sheet name="Speisehafer" sheetId="16" r:id="rId15"/>
-    <sheet name="(K) Hirse" sheetId="26" r:id="rId16"/>
-    <sheet name="Tabelle1" sheetId="34" r:id="rId17"/>
+    <sheet name="Gras 1j" sheetId="35" r:id="rId1"/>
+    <sheet name="Kleegras 2j" sheetId="30" r:id="rId2"/>
+    <sheet name="Luzerne 2j" sheetId="31" r:id="rId3"/>
+    <sheet name="Ackerbohne" sheetId="20" r:id="rId4"/>
+    <sheet name="Körnererbse" sheetId="19" r:id="rId5"/>
+    <sheet name="Sojabohne" sheetId="21" r:id="rId6"/>
+    <sheet name="FutterLupine" sheetId="29" r:id="rId7"/>
+    <sheet name="Winterweizen" sheetId="8" r:id="rId8"/>
+    <sheet name="Sommerweizen" sheetId="28" r:id="rId9"/>
+    <sheet name="(K)-Durum" sheetId="32" r:id="rId10"/>
+    <sheet name="Speise-Dinkel" sheetId="13" r:id="rId11"/>
+    <sheet name="Triticale" sheetId="14" r:id="rId12"/>
+    <sheet name="Winterroggen" sheetId="15" r:id="rId13"/>
+    <sheet name="Wintergerste" sheetId="10" r:id="rId14"/>
+    <sheet name="Sommergerste" sheetId="11" r:id="rId15"/>
+    <sheet name="Speisehafer" sheetId="16" r:id="rId16"/>
+    <sheet name="(K) Hirse" sheetId="26" r:id="rId17"/>
     <sheet name="Silomais" sheetId="27" r:id="rId18"/>
     <sheet name="Körnermais" sheetId="17" r:id="rId19"/>
     <sheet name="Zuckerrübe" sheetId="22" r:id="rId20"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2471" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2551" uniqueCount="316">
   <si>
     <t>Kosten</t>
   </si>
@@ -1346,7 +1346,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1598,6 +1598,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1881,11 +1887,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB5EB403-E4E3-49A8-A597-EB2AAA0D64A5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28DD0218-DA89-4895-AB3B-386E5B95561E}">
   <dimension ref="A3:K31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19:K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1895,7 +1901,7 @@
     <col min="3" max="3" width="24.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>273</v>
       </c>
@@ -1926,7 +1932,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>274</v>
       </c>
@@ -1934,29 +1940,29 @@
       <c r="C4" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="D4" s="29">
-        <v>24.5</v>
-      </c>
-      <c r="E4" s="29">
-        <v>24.5</v>
-      </c>
-      <c r="F4" s="29">
-        <v>24.5</v>
-      </c>
-      <c r="G4" s="29">
-        <v>24.5</v>
-      </c>
-      <c r="H4" s="29">
-        <v>24.5</v>
-      </c>
-      <c r="I4" s="29">
-        <v>24.5</v>
-      </c>
-      <c r="J4" s="29">
-        <v>24.5</v>
-      </c>
-      <c r="K4" s="29">
-        <v>24.5</v>
+      <c r="D4" s="60">
+        <v>20.3</v>
+      </c>
+      <c r="E4" s="60">
+        <v>20.3</v>
+      </c>
+      <c r="F4" s="60">
+        <v>20.3</v>
+      </c>
+      <c r="G4" s="60">
+        <v>20.3</v>
+      </c>
+      <c r="H4" s="60">
+        <v>20.3</v>
+      </c>
+      <c r="I4" s="60">
+        <v>20.3</v>
+      </c>
+      <c r="J4" s="60">
+        <v>20.3</v>
+      </c>
+      <c r="K4" s="60">
+        <v>20.3</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -1969,30 +1975,29 @@
       <c r="C5" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="D5" s="3">
-        <v>67.099999999999994</v>
-      </c>
-      <c r="E5" s="3">
-        <v>67.099999999999994</v>
-      </c>
-      <c r="F5" s="3">
-        <v>62.8</v>
-      </c>
-      <c r="G5" s="3">
-        <f>(F5+H5)/2</f>
-        <v>66.699999999999989</v>
-      </c>
-      <c r="H5" s="3">
-        <v>70.599999999999994</v>
-      </c>
-      <c r="I5" s="3">
-        <v>81.3</v>
-      </c>
-      <c r="J5" s="3">
-        <v>65.7</v>
-      </c>
-      <c r="K5" s="3">
-        <v>69.5</v>
+      <c r="D5" s="48">
+        <v>35.15</v>
+      </c>
+      <c r="E5" s="48">
+        <v>36.83</v>
+      </c>
+      <c r="F5" s="48">
+        <v>35.9</v>
+      </c>
+      <c r="G5" s="48">
+        <v>38.659999999999997</v>
+      </c>
+      <c r="H5" s="48">
+        <v>39.19</v>
+      </c>
+      <c r="I5" s="48">
+        <v>37.83</v>
+      </c>
+      <c r="J5" s="48">
+        <v>37.83</v>
+      </c>
+      <c r="K5" s="48">
+        <v>38.75</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -2007,35 +2012,35 @@
       </c>
       <c r="D6" s="32">
         <f>D5*D4</f>
-        <v>1643.9499999999998</v>
+        <v>713.54499999999996</v>
       </c>
       <c r="E6" s="32">
         <f t="shared" ref="E6:K6" si="0">E5*E4</f>
-        <v>1643.9499999999998</v>
+        <v>747.649</v>
       </c>
       <c r="F6" s="32">
         <f t="shared" si="0"/>
-        <v>1538.6</v>
+        <v>728.77</v>
       </c>
       <c r="G6" s="32">
         <f t="shared" si="0"/>
-        <v>1634.1499999999996</v>
+        <v>784.798</v>
       </c>
       <c r="H6" s="32">
         <f t="shared" si="0"/>
-        <v>1729.6999999999998</v>
+        <v>795.55700000000002</v>
       </c>
       <c r="I6" s="32">
         <f t="shared" si="0"/>
-        <v>1991.85</v>
+        <v>767.94899999999996</v>
       </c>
       <c r="J6" s="32">
         <f t="shared" si="0"/>
-        <v>1609.65</v>
+        <v>767.94899999999996</v>
       </c>
       <c r="K6" s="32">
         <f t="shared" si="0"/>
-        <v>1702.75</v>
+        <v>786.625</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -2049,29 +2054,27 @@
         <v>3</v>
       </c>
       <c r="D7" s="3">
-        <v>203</v>
+        <v>30.11</v>
       </c>
       <c r="E7" s="3">
-        <v>203</v>
+        <v>30.11</v>
       </c>
       <c r="F7" s="3">
-        <v>208</v>
+        <v>30.11</v>
       </c>
       <c r="G7" s="3">
-        <v>209</v>
+        <v>30.11</v>
       </c>
       <c r="H7" s="3">
-        <v>210</v>
+        <v>30.11</v>
       </c>
       <c r="I7" s="3">
-        <v>214</v>
+        <v>30.11</v>
       </c>
       <c r="J7" s="3">
-        <v>222</v>
-      </c>
-      <c r="K7" s="3">
-        <v>222</v>
-      </c>
+        <v>30.11</v>
+      </c>
+      <c r="K7" s="48"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
@@ -2084,36 +2087,36 @@
         <v>247</v>
       </c>
       <c r="D8" s="65">
-        <f>57/D4</f>
-        <v>2.3265306122448979</v>
+        <f>16.7*0.35/0.91</f>
+        <v>6.4230769230769225</v>
       </c>
       <c r="E8" s="65">
-        <f t="shared" ref="E8:K8" si="1">57/E4</f>
-        <v>2.3265306122448979</v>
+        <f t="shared" ref="E8:K8" si="1">16.7*0.35/0.91</f>
+        <v>6.4230769230769225</v>
       </c>
       <c r="F8" s="65">
         <f t="shared" si="1"/>
-        <v>2.3265306122448979</v>
+        <v>6.4230769230769225</v>
       </c>
       <c r="G8" s="65">
         <f t="shared" si="1"/>
-        <v>2.3265306122448979</v>
+        <v>6.4230769230769225</v>
       </c>
       <c r="H8" s="65">
         <f t="shared" si="1"/>
-        <v>2.3265306122448979</v>
+        <v>6.4230769230769225</v>
       </c>
       <c r="I8" s="65">
         <f t="shared" si="1"/>
-        <v>2.3265306122448979</v>
+        <v>6.4230769230769225</v>
       </c>
       <c r="J8" s="65">
         <f t="shared" si="1"/>
-        <v>2.3265306122448979</v>
+        <v>6.4230769230769225</v>
       </c>
       <c r="K8" s="65">
         <f t="shared" si="1"/>
-        <v>2.3265306122448979</v>
+        <v>6.4230769230769225</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -2126,37 +2129,37 @@
       <c r="C9" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="D9" s="49">
+      <c r="D9" s="118">
         <f>D8*D4</f>
-        <v>57</v>
-      </c>
-      <c r="E9" s="49">
+        <v>130.38846153846154</v>
+      </c>
+      <c r="E9" s="118">
         <f t="shared" ref="E9:K9" si="2">E8*E4</f>
-        <v>57</v>
-      </c>
-      <c r="F9" s="49">
+        <v>130.38846153846154</v>
+      </c>
+      <c r="F9" s="118">
         <f t="shared" si="2"/>
-        <v>57</v>
-      </c>
-      <c r="G9" s="49">
+        <v>130.38846153846154</v>
+      </c>
+      <c r="G9" s="118">
         <f t="shared" si="2"/>
-        <v>57</v>
-      </c>
-      <c r="H9" s="49">
+        <v>130.38846153846154</v>
+      </c>
+      <c r="H9" s="118">
         <f t="shared" si="2"/>
-        <v>57</v>
-      </c>
-      <c r="I9" s="49">
+        <v>130.38846153846154</v>
+      </c>
+      <c r="I9" s="118">
         <f t="shared" si="2"/>
-        <v>57</v>
-      </c>
-      <c r="J9" s="49">
+        <v>130.38846153846154</v>
+      </c>
+      <c r="J9" s="118">
         <f t="shared" si="2"/>
-        <v>57</v>
-      </c>
-      <c r="K9" s="49">
+        <v>130.38846153846154</v>
+      </c>
+      <c r="K9" s="118">
         <f t="shared" si="2"/>
-        <v>57</v>
+        <v>130.38846153846154</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -2204,29 +2207,37 @@
       <c r="C11" s="102" t="s">
         <v>309</v>
       </c>
-      <c r="D11" s="109">
-        <v>1.4</v>
-      </c>
-      <c r="E11" s="109">
-        <v>1.4</v>
-      </c>
-      <c r="F11" s="109">
-        <v>1.4</v>
-      </c>
-      <c r="G11" s="109">
-        <v>1.4</v>
-      </c>
-      <c r="H11" s="109">
-        <v>1.4</v>
-      </c>
-      <c r="I11" s="109">
-        <v>1.4</v>
-      </c>
-      <c r="J11" s="109">
-        <v>1.4</v>
-      </c>
-      <c r="K11" s="109">
-        <v>1.4</v>
+      <c r="D11" s="119">
+        <f>9.8*0.35/0.91</f>
+        <v>3.7692307692307692</v>
+      </c>
+      <c r="E11" s="119">
+        <f t="shared" ref="E11:K11" si="3">9.8*0.35/0.91</f>
+        <v>3.7692307692307692</v>
+      </c>
+      <c r="F11" s="119">
+        <f t="shared" si="3"/>
+        <v>3.7692307692307692</v>
+      </c>
+      <c r="G11" s="119">
+        <f t="shared" si="3"/>
+        <v>3.7692307692307692</v>
+      </c>
+      <c r="H11" s="119">
+        <f t="shared" si="3"/>
+        <v>3.7692307692307692</v>
+      </c>
+      <c r="I11" s="119">
+        <f t="shared" si="3"/>
+        <v>3.7692307692307692</v>
+      </c>
+      <c r="J11" s="119">
+        <f t="shared" si="3"/>
+        <v>3.7692307692307692</v>
+      </c>
+      <c r="K11" s="119">
+        <f t="shared" si="3"/>
+        <v>3.7692307692307692</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -2241,35 +2252,35 @@
       </c>
       <c r="D12" s="96">
         <f>D11*D4</f>
-        <v>34.299999999999997</v>
+        <v>76.515384615384619</v>
       </c>
       <c r="E12" s="96">
-        <f t="shared" ref="E12:K12" si="3">E11*E4</f>
-        <v>34.299999999999997</v>
+        <f t="shared" ref="E12:K12" si="4">E11*E4</f>
+        <v>76.515384615384619</v>
       </c>
       <c r="F12" s="96">
-        <f t="shared" si="3"/>
-        <v>34.299999999999997</v>
+        <f t="shared" si="4"/>
+        <v>76.515384615384619</v>
       </c>
       <c r="G12" s="96">
-        <f t="shared" si="3"/>
-        <v>34.299999999999997</v>
+        <f t="shared" si="4"/>
+        <v>76.515384615384619</v>
       </c>
       <c r="H12" s="96">
-        <f t="shared" si="3"/>
-        <v>34.299999999999997</v>
+        <f t="shared" si="4"/>
+        <v>76.515384615384619</v>
       </c>
       <c r="I12" s="96">
-        <f t="shared" si="3"/>
-        <v>34.299999999999997</v>
+        <f t="shared" si="4"/>
+        <v>76.515384615384619</v>
       </c>
       <c r="J12" s="96">
-        <f t="shared" si="3"/>
-        <v>34.299999999999997</v>
+        <f t="shared" si="4"/>
+        <v>76.515384615384619</v>
       </c>
       <c r="K12" s="96">
-        <f t="shared" si="3"/>
-        <v>34.299999999999997</v>
+        <f t="shared" si="4"/>
+        <v>76.515384615384619</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -2317,37 +2328,37 @@
       <c r="C14" s="102" t="s">
         <v>312</v>
       </c>
-      <c r="D14" s="84">
-        <f>0.65*10</f>
-        <v>6.5</v>
-      </c>
-      <c r="E14" s="84">
-        <f t="shared" ref="E14:K14" si="4">0.65*10</f>
-        <v>6.5</v>
-      </c>
-      <c r="F14" s="84">
-        <f t="shared" si="4"/>
-        <v>6.5</v>
-      </c>
-      <c r="G14" s="84">
-        <f t="shared" si="4"/>
-        <v>6.5</v>
-      </c>
-      <c r="H14" s="84">
-        <f t="shared" si="4"/>
-        <v>6.5</v>
-      </c>
-      <c r="I14" s="84">
-        <f t="shared" si="4"/>
-        <v>6.5</v>
-      </c>
-      <c r="J14" s="84">
-        <f t="shared" si="4"/>
-        <v>6.5</v>
-      </c>
-      <c r="K14" s="84">
-        <f t="shared" si="4"/>
-        <v>6.5</v>
+      <c r="D14" s="119">
+        <f>24.6*0.35/0.91</f>
+        <v>9.4615384615384599</v>
+      </c>
+      <c r="E14" s="119">
+        <f t="shared" ref="E14:K14" si="5">24.6*0.35/0.91</f>
+        <v>9.4615384615384599</v>
+      </c>
+      <c r="F14" s="119">
+        <f t="shared" si="5"/>
+        <v>9.4615384615384599</v>
+      </c>
+      <c r="G14" s="119">
+        <f t="shared" si="5"/>
+        <v>9.4615384615384599</v>
+      </c>
+      <c r="H14" s="119">
+        <f t="shared" si="5"/>
+        <v>9.4615384615384599</v>
+      </c>
+      <c r="I14" s="119">
+        <f t="shared" si="5"/>
+        <v>9.4615384615384599</v>
+      </c>
+      <c r="J14" s="119">
+        <f t="shared" si="5"/>
+        <v>9.4615384615384599</v>
+      </c>
+      <c r="K14" s="119">
+        <f t="shared" si="5"/>
+        <v>9.4615384615384599</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -2362,35 +2373,35 @@
       </c>
       <c r="D15" s="96">
         <f>D14*D4</f>
-        <v>159.25</v>
+        <v>192.06923076923076</v>
       </c>
       <c r="E15" s="96">
-        <f t="shared" ref="E15:K15" si="5">E14*E4</f>
-        <v>159.25</v>
+        <f t="shared" ref="E15:K15" si="6">E14*E4</f>
+        <v>192.06923076923076</v>
       </c>
       <c r="F15" s="96">
-        <f t="shared" si="5"/>
-        <v>159.25</v>
+        <f t="shared" si="6"/>
+        <v>192.06923076923076</v>
       </c>
       <c r="G15" s="96">
-        <f t="shared" si="5"/>
-        <v>159.25</v>
+        <f t="shared" si="6"/>
+        <v>192.06923076923076</v>
       </c>
       <c r="H15" s="96">
-        <f t="shared" si="5"/>
-        <v>159.25</v>
+        <f t="shared" si="6"/>
+        <v>192.06923076923076</v>
       </c>
       <c r="I15" s="96">
-        <f t="shared" si="5"/>
-        <v>159.25</v>
+        <f t="shared" si="6"/>
+        <v>192.06923076923076</v>
       </c>
       <c r="J15" s="96">
-        <f t="shared" si="5"/>
-        <v>159.25</v>
+        <f t="shared" si="6"/>
+        <v>192.06923076923076</v>
       </c>
       <c r="K15" s="96">
-        <f t="shared" si="5"/>
-        <v>159.25</v>
+        <f t="shared" si="6"/>
+        <v>192.06923076923076</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -2440,35 +2451,35 @@
       </c>
       <c r="D17" s="85">
         <f>D10*D9+D13*D12+D16*D15</f>
-        <v>499.88599999999997</v>
+        <v>844.51903846153846</v>
       </c>
       <c r="E17" s="85">
-        <f t="shared" ref="E17:K17" si="6">E10*E9+E13*E12+E16*E15</f>
-        <v>492.59949999999998</v>
+        <f t="shared" ref="E17:K17" si="7">E10*E9+E13*E12+E16*E15</f>
+        <v>836.61765384615387</v>
       </c>
       <c r="F17" s="85">
-        <f t="shared" si="6"/>
-        <v>495.91250000000002</v>
+        <f t="shared" si="7"/>
+        <v>854.8017692307692</v>
       </c>
       <c r="G17" s="85">
-        <f t="shared" si="6"/>
-        <v>493.41500000000002</v>
+        <f t="shared" si="7"/>
+        <v>854.25523076923082</v>
       </c>
       <c r="H17" s="85">
-        <f t="shared" si="6"/>
-        <v>475.97200000000004</v>
+        <f t="shared" si="7"/>
+        <v>814.3735384615386</v>
       </c>
       <c r="I17" s="85">
-        <f t="shared" si="6"/>
-        <v>464.92100000000005</v>
+        <f t="shared" si="7"/>
+        <v>796.11915384615384</v>
       </c>
       <c r="J17" s="85">
-        <f t="shared" si="6"/>
-        <v>483.19800000000004</v>
+        <f t="shared" si="7"/>
+        <v>833.6273076923078</v>
       </c>
       <c r="K17" s="85">
-        <f t="shared" si="6"/>
-        <v>683.25600000000009</v>
+        <f t="shared" si="7"/>
+        <v>1124.065653846154</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -2483,35 +2494,35 @@
       </c>
       <c r="D18" s="31">
         <f>D17</f>
-        <v>499.88599999999997</v>
+        <v>844.51903846153846</v>
       </c>
       <c r="E18" s="31">
-        <f t="shared" ref="E18:K18" si="7">E17</f>
-        <v>492.59949999999998</v>
+        <f t="shared" ref="E18:K18" si="8">E17</f>
+        <v>836.61765384615387</v>
       </c>
       <c r="F18" s="31">
-        <f t="shared" si="7"/>
-        <v>495.91250000000002</v>
+        <f t="shared" si="8"/>
+        <v>854.8017692307692</v>
       </c>
       <c r="G18" s="31">
-        <f t="shared" si="7"/>
-        <v>493.41500000000002</v>
+        <f t="shared" si="8"/>
+        <v>854.25523076923082</v>
       </c>
       <c r="H18" s="31">
-        <f t="shared" si="7"/>
-        <v>475.97200000000004</v>
+        <f t="shared" si="8"/>
+        <v>814.3735384615386</v>
       </c>
       <c r="I18" s="31">
-        <f t="shared" si="7"/>
-        <v>464.92100000000005</v>
+        <f t="shared" si="8"/>
+        <v>796.11915384615384</v>
       </c>
       <c r="J18" s="31">
-        <f t="shared" si="7"/>
-        <v>483.19800000000004</v>
+        <f t="shared" si="8"/>
+        <v>833.6273076923078</v>
       </c>
       <c r="K18" s="31">
-        <f t="shared" si="7"/>
-        <v>683.25600000000009</v>
+        <f t="shared" si="8"/>
+        <v>1124.065653846154</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -2524,37 +2535,29 @@
       <c r="C19" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="37">
-        <f>108+15+30+437</f>
-        <v>590</v>
-      </c>
-      <c r="E19" s="37">
-        <f>108+15+30+437</f>
-        <v>590</v>
-      </c>
-      <c r="F19" s="34">
-        <f>427+30+15+104</f>
-        <v>576</v>
-      </c>
-      <c r="G19" s="34">
-        <f>(F19+H19)/2</f>
-        <v>586.5</v>
-      </c>
-      <c r="H19" s="34">
-        <f>110+16+30+441</f>
-        <v>597</v>
-      </c>
-      <c r="I19" s="34">
-        <f>481+30+19+124</f>
-        <v>654</v>
-      </c>
-      <c r="J19" s="34">
-        <f>126+19+30+501</f>
-        <v>676</v>
-      </c>
-      <c r="K19" s="34">
-        <f>494+30+19.3+130</f>
-        <v>673.3</v>
+      <c r="D19" s="3">
+        <v>665.24</v>
+      </c>
+      <c r="E19" s="3">
+        <v>658.14</v>
+      </c>
+      <c r="F19" s="3">
+        <v>664.97</v>
+      </c>
+      <c r="G19" s="3">
+        <v>677.85</v>
+      </c>
+      <c r="H19" s="3">
+        <v>683.45</v>
+      </c>
+      <c r="I19" s="3">
+        <v>674.66</v>
+      </c>
+      <c r="J19" s="3">
+        <v>755.5</v>
+      </c>
+      <c r="K19" s="3">
+        <v>832.95</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -2568,36 +2571,36 @@
         <v>177</v>
       </c>
       <c r="D20" s="38">
-        <f t="shared" ref="D20:K20" si="8">D19+D7+D18</f>
-        <v>1292.886</v>
+        <f>D19+D7+D18</f>
+        <v>1539.8690384615384</v>
       </c>
       <c r="E20" s="38">
-        <f t="shared" si="8"/>
-        <v>1285.5995</v>
+        <f t="shared" ref="E20:K20" si="9">E19+E7+E18</f>
+        <v>1524.8676538461539</v>
       </c>
       <c r="F20" s="38">
-        <f t="shared" si="8"/>
-        <v>1279.9124999999999</v>
+        <f t="shared" si="9"/>
+        <v>1549.8817692307694</v>
       </c>
       <c r="G20" s="38">
-        <f t="shared" si="8"/>
-        <v>1288.915</v>
+        <f t="shared" si="9"/>
+        <v>1562.2152307692309</v>
       </c>
       <c r="H20" s="38">
-        <f t="shared" si="8"/>
-        <v>1282.972</v>
+        <f t="shared" si="9"/>
+        <v>1527.9335384615388</v>
       </c>
       <c r="I20" s="38">
-        <f t="shared" si="8"/>
-        <v>1332.921</v>
+        <f t="shared" si="9"/>
+        <v>1500.8891538461539</v>
       </c>
       <c r="J20" s="38">
-        <f t="shared" si="8"/>
-        <v>1381.1980000000001</v>
+        <f t="shared" si="9"/>
+        <v>1619.2373076923077</v>
       </c>
       <c r="K20" s="38">
-        <f t="shared" si="8"/>
-        <v>1578.556</v>
+        <f t="shared" si="9"/>
+        <v>1957.015653846154</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -2609,36 +2612,36 @@
         <v>177</v>
       </c>
       <c r="D21" s="55">
-        <f t="shared" ref="D21:K21" si="9">D6-D20</f>
-        <v>351.06399999999985</v>
+        <f>D6-D20</f>
+        <v>-826.32403846153841</v>
       </c>
       <c r="E21" s="55">
-        <f t="shared" si="9"/>
-        <v>358.35049999999978</v>
+        <f t="shared" ref="D21:K21" si="10">E6-E20</f>
+        <v>-777.21865384615387</v>
       </c>
       <c r="F21" s="55">
-        <f t="shared" si="9"/>
-        <v>258.6875</v>
+        <f t="shared" si="10"/>
+        <v>-821.11176923076937</v>
       </c>
       <c r="G21" s="55">
-        <f t="shared" si="9"/>
-        <v>345.23499999999967</v>
+        <f t="shared" si="10"/>
+        <v>-777.41723076923086</v>
       </c>
       <c r="H21" s="55">
-        <f t="shared" si="9"/>
-        <v>446.72799999999984</v>
+        <f t="shared" si="10"/>
+        <v>-732.37653846153876</v>
       </c>
       <c r="I21" s="55">
-        <f t="shared" si="9"/>
-        <v>658.92899999999986</v>
+        <f t="shared" si="10"/>
+        <v>-732.94015384615398</v>
       </c>
       <c r="J21" s="55">
-        <f t="shared" si="9"/>
-        <v>228.452</v>
+        <f t="shared" si="10"/>
+        <v>-851.28830769230774</v>
       </c>
       <c r="K21" s="55">
-        <f t="shared" si="9"/>
-        <v>124.19399999999996</v>
+        <f t="shared" si="10"/>
+        <v>-1170.390653846154</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -2727,30 +2730,14 @@
       <c r="C26" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="D26" s="29">
-        <v>0.8</v>
-      </c>
-      <c r="E26" s="29">
-        <v>0.49</v>
-      </c>
-      <c r="F26" s="29">
-        <v>0.49</v>
-      </c>
-      <c r="G26" s="29">
-        <v>1.02</v>
-      </c>
-      <c r="H26" s="29">
-        <v>1.77</v>
-      </c>
-      <c r="I26" s="29">
-        <v>2.13</v>
-      </c>
-      <c r="J26" s="29">
-        <v>1.85</v>
-      </c>
-      <c r="K26" s="29">
-        <v>1.89</v>
-      </c>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="29"/>
     </row>
     <row r="27" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
@@ -2762,30 +2749,14 @@
       <c r="C27" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="D27" s="29">
-        <v>1.76</v>
-      </c>
-      <c r="E27" s="29">
-        <v>0.97</v>
-      </c>
-      <c r="F27" s="29">
-        <v>1.05</v>
-      </c>
-      <c r="G27" s="29">
-        <v>1.07</v>
-      </c>
-      <c r="H27" s="29">
-        <v>1.48</v>
-      </c>
-      <c r="I27" s="29">
-        <v>1.18</v>
-      </c>
-      <c r="J27" s="29">
-        <v>1.58</v>
-      </c>
-      <c r="K27" s="29">
-        <v>2.04</v>
-      </c>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="29"/>
     </row>
     <row r="28" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
@@ -2797,30 +2768,14 @@
       <c r="C28" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="D28" s="29">
-        <v>2</v>
-      </c>
-      <c r="E28" s="29">
-        <v>2.13</v>
-      </c>
-      <c r="F28" s="29">
-        <v>2.13</v>
-      </c>
-      <c r="G28" s="29">
-        <v>1.02</v>
-      </c>
-      <c r="H28" s="29">
-        <v>1.77</v>
-      </c>
-      <c r="I28" s="29">
-        <v>2.13</v>
-      </c>
-      <c r="J28" s="29">
-        <v>1.85</v>
-      </c>
-      <c r="K28" s="29">
-        <v>1.89</v>
-      </c>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="29"/>
     </row>
     <row r="29" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
@@ -2832,30 +2787,14 @@
       <c r="C29" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="D29" s="29">
-        <v>3.24</v>
-      </c>
-      <c r="E29" s="29">
-        <v>2.31</v>
-      </c>
-      <c r="F29" s="29">
-        <v>2.39</v>
-      </c>
-      <c r="G29" s="29">
-        <v>0.54</v>
-      </c>
-      <c r="H29" s="29">
-        <v>1.85</v>
-      </c>
-      <c r="I29" s="29">
-        <v>3.62</v>
-      </c>
-      <c r="J29" s="29">
-        <v>2.67</v>
-      </c>
-      <c r="K29" s="29">
-        <v>1.89</v>
-      </c>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="29"/>
     </row>
     <row r="30" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
@@ -2867,30 +2806,14 @@
       <c r="C30" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="D30" s="29">
-        <v>3.51</v>
-      </c>
-      <c r="E30" s="29">
-        <v>0.64</v>
-      </c>
-      <c r="F30" s="29">
-        <v>0.64</v>
-      </c>
-      <c r="G30" s="29">
-        <v>1.26</v>
-      </c>
-      <c r="H30" s="29">
-        <v>1.6</v>
-      </c>
-      <c r="I30" s="29">
-        <v>2.13</v>
-      </c>
-      <c r="J30" s="29">
-        <v>1.85</v>
-      </c>
-      <c r="K30" s="29">
-        <v>1.89</v>
-      </c>
+      <c r="D30" s="29"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="29"/>
+      <c r="K30" s="29"/>
     </row>
     <row r="31" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
@@ -2902,30 +2825,14 @@
       <c r="C31" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="D31" s="29">
-        <v>1.52</v>
-      </c>
-      <c r="E31" s="29">
-        <v>0.79</v>
-      </c>
-      <c r="F31" s="29">
-        <v>1</v>
-      </c>
-      <c r="G31" s="29">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="H31" s="29">
-        <v>1.78</v>
-      </c>
-      <c r="I31" s="29">
-        <v>1.59</v>
-      </c>
-      <c r="J31" s="29">
-        <v>1.88</v>
-      </c>
-      <c r="K31" s="29">
-        <v>1.82</v>
-      </c>
+      <c r="D31" s="29"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="29"/>
+      <c r="K31" s="29"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -2934,6 +2841,1048 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F417A572-8B3C-4366-BFFD-5FB309490CCF}">
+  <dimension ref="A3:U31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A11:XFD17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4">
+        <v>2015</v>
+      </c>
+      <c r="E3" s="4">
+        <v>2016</v>
+      </c>
+      <c r="F3" s="4">
+        <v>2017</v>
+      </c>
+      <c r="G3" s="4">
+        <v>2018</v>
+      </c>
+      <c r="H3" s="4">
+        <v>2019</v>
+      </c>
+      <c r="I3" s="4">
+        <v>2020</v>
+      </c>
+      <c r="J3" s="4">
+        <v>2021</v>
+      </c>
+      <c r="K3" s="4">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D4" s="29">
+        <v>5.13</v>
+      </c>
+      <c r="E4" s="29">
+        <v>6.59</v>
+      </c>
+      <c r="F4" s="29">
+        <v>4.49</v>
+      </c>
+      <c r="G4" s="29">
+        <v>3.88</v>
+      </c>
+      <c r="H4" s="29">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="I4" s="29">
+        <v>5.12</v>
+      </c>
+      <c r="J4" s="29">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="K4" s="29">
+        <v>5.83</v>
+      </c>
+      <c r="N4" s="29"/>
+      <c r="O4" s="29"/>
+      <c r="P4" s="29"/>
+      <c r="Q4" s="29"/>
+      <c r="R4" s="29"/>
+      <c r="S4" s="29"/>
+      <c r="T4" s="29"/>
+      <c r="U4" s="29"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B5" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D5" s="3">
+        <v>287.83</v>
+      </c>
+      <c r="E5" s="3">
+        <v>202.07</v>
+      </c>
+      <c r="F5" s="3">
+        <v>206.08</v>
+      </c>
+      <c r="G5" s="3">
+        <v>206.39</v>
+      </c>
+      <c r="H5" s="3">
+        <v>226.32</v>
+      </c>
+      <c r="I5" s="3">
+        <v>261</v>
+      </c>
+      <c r="J5" s="3">
+        <v>359.1</v>
+      </c>
+      <c r="K5" s="3">
+        <v>477.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B6" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D6" s="32">
+        <f>D5*D4</f>
+        <v>1476.5678999999998</v>
+      </c>
+      <c r="E6" s="32">
+        <f t="shared" ref="E6:K6" si="0">E5*E4</f>
+        <v>1331.6413</v>
+      </c>
+      <c r="F6" s="32">
+        <f t="shared" si="0"/>
+        <v>925.29920000000016</v>
+      </c>
+      <c r="G6" s="32">
+        <f t="shared" si="0"/>
+        <v>800.79319999999996</v>
+      </c>
+      <c r="H6" s="32">
+        <f t="shared" si="0"/>
+        <v>1079.5463999999999</v>
+      </c>
+      <c r="I6" s="32">
+        <f t="shared" si="0"/>
+        <v>1336.32</v>
+      </c>
+      <c r="J6" s="32">
+        <f t="shared" si="0"/>
+        <v>1712.9069999999999</v>
+      </c>
+      <c r="K6" s="32">
+        <f t="shared" si="0"/>
+        <v>2782.6590000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="3">
+        <v>125.78</v>
+      </c>
+      <c r="E7" s="3">
+        <v>115.61</v>
+      </c>
+      <c r="F7" s="3">
+        <v>103.31</v>
+      </c>
+      <c r="G7" s="3">
+        <v>107.83</v>
+      </c>
+      <c r="H7" s="3">
+        <v>111.33</v>
+      </c>
+      <c r="I7" s="3">
+        <v>111.33</v>
+      </c>
+      <c r="J7" s="3">
+        <v>113.66</v>
+      </c>
+      <c r="K7" s="3">
+        <v>131.74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B8" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="D8" s="77">
+        <v>15.1</v>
+      </c>
+      <c r="E8" s="77">
+        <v>15.1</v>
+      </c>
+      <c r="F8" s="77">
+        <v>15.1</v>
+      </c>
+      <c r="G8" s="77">
+        <v>15.1</v>
+      </c>
+      <c r="H8" s="77">
+        <v>15.1</v>
+      </c>
+      <c r="I8" s="77">
+        <v>15.1</v>
+      </c>
+      <c r="J8" s="77">
+        <v>15.1</v>
+      </c>
+      <c r="K8" s="77">
+        <v>15.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B9" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="D9" s="49">
+        <f>D4*D8</f>
+        <v>77.462999999999994</v>
+      </c>
+      <c r="E9" s="49">
+        <f t="shared" ref="E9:K9" si="1">E4*E8</f>
+        <v>99.509</v>
+      </c>
+      <c r="F9" s="49">
+        <f t="shared" si="1"/>
+        <v>67.799000000000007</v>
+      </c>
+      <c r="G9" s="49">
+        <f t="shared" si="1"/>
+        <v>58.587999999999994</v>
+      </c>
+      <c r="H9" s="49">
+        <f t="shared" si="1"/>
+        <v>72.026999999999987</v>
+      </c>
+      <c r="I9" s="49">
+        <f t="shared" si="1"/>
+        <v>77.311999999999998</v>
+      </c>
+      <c r="J9" s="49">
+        <f t="shared" si="1"/>
+        <v>72.026999999999987</v>
+      </c>
+      <c r="K9" s="49">
+        <f t="shared" si="1"/>
+        <v>88.033000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B10" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="D10" s="33">
+        <v>3.11</v>
+      </c>
+      <c r="E10" s="33">
+        <v>3.17</v>
+      </c>
+      <c r="F10" s="33">
+        <v>3.48</v>
+      </c>
+      <c r="G10" s="33">
+        <v>3.52</v>
+      </c>
+      <c r="H10" s="33">
+        <v>3.22</v>
+      </c>
+      <c r="I10" s="33">
+        <v>3.18</v>
+      </c>
+      <c r="J10" s="33">
+        <v>3.18</v>
+      </c>
+      <c r="K10" s="33">
+        <v>3.43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="B11" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="D11" s="98">
+        <v>8</v>
+      </c>
+      <c r="E11" s="98">
+        <v>8</v>
+      </c>
+      <c r="F11" s="98">
+        <v>8</v>
+      </c>
+      <c r="G11" s="98">
+        <v>8</v>
+      </c>
+      <c r="H11" s="98">
+        <v>8</v>
+      </c>
+      <c r="I11" s="98">
+        <v>8</v>
+      </c>
+      <c r="J11" s="98">
+        <v>8</v>
+      </c>
+      <c r="K11" s="98">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="B12" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="D12" s="96">
+        <f>D11*D4</f>
+        <v>41.04</v>
+      </c>
+      <c r="E12" s="96">
+        <f t="shared" ref="E12:K12" si="2">E11*E4</f>
+        <v>52.72</v>
+      </c>
+      <c r="F12" s="96">
+        <f t="shared" si="2"/>
+        <v>35.92</v>
+      </c>
+      <c r="G12" s="96">
+        <f t="shared" si="2"/>
+        <v>31.04</v>
+      </c>
+      <c r="H12" s="96">
+        <f t="shared" si="2"/>
+        <v>38.159999999999997</v>
+      </c>
+      <c r="I12" s="96">
+        <f t="shared" si="2"/>
+        <v>40.96</v>
+      </c>
+      <c r="J12" s="96">
+        <f t="shared" si="2"/>
+        <v>38.159999999999997</v>
+      </c>
+      <c r="K12" s="96">
+        <f t="shared" si="2"/>
+        <v>46.64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="B13" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="D13" s="97">
+        <v>1.42</v>
+      </c>
+      <c r="E13" s="97">
+        <v>1.34</v>
+      </c>
+      <c r="F13" s="97">
+        <v>1.2</v>
+      </c>
+      <c r="G13" s="97">
+        <v>1.2</v>
+      </c>
+      <c r="H13" s="97">
+        <v>1.19</v>
+      </c>
+      <c r="I13" s="97">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="J13" s="97">
+        <v>1.56</v>
+      </c>
+      <c r="K13" s="97">
+        <v>2.52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="B14" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="D14" s="100">
+        <v>6</v>
+      </c>
+      <c r="E14" s="100">
+        <v>6</v>
+      </c>
+      <c r="F14" s="100">
+        <v>6</v>
+      </c>
+      <c r="G14" s="100">
+        <v>6</v>
+      </c>
+      <c r="H14" s="100">
+        <v>6</v>
+      </c>
+      <c r="I14" s="100">
+        <v>6</v>
+      </c>
+      <c r="J14" s="100">
+        <v>6</v>
+      </c>
+      <c r="K14" s="100">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="B15" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="D15" s="96">
+        <f>D14*D4</f>
+        <v>30.78</v>
+      </c>
+      <c r="E15" s="96">
+        <f t="shared" ref="E15:K15" si="3">E14*E4</f>
+        <v>39.54</v>
+      </c>
+      <c r="F15" s="96">
+        <f t="shared" si="3"/>
+        <v>26.94</v>
+      </c>
+      <c r="G15" s="96">
+        <f t="shared" si="3"/>
+        <v>23.28</v>
+      </c>
+      <c r="H15" s="96">
+        <f t="shared" si="3"/>
+        <v>28.619999999999997</v>
+      </c>
+      <c r="I15" s="96">
+        <f t="shared" si="3"/>
+        <v>30.72</v>
+      </c>
+      <c r="J15" s="96">
+        <f t="shared" si="3"/>
+        <v>28.619999999999997</v>
+      </c>
+      <c r="K15" s="96">
+        <f t="shared" si="3"/>
+        <v>34.980000000000004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="B16" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="D16" s="97">
+        <v>1.72</v>
+      </c>
+      <c r="E16" s="97">
+        <v>1.67</v>
+      </c>
+      <c r="F16" s="97">
+        <v>1.61</v>
+      </c>
+      <c r="G16" s="97">
+        <v>1.58</v>
+      </c>
+      <c r="H16" s="97">
+        <v>1.58</v>
+      </c>
+      <c r="I16" s="97">
+        <v>1.54</v>
+      </c>
+      <c r="J16" s="97">
+        <v>1.56</v>
+      </c>
+      <c r="K16" s="97">
+        <v>2.52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B17" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D17" s="85">
+        <f>D10*D9+D13*D12+D16*D15</f>
+        <v>352.12832999999995</v>
+      </c>
+      <c r="E17" s="85">
+        <f t="shared" ref="E17:K17" si="4">E10*E9+E13*E12+E16*E15</f>
+        <v>452.12013000000002</v>
+      </c>
+      <c r="F17" s="85">
+        <f t="shared" si="4"/>
+        <v>322.41792000000004</v>
+      </c>
+      <c r="G17" s="85">
+        <f t="shared" si="4"/>
+        <v>280.26015999999998</v>
+      </c>
+      <c r="H17" s="85">
+        <f t="shared" si="4"/>
+        <v>322.55694</v>
+      </c>
+      <c r="I17" s="85">
+        <f t="shared" si="4"/>
+        <v>339.03616</v>
+      </c>
+      <c r="J17" s="85">
+        <f t="shared" si="4"/>
+        <v>333.22265999999996</v>
+      </c>
+      <c r="K17" s="85">
+        <f t="shared" si="4"/>
+        <v>507.63559000000004</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B18" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D18" s="31">
+        <f>D17</f>
+        <v>352.12832999999995</v>
+      </c>
+      <c r="E18" s="31">
+        <f t="shared" ref="E18:K18" si="5">E17</f>
+        <v>452.12013000000002</v>
+      </c>
+      <c r="F18" s="31">
+        <f t="shared" si="5"/>
+        <v>322.41792000000004</v>
+      </c>
+      <c r="G18" s="31">
+        <f t="shared" si="5"/>
+        <v>280.26015999999998</v>
+      </c>
+      <c r="H18" s="31">
+        <f t="shared" si="5"/>
+        <v>322.55694</v>
+      </c>
+      <c r="I18" s="31">
+        <f t="shared" si="5"/>
+        <v>339.03616</v>
+      </c>
+      <c r="J18" s="31">
+        <f t="shared" si="5"/>
+        <v>333.22265999999996</v>
+      </c>
+      <c r="K18" s="31">
+        <f t="shared" si="5"/>
+        <v>507.63559000000004</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="37">
+        <f>65+312+5+24</f>
+        <v>406</v>
+      </c>
+      <c r="E19" s="34">
+        <f>64+309+7+26</f>
+        <v>406</v>
+      </c>
+      <c r="F19" s="34">
+        <f>78+312+4+27</f>
+        <v>421</v>
+      </c>
+      <c r="G19" s="34">
+        <f>76+320+4+27</f>
+        <v>427</v>
+      </c>
+      <c r="H19" s="34">
+        <f>108+322+5+24</f>
+        <v>459</v>
+      </c>
+      <c r="I19" s="34">
+        <f>84+315+6+22</f>
+        <v>427</v>
+      </c>
+      <c r="J19" s="34">
+        <f>82+340+5+23</f>
+        <v>450</v>
+      </c>
+      <c r="K19" s="34">
+        <f>89+409+9+22</f>
+        <v>529</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A20" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" t="s">
+        <v>179</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="D20" s="38">
+        <f t="shared" ref="D20:K20" si="6">D19+D7+D18</f>
+        <v>883.90832999999998</v>
+      </c>
+      <c r="E20" s="38">
+        <f t="shared" si="6"/>
+        <v>973.73013000000003</v>
+      </c>
+      <c r="F20" s="38">
+        <f t="shared" si="6"/>
+        <v>846.72792000000004</v>
+      </c>
+      <c r="G20" s="38">
+        <f t="shared" si="6"/>
+        <v>815.09015999999997</v>
+      </c>
+      <c r="H20" s="38">
+        <f t="shared" si="6"/>
+        <v>892.8869400000001</v>
+      </c>
+      <c r="I20" s="38">
+        <f t="shared" si="6"/>
+        <v>877.36616000000004</v>
+      </c>
+      <c r="J20" s="38">
+        <f t="shared" si="6"/>
+        <v>896.88265999999999</v>
+      </c>
+      <c r="K20" s="38">
+        <f t="shared" si="6"/>
+        <v>1168.3755900000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="D21" s="6">
+        <f t="shared" ref="D21:K21" si="7">D6-D20</f>
+        <v>592.6595699999998</v>
+      </c>
+      <c r="E21" s="6">
+        <f t="shared" si="7"/>
+        <v>357.91116999999997</v>
+      </c>
+      <c r="F21" s="6">
+        <f t="shared" si="7"/>
+        <v>78.571280000000115</v>
+      </c>
+      <c r="G21" s="6">
+        <f t="shared" si="7"/>
+        <v>-14.296960000000013</v>
+      </c>
+      <c r="H21" s="6">
+        <f t="shared" si="7"/>
+        <v>186.65945999999985</v>
+      </c>
+      <c r="I21" s="6">
+        <f t="shared" si="7"/>
+        <v>458.9538399999999</v>
+      </c>
+      <c r="J21" s="6">
+        <f t="shared" si="7"/>
+        <v>816.02433999999994</v>
+      </c>
+      <c r="K21" s="6">
+        <f t="shared" si="7"/>
+        <v>1614.28341</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D24" s="67"/>
+      <c r="E24" s="67"/>
+      <c r="F24" s="67"/>
+      <c r="G24" s="67"/>
+      <c r="H24" s="67"/>
+      <c r="I24" s="67"/>
+      <c r="J24" s="67"/>
+      <c r="K24" s="67"/>
+      <c r="N24" s="29"/>
+      <c r="O24" s="29"/>
+      <c r="P24" s="29"/>
+      <c r="Q24" s="29"/>
+      <c r="R24" s="29"/>
+      <c r="S24" s="29"/>
+      <c r="T24" s="29"/>
+      <c r="U24" s="29"/>
+    </row>
+    <row r="25" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" t="s">
+        <v>182</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D25" s="67"/>
+      <c r="E25" s="67"/>
+      <c r="F25" s="67"/>
+      <c r="G25" s="67"/>
+      <c r="H25" s="67"/>
+      <c r="I25" s="67"/>
+      <c r="J25" s="67"/>
+      <c r="K25" s="67"/>
+      <c r="N25" s="29"/>
+      <c r="O25" s="29"/>
+      <c r="P25" s="29"/>
+      <c r="Q25" s="29"/>
+      <c r="R25" s="29"/>
+      <c r="S25" s="29"/>
+      <c r="T25" s="29"/>
+      <c r="U25" s="29"/>
+    </row>
+    <row r="26" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26" t="s">
+        <v>183</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D26" s="29">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="E26" s="29">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="F26" s="29">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="G26" s="29">
+        <v>3.88</v>
+      </c>
+      <c r="H26" s="29">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="I26" s="29">
+        <v>5.12</v>
+      </c>
+      <c r="J26" s="29">
+        <v>4.76</v>
+      </c>
+      <c r="K26" s="29">
+        <v>5.82</v>
+      </c>
+      <c r="N26" s="29"/>
+      <c r="O26" s="29"/>
+      <c r="P26" s="29"/>
+      <c r="Q26" s="29"/>
+      <c r="R26" s="29"/>
+      <c r="S26" s="29"/>
+      <c r="T26" s="29"/>
+      <c r="U26" s="29"/>
+    </row>
+    <row r="27" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" t="s">
+        <v>184</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D27" s="67"/>
+      <c r="E27" s="67"/>
+      <c r="F27" s="67"/>
+      <c r="G27" s="67"/>
+      <c r="H27" s="67"/>
+      <c r="I27" s="67"/>
+      <c r="J27" s="67"/>
+      <c r="K27" s="67"/>
+      <c r="N27" s="29"/>
+      <c r="O27" s="29"/>
+      <c r="P27" s="29"/>
+      <c r="Q27" s="29"/>
+      <c r="R27" s="29"/>
+      <c r="S27" s="29"/>
+      <c r="T27" s="29"/>
+      <c r="U27" s="29"/>
+    </row>
+    <row r="28" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28" t="s">
+        <v>185</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D28" s="67"/>
+      <c r="E28" s="67"/>
+      <c r="F28" s="67"/>
+      <c r="G28" s="67"/>
+      <c r="H28" s="67"/>
+      <c r="I28" s="67"/>
+      <c r="J28" s="67"/>
+      <c r="K28" s="67"/>
+      <c r="N28" s="29"/>
+      <c r="O28" s="29"/>
+      <c r="P28" s="29"/>
+      <c r="Q28" s="29"/>
+      <c r="R28" s="29"/>
+      <c r="S28" s="29"/>
+      <c r="T28" s="29"/>
+      <c r="U28" s="29"/>
+    </row>
+    <row r="29" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29" t="s">
+        <v>186</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D29" s="29">
+        <v>8.89</v>
+      </c>
+      <c r="E29" s="29">
+        <v>8.89</v>
+      </c>
+      <c r="F29" s="29">
+        <v>8.89</v>
+      </c>
+      <c r="G29" s="29">
+        <v>3.88</v>
+      </c>
+      <c r="H29" s="29">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="I29" s="29">
+        <v>5.12</v>
+      </c>
+      <c r="J29" s="29">
+        <v>4.76</v>
+      </c>
+      <c r="K29" s="29">
+        <v>5.82</v>
+      </c>
+      <c r="N29" s="39"/>
+      <c r="O29" s="39"/>
+      <c r="P29" s="39"/>
+      <c r="Q29" s="39"/>
+      <c r="R29" s="39"/>
+      <c r="S29" s="39"/>
+      <c r="T29" s="39"/>
+      <c r="U29" s="39"/>
+    </row>
+    <row r="30" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B30" t="s">
+        <v>188</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D30" s="29">
+        <v>5.68</v>
+      </c>
+      <c r="E30" s="29">
+        <v>5.68</v>
+      </c>
+      <c r="F30" s="29">
+        <v>5.68</v>
+      </c>
+      <c r="G30" s="29">
+        <v>3.88</v>
+      </c>
+      <c r="H30" s="29">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="I30" s="29">
+        <v>5.12</v>
+      </c>
+      <c r="J30" s="29">
+        <v>4.76</v>
+      </c>
+      <c r="K30" s="29">
+        <v>5.82</v>
+      </c>
+      <c r="N30" s="29"/>
+      <c r="O30" s="29"/>
+      <c r="P30" s="29"/>
+      <c r="Q30" s="29"/>
+      <c r="R30" s="29"/>
+      <c r="S30" s="29"/>
+      <c r="T30" s="29"/>
+      <c r="U30" s="29"/>
+    </row>
+    <row r="31" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" t="s">
+        <v>187</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D31" s="29">
+        <v>5.13</v>
+      </c>
+      <c r="E31" s="29">
+        <v>5.42</v>
+      </c>
+      <c r="F31" s="29">
+        <v>3.61</v>
+      </c>
+      <c r="G31" s="29">
+        <v>3.88</v>
+      </c>
+      <c r="H31" s="29">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="I31" s="29">
+        <v>5.12</v>
+      </c>
+      <c r="J31" s="29">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="K31" s="29">
+        <v>5.83</v>
+      </c>
+      <c r="N31" s="29"/>
+      <c r="O31" s="29"/>
+      <c r="P31" s="29"/>
+      <c r="Q31" s="29"/>
+      <c r="R31" s="29"/>
+      <c r="S31" s="29"/>
+      <c r="T31" s="29"/>
+      <c r="U31" s="29"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A64135B8-E7E3-4A5F-8C26-DEA931A42179}">
   <dimension ref="A3:K31"/>
   <sheetViews>
@@ -3967,7 +4916,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39D7C62F-8B87-4908-A0A3-6614DAEAD8EA}">
   <dimension ref="A3:K31"/>
   <sheetViews>
@@ -5002,7 +5951,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65299A8D-6BEA-4E72-BD39-933C68C3B034}">
   <dimension ref="A3:K31"/>
   <sheetViews>
@@ -6036,7 +6985,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54CCD4D4-4608-408B-AFB6-337312556698}">
   <dimension ref="A3:K31"/>
   <sheetViews>
@@ -7071,7 +8020,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F08483FC-BFEF-4C03-AC54-85BF0CA86305}">
   <dimension ref="A3:K31"/>
   <sheetViews>
@@ -8105,7 +9054,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3984A9E-00E3-47DD-9AF9-A792D9F0569E}">
   <dimension ref="A3:K31"/>
   <sheetViews>
@@ -9139,7 +10088,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E0C405F-94A0-42A2-9B9F-9E92BEE44B5B}">
   <dimension ref="A3:K31"/>
   <sheetViews>
@@ -10137,18 +11086,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A4B67C8-AC17-4829-87C2-E474EB55A78F}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -12087,11 +13024,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DB1167F-E09D-41BB-B2F7-2774B79A088B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB5EB403-E4E3-49A8-A597-EB2AAA0D64A5}">
   <dimension ref="A3:K31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12103,7 +13040,7 @@
   <sheetData>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -12141,28 +13078,28 @@
         <v>171</v>
       </c>
       <c r="D4" s="29">
-        <v>25.4</v>
+        <v>24.5</v>
       </c>
       <c r="E4" s="29">
-        <v>25.4</v>
+        <v>24.5</v>
       </c>
       <c r="F4" s="29">
-        <v>25.4</v>
+        <v>24.5</v>
       </c>
       <c r="G4" s="29">
-        <v>25.4</v>
+        <v>24.5</v>
       </c>
       <c r="H4" s="29">
-        <v>25.4</v>
+        <v>24.5</v>
       </c>
       <c r="I4" s="29">
-        <v>25.4</v>
+        <v>24.5</v>
       </c>
       <c r="J4" s="29">
-        <v>25.4</v>
+        <v>24.5</v>
       </c>
       <c r="K4" s="29">
-        <v>25.4</v>
+        <v>24.5</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -12176,28 +13113,29 @@
         <v>178</v>
       </c>
       <c r="D5" s="3">
-        <v>48.3</v>
+        <v>67.099999999999994</v>
       </c>
       <c r="E5" s="3">
-        <v>61.4</v>
+        <v>67.099999999999994</v>
       </c>
       <c r="F5" s="3">
-        <v>56.3</v>
+        <v>62.8</v>
       </c>
       <c r="G5" s="3">
-        <v>57.3</v>
+        <f>(F5+H5)/2</f>
+        <v>66.699999999999989</v>
       </c>
       <c r="H5" s="3">
-        <v>66.7</v>
+        <v>70.599999999999994</v>
       </c>
       <c r="I5" s="3">
-        <v>74.3</v>
+        <v>81.3</v>
       </c>
       <c r="J5" s="3">
-        <v>66.099999999999994</v>
+        <v>65.7</v>
       </c>
       <c r="K5" s="3">
-        <v>66.099999999999994</v>
+        <v>69.5</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -12212,35 +13150,35 @@
       </c>
       <c r="D6" s="32">
         <f>D5*D4</f>
-        <v>1226.82</v>
+        <v>1643.9499999999998</v>
       </c>
       <c r="E6" s="32">
         <f t="shared" ref="E6:K6" si="0">E5*E4</f>
-        <v>1559.56</v>
+        <v>1643.9499999999998</v>
       </c>
       <c r="F6" s="32">
         <f t="shared" si="0"/>
-        <v>1430.0199999999998</v>
+        <v>1538.6</v>
       </c>
       <c r="G6" s="32">
         <f t="shared" si="0"/>
-        <v>1455.4199999999998</v>
+        <v>1634.1499999999996</v>
       </c>
       <c r="H6" s="32">
         <f t="shared" si="0"/>
-        <v>1694.18</v>
+        <v>1729.6999999999998</v>
       </c>
       <c r="I6" s="32">
         <f t="shared" si="0"/>
-        <v>1887.2199999999998</v>
+        <v>1991.85</v>
       </c>
       <c r="J6" s="32">
         <f t="shared" si="0"/>
-        <v>1678.9399999999998</v>
+        <v>1609.65</v>
       </c>
       <c r="K6" s="32">
         <f t="shared" si="0"/>
-        <v>1678.9399999999998</v>
+        <v>1702.75</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -12253,29 +13191,29 @@
       <c r="C7" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="48">
-        <v>163.5</v>
-      </c>
-      <c r="E7" s="48">
-        <v>163.5</v>
-      </c>
-      <c r="F7" s="48">
-        <v>163.5</v>
-      </c>
-      <c r="G7" s="48">
-        <v>170</v>
-      </c>
-      <c r="H7" s="48">
-        <v>180</v>
-      </c>
-      <c r="I7" s="48">
-        <v>190</v>
-      </c>
-      <c r="J7" s="48">
-        <v>204</v>
-      </c>
-      <c r="K7" s="48">
-        <v>204</v>
+      <c r="D7" s="3">
+        <v>203</v>
+      </c>
+      <c r="E7" s="3">
+        <v>203</v>
+      </c>
+      <c r="F7" s="3">
+        <v>208</v>
+      </c>
+      <c r="G7" s="3">
+        <v>209</v>
+      </c>
+      <c r="H7" s="3">
+        <v>210</v>
+      </c>
+      <c r="I7" s="3">
+        <v>214</v>
+      </c>
+      <c r="J7" s="3">
+        <v>222</v>
+      </c>
+      <c r="K7" s="3">
+        <v>222</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -12289,28 +13227,36 @@
         <v>247</v>
       </c>
       <c r="D8" s="65">
-        <v>0</v>
+        <f>57/D4</f>
+        <v>2.3265306122448979</v>
       </c>
       <c r="E8" s="65">
-        <v>0</v>
+        <f t="shared" ref="E8:K8" si="1">57/E4</f>
+        <v>2.3265306122448979</v>
       </c>
       <c r="F8" s="65">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>2.3265306122448979</v>
       </c>
       <c r="G8" s="65">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>2.3265306122448979</v>
       </c>
       <c r="H8" s="65">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>2.3265306122448979</v>
       </c>
       <c r="I8" s="65">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>2.3265306122448979</v>
       </c>
       <c r="J8" s="65">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>2.3265306122448979</v>
       </c>
       <c r="K8" s="65">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>2.3265306122448979</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -12325,35 +13271,35 @@
       </c>
       <c r="D9" s="49">
         <f>D8*D4</f>
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="E9" s="49">
-        <f t="shared" ref="E9:K9" si="1">E8*E4</f>
-        <v>0</v>
+        <f t="shared" ref="E9:K9" si="2">E8*E4</f>
+        <v>57</v>
       </c>
       <c r="F9" s="49">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>57</v>
       </c>
       <c r="G9" s="49">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>57</v>
       </c>
       <c r="H9" s="49">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>57</v>
       </c>
       <c r="I9" s="49">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>57</v>
       </c>
       <c r="J9" s="49">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>57</v>
       </c>
       <c r="K9" s="49">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -12402,36 +13348,28 @@
         <v>309</v>
       </c>
       <c r="D11" s="109">
-        <f>0.14*10</f>
-        <v>1.4000000000000001</v>
+        <v>1.4</v>
       </c>
       <c r="E11" s="109">
-        <f t="shared" ref="E11:K11" si="2">0.14*10</f>
-        <v>1.4000000000000001</v>
+        <v>1.4</v>
       </c>
       <c r="F11" s="109">
-        <f t="shared" si="2"/>
-        <v>1.4000000000000001</v>
+        <v>1.4</v>
       </c>
       <c r="G11" s="109">
-        <f t="shared" si="2"/>
-        <v>1.4000000000000001</v>
+        <v>1.4</v>
       </c>
       <c r="H11" s="109">
-        <f t="shared" si="2"/>
-        <v>1.4000000000000001</v>
+        <v>1.4</v>
       </c>
       <c r="I11" s="109">
-        <f t="shared" si="2"/>
-        <v>1.4000000000000001</v>
+        <v>1.4</v>
       </c>
       <c r="J11" s="109">
-        <f t="shared" si="2"/>
-        <v>1.4000000000000001</v>
+        <v>1.4</v>
       </c>
       <c r="K11" s="109">
-        <f t="shared" si="2"/>
-        <v>1.4000000000000001</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -12446,35 +13384,35 @@
       </c>
       <c r="D12" s="96">
         <f>D11*D4</f>
-        <v>35.56</v>
+        <v>34.299999999999997</v>
       </c>
       <c r="E12" s="96">
         <f t="shared" ref="E12:K12" si="3">E11*E4</f>
-        <v>35.56</v>
+        <v>34.299999999999997</v>
       </c>
       <c r="F12" s="96">
         <f t="shared" si="3"/>
-        <v>35.56</v>
+        <v>34.299999999999997</v>
       </c>
       <c r="G12" s="96">
         <f t="shared" si="3"/>
-        <v>35.56</v>
+        <v>34.299999999999997</v>
       </c>
       <c r="H12" s="96">
         <f t="shared" si="3"/>
-        <v>35.56</v>
+        <v>34.299999999999997</v>
       </c>
       <c r="I12" s="96">
         <f t="shared" si="3"/>
-        <v>35.56</v>
+        <v>34.299999999999997</v>
       </c>
       <c r="J12" s="96">
         <f t="shared" si="3"/>
-        <v>35.56</v>
+        <v>34.299999999999997</v>
       </c>
       <c r="K12" s="96">
         <f t="shared" si="3"/>
-        <v>35.56</v>
+        <v>34.299999999999997</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -12522,35 +13460,35 @@
       <c r="C14" s="102" t="s">
         <v>312</v>
       </c>
-      <c r="D14" s="101">
+      <c r="D14" s="84">
         <f>0.65*10</f>
         <v>6.5</v>
       </c>
-      <c r="E14" s="101">
+      <c r="E14" s="84">
         <f t="shared" ref="E14:K14" si="4">0.65*10</f>
         <v>6.5</v>
       </c>
-      <c r="F14" s="101">
+      <c r="F14" s="84">
         <f t="shared" si="4"/>
         <v>6.5</v>
       </c>
-      <c r="G14" s="101">
+      <c r="G14" s="84">
         <f t="shared" si="4"/>
         <v>6.5</v>
       </c>
-      <c r="H14" s="101">
+      <c r="H14" s="84">
         <f t="shared" si="4"/>
         <v>6.5</v>
       </c>
-      <c r="I14" s="101">
+      <c r="I14" s="84">
         <f t="shared" si="4"/>
         <v>6.5</v>
       </c>
-      <c r="J14" s="101">
+      <c r="J14" s="84">
         <f t="shared" si="4"/>
         <v>6.5</v>
       </c>
-      <c r="K14" s="101">
+      <c r="K14" s="84">
         <f t="shared" si="4"/>
         <v>6.5</v>
       </c>
@@ -12567,35 +13505,35 @@
       </c>
       <c r="D15" s="96">
         <f>D14*D4</f>
-        <v>165.1</v>
+        <v>159.25</v>
       </c>
       <c r="E15" s="96">
         <f t="shared" ref="E15:K15" si="5">E14*E4</f>
-        <v>165.1</v>
+        <v>159.25</v>
       </c>
       <c r="F15" s="96">
         <f t="shared" si="5"/>
-        <v>165.1</v>
+        <v>159.25</v>
       </c>
       <c r="G15" s="96">
         <f t="shared" si="5"/>
-        <v>165.1</v>
+        <v>159.25</v>
       </c>
       <c r="H15" s="96">
         <f t="shared" si="5"/>
-        <v>165.1</v>
+        <v>159.25</v>
       </c>
       <c r="I15" s="96">
         <f t="shared" si="5"/>
-        <v>165.1</v>
+        <v>159.25</v>
       </c>
       <c r="J15" s="96">
         <f t="shared" si="5"/>
-        <v>165.1</v>
+        <v>159.25</v>
       </c>
       <c r="K15" s="96">
         <f t="shared" si="5"/>
-        <v>165.1</v>
+        <v>159.25</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -12645,35 +13583,35 @@
       </c>
       <c r="D17" s="85">
         <f>D10*D9+D13*D12+D16*D15</f>
-        <v>334.46719999999999</v>
+        <v>499.88599999999997</v>
       </c>
       <c r="E17" s="85">
         <f t="shared" ref="E17:K17" si="6">E10*E9+E13*E12+E16*E15</f>
-        <v>323.36739999999998</v>
+        <v>492.59949999999998</v>
       </c>
       <c r="F17" s="85">
         <f t="shared" si="6"/>
-        <v>308.483</v>
+        <v>495.91250000000002</v>
       </c>
       <c r="G17" s="85">
         <f t="shared" si="6"/>
-        <v>303.53000000000003</v>
+        <v>493.41500000000002</v>
       </c>
       <c r="H17" s="85">
         <f t="shared" si="6"/>
-        <v>303.17439999999999</v>
+        <v>475.97200000000004</v>
       </c>
       <c r="I17" s="85">
         <f t="shared" si="6"/>
-        <v>294.08119999999997</v>
+        <v>464.92100000000005</v>
       </c>
       <c r="J17" s="85">
         <f t="shared" si="6"/>
-        <v>313.02959999999996</v>
+        <v>483.19800000000004</v>
       </c>
       <c r="K17" s="85">
         <f t="shared" si="6"/>
-        <v>505.66319999999996</v>
+        <v>683.25600000000009</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -12688,35 +13626,35 @@
       </c>
       <c r="D18" s="31">
         <f>D17</f>
-        <v>334.46719999999999</v>
+        <v>499.88599999999997</v>
       </c>
       <c r="E18" s="31">
         <f t="shared" ref="E18:K18" si="7">E17</f>
-        <v>323.36739999999998</v>
+        <v>492.59949999999998</v>
       </c>
       <c r="F18" s="31">
         <f t="shared" si="7"/>
-        <v>308.483</v>
+        <v>495.91250000000002</v>
       </c>
       <c r="G18" s="31">
         <f t="shared" si="7"/>
-        <v>303.53000000000003</v>
+        <v>493.41500000000002</v>
       </c>
       <c r="H18" s="31">
         <f t="shared" si="7"/>
-        <v>303.17439999999999</v>
+        <v>475.97200000000004</v>
       </c>
       <c r="I18" s="31">
         <f t="shared" si="7"/>
-        <v>294.08119999999997</v>
+        <v>464.92100000000005</v>
       </c>
       <c r="J18" s="31">
         <f t="shared" si="7"/>
-        <v>313.02959999999996</v>
+        <v>483.19800000000004</v>
       </c>
       <c r="K18" s="31">
         <f t="shared" si="7"/>
-        <v>505.66319999999996</v>
+        <v>683.25600000000009</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -12730,33 +13668,36 @@
         <v>5</v>
       </c>
       <c r="D19" s="37">
-        <f>439+32+143</f>
-        <v>614</v>
+        <f>108+15+30+437</f>
+        <v>590</v>
       </c>
       <c r="E19" s="37">
-        <f>439+32+143</f>
-        <v>614</v>
+        <f>108+15+30+437</f>
+        <v>590</v>
       </c>
       <c r="F19" s="34">
-        <v>600</v>
+        <f>427+30+15+104</f>
+        <v>576</v>
       </c>
       <c r="G19" s="34">
-        <v>610</v>
+        <f>(F19+H19)/2</f>
+        <v>586.5</v>
       </c>
       <c r="H19" s="34">
-        <v>620</v>
+        <f>110+16+30+441</f>
+        <v>597</v>
       </c>
       <c r="I19" s="34">
-        <f>167+32+476</f>
-        <v>675</v>
+        <f>481+30+19+124</f>
+        <v>654</v>
       </c>
       <c r="J19" s="34">
-        <f>486+33+170</f>
-        <v>689</v>
+        <f>126+19+30+501</f>
+        <v>676</v>
       </c>
       <c r="K19" s="34">
-        <f>173+32+483</f>
-        <v>688</v>
+        <f>494+30+19.3+130</f>
+        <v>673.3</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -12770,36 +13711,36 @@
         <v>177</v>
       </c>
       <c r="D20" s="38">
-        <f t="shared" ref="D20:K20" si="8">D19+D7+D18</f>
-        <v>1111.9672</v>
+        <f>D19+D7+D18</f>
+        <v>1292.886</v>
       </c>
       <c r="E20" s="38">
-        <f t="shared" si="8"/>
-        <v>1100.8674000000001</v>
+        <f t="shared" ref="D20:K20" si="8">E19+E7+E18</f>
+        <v>1285.5995</v>
       </c>
       <c r="F20" s="38">
         <f t="shared" si="8"/>
-        <v>1071.9829999999999</v>
+        <v>1279.9124999999999</v>
       </c>
       <c r="G20" s="38">
         <f t="shared" si="8"/>
-        <v>1083.53</v>
+        <v>1288.915</v>
       </c>
       <c r="H20" s="38">
         <f t="shared" si="8"/>
-        <v>1103.1743999999999</v>
+        <v>1282.972</v>
       </c>
       <c r="I20" s="38">
         <f t="shared" si="8"/>
-        <v>1159.0812000000001</v>
+        <v>1332.921</v>
       </c>
       <c r="J20" s="38">
         <f t="shared" si="8"/>
-        <v>1206.0295999999998</v>
+        <v>1381.1980000000001</v>
       </c>
       <c r="K20" s="38">
         <f t="shared" si="8"/>
-        <v>1397.6632</v>
+        <v>1578.556</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -12811,36 +13752,36 @@
         <v>177</v>
       </c>
       <c r="D21" s="55">
-        <f t="shared" ref="D21:K21" si="9">D6-D20</f>
-        <v>114.85279999999989</v>
+        <f>D6-D20</f>
+        <v>351.06399999999985</v>
       </c>
       <c r="E21" s="55">
-        <f t="shared" si="9"/>
-        <v>458.69259999999986</v>
+        <f t="shared" ref="D21:K21" si="9">E6-E20</f>
+        <v>358.35049999999978</v>
       </c>
       <c r="F21" s="55">
         <f t="shared" si="9"/>
-        <v>358.03699999999981</v>
+        <v>258.6875</v>
       </c>
       <c r="G21" s="55">
         <f t="shared" si="9"/>
-        <v>371.88999999999987</v>
+        <v>345.23499999999967</v>
       </c>
       <c r="H21" s="55">
         <f t="shared" si="9"/>
-        <v>591.00560000000019</v>
+        <v>446.72799999999984</v>
       </c>
       <c r="I21" s="55">
         <f t="shared" si="9"/>
-        <v>728.13879999999972</v>
+        <v>658.92899999999986</v>
       </c>
       <c r="J21" s="55">
         <f t="shared" si="9"/>
-        <v>472.91039999999998</v>
+        <v>228.452</v>
       </c>
       <c r="K21" s="55">
         <f t="shared" si="9"/>
-        <v>281.27679999999987</v>
+        <v>124.19399999999996</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -12929,14 +13870,30 @@
       <c r="C26" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="29"/>
-      <c r="J26" s="29"/>
-      <c r="K26" s="29"/>
+      <c r="D26" s="29">
+        <v>0.8</v>
+      </c>
+      <c r="E26" s="29">
+        <v>0.49</v>
+      </c>
+      <c r="F26" s="29">
+        <v>0.49</v>
+      </c>
+      <c r="G26" s="29">
+        <v>1.02</v>
+      </c>
+      <c r="H26" s="29">
+        <v>1.77</v>
+      </c>
+      <c r="I26" s="29">
+        <v>2.13</v>
+      </c>
+      <c r="J26" s="29">
+        <v>1.85</v>
+      </c>
+      <c r="K26" s="29">
+        <v>1.89</v>
+      </c>
     </row>
     <row r="27" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
@@ -12948,14 +13905,30 @@
       <c r="C27" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="29"/>
-      <c r="I27" s="29"/>
-      <c r="J27" s="29"/>
-      <c r="K27" s="29"/>
+      <c r="D27" s="29">
+        <v>1.76</v>
+      </c>
+      <c r="E27" s="29">
+        <v>0.97</v>
+      </c>
+      <c r="F27" s="29">
+        <v>1.05</v>
+      </c>
+      <c r="G27" s="29">
+        <v>1.07</v>
+      </c>
+      <c r="H27" s="29">
+        <v>1.48</v>
+      </c>
+      <c r="I27" s="29">
+        <v>1.18</v>
+      </c>
+      <c r="J27" s="29">
+        <v>1.58</v>
+      </c>
+      <c r="K27" s="29">
+        <v>2.04</v>
+      </c>
     </row>
     <row r="28" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
@@ -12967,14 +13940,30 @@
       <c r="C28" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="29"/>
-      <c r="I28" s="29"/>
-      <c r="J28" s="29"/>
-      <c r="K28" s="29"/>
+      <c r="D28" s="29">
+        <v>2</v>
+      </c>
+      <c r="E28" s="29">
+        <v>2.13</v>
+      </c>
+      <c r="F28" s="29">
+        <v>2.13</v>
+      </c>
+      <c r="G28" s="29">
+        <v>1.02</v>
+      </c>
+      <c r="H28" s="29">
+        <v>1.77</v>
+      </c>
+      <c r="I28" s="29">
+        <v>2.13</v>
+      </c>
+      <c r="J28" s="29">
+        <v>1.85</v>
+      </c>
+      <c r="K28" s="29">
+        <v>1.89</v>
+      </c>
     </row>
     <row r="29" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
@@ -12986,14 +13975,30 @@
       <c r="C29" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="29"/>
-      <c r="I29" s="29"/>
-      <c r="J29" s="29"/>
-      <c r="K29" s="29"/>
+      <c r="D29" s="29">
+        <v>3.24</v>
+      </c>
+      <c r="E29" s="29">
+        <v>2.31</v>
+      </c>
+      <c r="F29" s="29">
+        <v>2.39</v>
+      </c>
+      <c r="G29" s="29">
+        <v>0.54</v>
+      </c>
+      <c r="H29" s="29">
+        <v>1.85</v>
+      </c>
+      <c r="I29" s="29">
+        <v>3.62</v>
+      </c>
+      <c r="J29" s="29">
+        <v>2.67</v>
+      </c>
+      <c r="K29" s="29">
+        <v>1.89</v>
+      </c>
     </row>
     <row r="30" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
@@ -13005,14 +14010,30 @@
       <c r="C30" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="D30" s="29"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="29"/>
-      <c r="H30" s="29"/>
-      <c r="I30" s="29"/>
-      <c r="J30" s="29"/>
-      <c r="K30" s="29"/>
+      <c r="D30" s="29">
+        <v>3.51</v>
+      </c>
+      <c r="E30" s="29">
+        <v>0.64</v>
+      </c>
+      <c r="F30" s="29">
+        <v>0.64</v>
+      </c>
+      <c r="G30" s="29">
+        <v>1.26</v>
+      </c>
+      <c r="H30" s="29">
+        <v>1.6</v>
+      </c>
+      <c r="I30" s="29">
+        <v>2.13</v>
+      </c>
+      <c r="J30" s="29">
+        <v>1.85</v>
+      </c>
+      <c r="K30" s="29">
+        <v>1.89</v>
+      </c>
     </row>
     <row r="31" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
@@ -13024,17 +14045,34 @@
       <c r="C31" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="D31" s="29"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="29"/>
-      <c r="H31" s="29"/>
-      <c r="I31" s="29"/>
-      <c r="J31" s="29"/>
-      <c r="K31" s="29"/>
+      <c r="D31" s="29">
+        <v>1.52</v>
+      </c>
+      <c r="E31" s="29">
+        <v>0.79</v>
+      </c>
+      <c r="F31" s="29">
+        <v>1</v>
+      </c>
+      <c r="G31" s="29">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="H31" s="29">
+        <v>1.78</v>
+      </c>
+      <c r="I31" s="29">
+        <v>1.59</v>
+      </c>
+      <c r="J31" s="29">
+        <v>1.88</v>
+      </c>
+      <c r="K31" s="29">
+        <v>1.82</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -15955,7 +16993,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEBC5245-C226-4EBF-9797-453338F0B92D}">
   <dimension ref="A3:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J13" sqref="I13:J13"/>
     </sheetView>
   </sheetViews>
@@ -22637,6 +23675,958 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DB1167F-E09D-41BB-B2F7-2774B79A088B}">
+  <dimension ref="A3:K31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4">
+        <v>2015</v>
+      </c>
+      <c r="E3" s="4">
+        <v>2016</v>
+      </c>
+      <c r="F3" s="4">
+        <v>2017</v>
+      </c>
+      <c r="G3" s="4">
+        <v>2018</v>
+      </c>
+      <c r="H3" s="4">
+        <v>2019</v>
+      </c>
+      <c r="I3" s="4">
+        <v>2020</v>
+      </c>
+      <c r="J3" s="4">
+        <v>2021</v>
+      </c>
+      <c r="K3" s="4">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D4" s="29">
+        <v>25.4</v>
+      </c>
+      <c r="E4" s="29">
+        <v>25.4</v>
+      </c>
+      <c r="F4" s="29">
+        <v>25.4</v>
+      </c>
+      <c r="G4" s="29">
+        <v>25.4</v>
+      </c>
+      <c r="H4" s="29">
+        <v>25.4</v>
+      </c>
+      <c r="I4" s="29">
+        <v>25.4</v>
+      </c>
+      <c r="J4" s="29">
+        <v>25.4</v>
+      </c>
+      <c r="K4" s="29">
+        <v>25.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B5" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D5" s="3">
+        <v>48.3</v>
+      </c>
+      <c r="E5" s="3">
+        <v>61.4</v>
+      </c>
+      <c r="F5" s="3">
+        <v>56.3</v>
+      </c>
+      <c r="G5" s="3">
+        <v>57.3</v>
+      </c>
+      <c r="H5" s="3">
+        <v>66.7</v>
+      </c>
+      <c r="I5" s="3">
+        <v>74.3</v>
+      </c>
+      <c r="J5" s="3">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="K5" s="3">
+        <v>66.099999999999994</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B6" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D6" s="32">
+        <f>D5*D4</f>
+        <v>1226.82</v>
+      </c>
+      <c r="E6" s="32">
+        <f t="shared" ref="E6:K6" si="0">E5*E4</f>
+        <v>1559.56</v>
+      </c>
+      <c r="F6" s="32">
+        <f t="shared" si="0"/>
+        <v>1430.0199999999998</v>
+      </c>
+      <c r="G6" s="32">
+        <f t="shared" si="0"/>
+        <v>1455.4199999999998</v>
+      </c>
+      <c r="H6" s="32">
+        <f t="shared" si="0"/>
+        <v>1694.18</v>
+      </c>
+      <c r="I6" s="32">
+        <f t="shared" si="0"/>
+        <v>1887.2199999999998</v>
+      </c>
+      <c r="J6" s="32">
+        <f t="shared" si="0"/>
+        <v>1678.9399999999998</v>
+      </c>
+      <c r="K6" s="32">
+        <f t="shared" si="0"/>
+        <v>1678.9399999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="48">
+        <v>163.5</v>
+      </c>
+      <c r="E7" s="48">
+        <v>163.5</v>
+      </c>
+      <c r="F7" s="48">
+        <v>163.5</v>
+      </c>
+      <c r="G7" s="48">
+        <v>170</v>
+      </c>
+      <c r="H7" s="48">
+        <v>180</v>
+      </c>
+      <c r="I7" s="48">
+        <v>190</v>
+      </c>
+      <c r="J7" s="48">
+        <v>204</v>
+      </c>
+      <c r="K7" s="48">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B8" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="D8" s="65">
+        <v>0</v>
+      </c>
+      <c r="E8" s="65">
+        <v>0</v>
+      </c>
+      <c r="F8" s="65">
+        <v>0</v>
+      </c>
+      <c r="G8" s="65">
+        <v>0</v>
+      </c>
+      <c r="H8" s="65">
+        <v>0</v>
+      </c>
+      <c r="I8" s="65">
+        <v>0</v>
+      </c>
+      <c r="J8" s="65">
+        <v>0</v>
+      </c>
+      <c r="K8" s="65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="B9" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="D9" s="49">
+        <f>D8*D4</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="49">
+        <f t="shared" ref="E9:K9" si="1">E8*E4</f>
+        <v>0</v>
+      </c>
+      <c r="F9" s="49">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G9" s="49">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H9" s="49">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I9" s="49">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="49">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="49">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B10" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="D10" s="47">
+        <v>3.11</v>
+      </c>
+      <c r="E10" s="47">
+        <v>3.17</v>
+      </c>
+      <c r="F10" s="47">
+        <v>3.48</v>
+      </c>
+      <c r="G10" s="47">
+        <v>3.52</v>
+      </c>
+      <c r="H10" s="47">
+        <v>3.22</v>
+      </c>
+      <c r="I10" s="47">
+        <v>3.18</v>
+      </c>
+      <c r="J10" s="47">
+        <v>3.18</v>
+      </c>
+      <c r="K10" s="47">
+        <v>3.43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="B11" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="102" t="s">
+        <v>309</v>
+      </c>
+      <c r="D11" s="109">
+        <f>0.14*10</f>
+        <v>1.4000000000000001</v>
+      </c>
+      <c r="E11" s="109">
+        <f t="shared" ref="E11:K11" si="2">0.14*10</f>
+        <v>1.4000000000000001</v>
+      </c>
+      <c r="F11" s="109">
+        <f t="shared" si="2"/>
+        <v>1.4000000000000001</v>
+      </c>
+      <c r="G11" s="109">
+        <f t="shared" si="2"/>
+        <v>1.4000000000000001</v>
+      </c>
+      <c r="H11" s="109">
+        <f t="shared" si="2"/>
+        <v>1.4000000000000001</v>
+      </c>
+      <c r="I11" s="109">
+        <f t="shared" si="2"/>
+        <v>1.4000000000000001</v>
+      </c>
+      <c r="J11" s="109">
+        <f t="shared" si="2"/>
+        <v>1.4000000000000001</v>
+      </c>
+      <c r="K11" s="109">
+        <f t="shared" si="2"/>
+        <v>1.4000000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="B12" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="102" t="s">
+        <v>310</v>
+      </c>
+      <c r="D12" s="96">
+        <f>D11*D4</f>
+        <v>35.56</v>
+      </c>
+      <c r="E12" s="96">
+        <f t="shared" ref="E12:K12" si="3">E11*E4</f>
+        <v>35.56</v>
+      </c>
+      <c r="F12" s="96">
+        <f t="shared" si="3"/>
+        <v>35.56</v>
+      </c>
+      <c r="G12" s="96">
+        <f t="shared" si="3"/>
+        <v>35.56</v>
+      </c>
+      <c r="H12" s="96">
+        <f t="shared" si="3"/>
+        <v>35.56</v>
+      </c>
+      <c r="I12" s="96">
+        <f t="shared" si="3"/>
+        <v>35.56</v>
+      </c>
+      <c r="J12" s="96">
+        <f t="shared" si="3"/>
+        <v>35.56</v>
+      </c>
+      <c r="K12" s="96">
+        <f t="shared" si="3"/>
+        <v>35.56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="B13" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="102" t="s">
+        <v>311</v>
+      </c>
+      <c r="D13" s="97">
+        <v>1.42</v>
+      </c>
+      <c r="E13" s="97">
+        <v>1.34</v>
+      </c>
+      <c r="F13" s="97">
+        <v>1.2</v>
+      </c>
+      <c r="G13" s="97">
+        <v>1.2</v>
+      </c>
+      <c r="H13" s="97">
+        <v>1.19</v>
+      </c>
+      <c r="I13" s="97">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="J13" s="97">
+        <v>1.56</v>
+      </c>
+      <c r="K13" s="97">
+        <v>2.52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="B14" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="102" t="s">
+        <v>312</v>
+      </c>
+      <c r="D14" s="101">
+        <f>0.65*10</f>
+        <v>6.5</v>
+      </c>
+      <c r="E14" s="101">
+        <f t="shared" ref="E14:K14" si="4">0.65*10</f>
+        <v>6.5</v>
+      </c>
+      <c r="F14" s="101">
+        <f t="shared" si="4"/>
+        <v>6.5</v>
+      </c>
+      <c r="G14" s="101">
+        <f t="shared" si="4"/>
+        <v>6.5</v>
+      </c>
+      <c r="H14" s="101">
+        <f t="shared" si="4"/>
+        <v>6.5</v>
+      </c>
+      <c r="I14" s="101">
+        <f t="shared" si="4"/>
+        <v>6.5</v>
+      </c>
+      <c r="J14" s="101">
+        <f t="shared" si="4"/>
+        <v>6.5</v>
+      </c>
+      <c r="K14" s="101">
+        <f t="shared" si="4"/>
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="B15" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="102" t="s">
+        <v>313</v>
+      </c>
+      <c r="D15" s="96">
+        <f>D14*D4</f>
+        <v>165.1</v>
+      </c>
+      <c r="E15" s="96">
+        <f t="shared" ref="E15:K15" si="5">E14*E4</f>
+        <v>165.1</v>
+      </c>
+      <c r="F15" s="96">
+        <f t="shared" si="5"/>
+        <v>165.1</v>
+      </c>
+      <c r="G15" s="96">
+        <f t="shared" si="5"/>
+        <v>165.1</v>
+      </c>
+      <c r="H15" s="96">
+        <f t="shared" si="5"/>
+        <v>165.1</v>
+      </c>
+      <c r="I15" s="96">
+        <f t="shared" si="5"/>
+        <v>165.1</v>
+      </c>
+      <c r="J15" s="96">
+        <f t="shared" si="5"/>
+        <v>165.1</v>
+      </c>
+      <c r="K15" s="96">
+        <f t="shared" si="5"/>
+        <v>165.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="B16" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="102" t="s">
+        <v>314</v>
+      </c>
+      <c r="D16" s="97">
+        <v>1.72</v>
+      </c>
+      <c r="E16" s="97">
+        <v>1.67</v>
+      </c>
+      <c r="F16" s="97">
+        <v>1.61</v>
+      </c>
+      <c r="G16" s="97">
+        <v>1.58</v>
+      </c>
+      <c r="H16" s="97">
+        <v>1.58</v>
+      </c>
+      <c r="I16" s="97">
+        <v>1.54</v>
+      </c>
+      <c r="J16" s="97">
+        <v>1.56</v>
+      </c>
+      <c r="K16" s="97">
+        <v>2.52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B17" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="102" t="s">
+        <v>177</v>
+      </c>
+      <c r="D17" s="85">
+        <f>D10*D9+D13*D12+D16*D15</f>
+        <v>334.46719999999999</v>
+      </c>
+      <c r="E17" s="85">
+        <f t="shared" ref="E17:K17" si="6">E10*E9+E13*E12+E16*E15</f>
+        <v>323.36739999999998</v>
+      </c>
+      <c r="F17" s="85">
+        <f t="shared" si="6"/>
+        <v>308.483</v>
+      </c>
+      <c r="G17" s="85">
+        <f t="shared" si="6"/>
+        <v>303.53000000000003</v>
+      </c>
+      <c r="H17" s="85">
+        <f t="shared" si="6"/>
+        <v>303.17439999999999</v>
+      </c>
+      <c r="I17" s="85">
+        <f t="shared" si="6"/>
+        <v>294.08119999999997</v>
+      </c>
+      <c r="J17" s="85">
+        <f t="shared" si="6"/>
+        <v>313.02959999999996</v>
+      </c>
+      <c r="K17" s="85">
+        <f t="shared" si="6"/>
+        <v>505.66319999999996</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B18" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D18" s="31">
+        <f>D17</f>
+        <v>334.46719999999999</v>
+      </c>
+      <c r="E18" s="31">
+        <f t="shared" ref="E18:K18" si="7">E17</f>
+        <v>323.36739999999998</v>
+      </c>
+      <c r="F18" s="31">
+        <f t="shared" si="7"/>
+        <v>308.483</v>
+      </c>
+      <c r="G18" s="31">
+        <f t="shared" si="7"/>
+        <v>303.53000000000003</v>
+      </c>
+      <c r="H18" s="31">
+        <f t="shared" si="7"/>
+        <v>303.17439999999999</v>
+      </c>
+      <c r="I18" s="31">
+        <f t="shared" si="7"/>
+        <v>294.08119999999997</v>
+      </c>
+      <c r="J18" s="31">
+        <f t="shared" si="7"/>
+        <v>313.02959999999996</v>
+      </c>
+      <c r="K18" s="31">
+        <f t="shared" si="7"/>
+        <v>505.66319999999996</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="37">
+        <f>439+32+143</f>
+        <v>614</v>
+      </c>
+      <c r="E19" s="37">
+        <f>439+32+143</f>
+        <v>614</v>
+      </c>
+      <c r="F19" s="34">
+        <v>600</v>
+      </c>
+      <c r="G19" s="34">
+        <v>610</v>
+      </c>
+      <c r="H19" s="34">
+        <v>620</v>
+      </c>
+      <c r="I19" s="34">
+        <f>167+32+476</f>
+        <v>675</v>
+      </c>
+      <c r="J19" s="34">
+        <f>486+33+170</f>
+        <v>689</v>
+      </c>
+      <c r="K19" s="34">
+        <f>173+32+483</f>
+        <v>688</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" t="s">
+        <v>179</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="D20" s="38">
+        <f t="shared" ref="D20:K20" si="8">D19+D7+D18</f>
+        <v>1111.9672</v>
+      </c>
+      <c r="E20" s="38">
+        <f t="shared" si="8"/>
+        <v>1100.8674000000001</v>
+      </c>
+      <c r="F20" s="38">
+        <f t="shared" si="8"/>
+        <v>1071.9829999999999</v>
+      </c>
+      <c r="G20" s="38">
+        <f t="shared" si="8"/>
+        <v>1083.53</v>
+      </c>
+      <c r="H20" s="38">
+        <f t="shared" si="8"/>
+        <v>1103.1743999999999</v>
+      </c>
+      <c r="I20" s="38">
+        <f t="shared" si="8"/>
+        <v>1159.0812000000001</v>
+      </c>
+      <c r="J20" s="38">
+        <f t="shared" si="8"/>
+        <v>1206.0295999999998</v>
+      </c>
+      <c r="K20" s="38">
+        <f t="shared" si="8"/>
+        <v>1397.6632</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="54"/>
+      <c r="C21" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="D21" s="55">
+        <f t="shared" ref="D21:K21" si="9">D6-D20</f>
+        <v>114.85279999999989</v>
+      </c>
+      <c r="E21" s="55">
+        <f t="shared" si="9"/>
+        <v>458.69259999999986</v>
+      </c>
+      <c r="F21" s="55">
+        <f t="shared" si="9"/>
+        <v>358.03699999999981</v>
+      </c>
+      <c r="G21" s="55">
+        <f t="shared" si="9"/>
+        <v>371.88999999999987</v>
+      </c>
+      <c r="H21" s="55">
+        <f t="shared" si="9"/>
+        <v>591.00560000000019</v>
+      </c>
+      <c r="I21" s="55">
+        <f t="shared" si="9"/>
+        <v>728.13879999999972</v>
+      </c>
+      <c r="J21" s="55">
+        <f t="shared" si="9"/>
+        <v>472.91039999999998</v>
+      </c>
+      <c r="K21" s="55">
+        <f t="shared" si="9"/>
+        <v>281.27679999999987</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="D22" s="75">
+        <v>0</v>
+      </c>
+      <c r="E22" s="75">
+        <v>0</v>
+      </c>
+      <c r="F22" s="75">
+        <v>0</v>
+      </c>
+      <c r="G22" s="75">
+        <v>0</v>
+      </c>
+      <c r="H22" s="75">
+        <v>0</v>
+      </c>
+      <c r="I22" s="75">
+        <v>0</v>
+      </c>
+      <c r="J22" s="75">
+        <v>0</v>
+      </c>
+      <c r="K22" s="75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D24" s="53"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="53"/>
+      <c r="H24" s="53"/>
+      <c r="I24" s="53"/>
+      <c r="J24" s="53"/>
+      <c r="K24" s="53"/>
+    </row>
+    <row r="25" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" t="s">
+        <v>182</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D25" s="53"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="53"/>
+      <c r="H25" s="53"/>
+      <c r="I25" s="53"/>
+      <c r="J25" s="53"/>
+      <c r="K25" s="53"/>
+    </row>
+    <row r="26" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26" t="s">
+        <v>183</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="29"/>
+    </row>
+    <row r="27" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" t="s">
+        <v>184</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="29"/>
+    </row>
+    <row r="28" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28" t="s">
+        <v>185</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="29"/>
+    </row>
+    <row r="29" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29" t="s">
+        <v>186</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="29"/>
+    </row>
+    <row r="30" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B30" t="s">
+        <v>188</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D30" s="29"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="29"/>
+      <c r="K30" s="29"/>
+    </row>
+    <row r="31" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" t="s">
+        <v>187</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D31" s="29"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="29"/>
+      <c r="K31" s="29"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7A79D84-CEAF-4148-85D3-CE5D5C1BF5AE}">
   <dimension ref="A3:K31"/>
   <sheetViews>
@@ -23695,7 +25685,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{282E287C-4B01-49BE-8A55-2309CCDC99B1}">
   <dimension ref="A3:K31"/>
   <sheetViews>
@@ -24738,7 +26728,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FC36EA9-9258-4565-AEAD-FD9FAEABA1DC}">
   <dimension ref="A3:K31"/>
   <sheetViews>
@@ -25788,7 +27778,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A48D734B-CAF0-42EB-BBA2-BA7638DC8688}">
   <dimension ref="A3:U32"/>
   <sheetViews>
@@ -26807,7 +28797,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00E1ABE5-C613-477B-9BF4-3B932EE688EE}">
   <dimension ref="A3:K30"/>
   <sheetViews>
@@ -27798,7 +29788,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF474FF6-7C57-49F4-926A-CC90D7B60EA3}">
   <dimension ref="A3:U31"/>
   <sheetViews>
@@ -28902,1046 +30892,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F417A572-8B3C-4366-BFFD-5FB309490CCF}">
-  <dimension ref="A3:U31"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A11:XFD17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.85546875" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4">
-        <v>2015</v>
-      </c>
-      <c r="E3" s="4">
-        <v>2016</v>
-      </c>
-      <c r="F3" s="4">
-        <v>2017</v>
-      </c>
-      <c r="G3" s="4">
-        <v>2018</v>
-      </c>
-      <c r="H3" s="4">
-        <v>2019</v>
-      </c>
-      <c r="I3" s="4">
-        <v>2020</v>
-      </c>
-      <c r="J3" s="4">
-        <v>2021</v>
-      </c>
-      <c r="K3" s="4">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="D4" s="29">
-        <v>5.13</v>
-      </c>
-      <c r="E4" s="29">
-        <v>6.59</v>
-      </c>
-      <c r="F4" s="29">
-        <v>4.49</v>
-      </c>
-      <c r="G4" s="29">
-        <v>3.88</v>
-      </c>
-      <c r="H4" s="29">
-        <v>4.7699999999999996</v>
-      </c>
-      <c r="I4" s="29">
-        <v>5.12</v>
-      </c>
-      <c r="J4" s="29">
-        <v>4.7699999999999996</v>
-      </c>
-      <c r="K4" s="29">
-        <v>5.83</v>
-      </c>
-      <c r="N4" s="29"/>
-      <c r="O4" s="29"/>
-      <c r="P4" s="29"/>
-      <c r="Q4" s="29"/>
-      <c r="R4" s="29"/>
-      <c r="S4" s="29"/>
-      <c r="T4" s="29"/>
-      <c r="U4" s="29"/>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="B5" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="D5" s="3">
-        <v>287.83</v>
-      </c>
-      <c r="E5" s="3">
-        <v>202.07</v>
-      </c>
-      <c r="F5" s="3">
-        <v>206.08</v>
-      </c>
-      <c r="G5" s="3">
-        <v>206.39</v>
-      </c>
-      <c r="H5" s="3">
-        <v>226.32</v>
-      </c>
-      <c r="I5" s="3">
-        <v>261</v>
-      </c>
-      <c r="J5" s="3">
-        <v>359.1</v>
-      </c>
-      <c r="K5" s="3">
-        <v>477.3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="B6" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="D6" s="32">
-        <f>D5*D4</f>
-        <v>1476.5678999999998</v>
-      </c>
-      <c r="E6" s="32">
-        <f t="shared" ref="E6:K6" si="0">E5*E4</f>
-        <v>1331.6413</v>
-      </c>
-      <c r="F6" s="32">
-        <f t="shared" si="0"/>
-        <v>925.29920000000016</v>
-      </c>
-      <c r="G6" s="32">
-        <f t="shared" si="0"/>
-        <v>800.79319999999996</v>
-      </c>
-      <c r="H6" s="32">
-        <f t="shared" si="0"/>
-        <v>1079.5463999999999</v>
-      </c>
-      <c r="I6" s="32">
-        <f t="shared" si="0"/>
-        <v>1336.32</v>
-      </c>
-      <c r="J6" s="32">
-        <f t="shared" si="0"/>
-        <v>1712.9069999999999</v>
-      </c>
-      <c r="K6" s="32">
-        <f t="shared" si="0"/>
-        <v>2782.6590000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="3">
-        <v>125.78</v>
-      </c>
-      <c r="E7" s="3">
-        <v>115.61</v>
-      </c>
-      <c r="F7" s="3">
-        <v>103.31</v>
-      </c>
-      <c r="G7" s="3">
-        <v>107.83</v>
-      </c>
-      <c r="H7" s="3">
-        <v>111.33</v>
-      </c>
-      <c r="I7" s="3">
-        <v>111.33</v>
-      </c>
-      <c r="J7" s="3">
-        <v>113.66</v>
-      </c>
-      <c r="K7" s="3">
-        <v>131.74</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="B8" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="D8" s="77">
-        <v>15.1</v>
-      </c>
-      <c r="E8" s="77">
-        <v>15.1</v>
-      </c>
-      <c r="F8" s="77">
-        <v>15.1</v>
-      </c>
-      <c r="G8" s="77">
-        <v>15.1</v>
-      </c>
-      <c r="H8" s="77">
-        <v>15.1</v>
-      </c>
-      <c r="I8" s="77">
-        <v>15.1</v>
-      </c>
-      <c r="J8" s="77">
-        <v>15.1</v>
-      </c>
-      <c r="K8" s="77">
-        <v>15.1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="B9" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="D9" s="49">
-        <f>D4*D8</f>
-        <v>77.462999999999994</v>
-      </c>
-      <c r="E9" s="49">
-        <f t="shared" ref="E9:K9" si="1">E4*E8</f>
-        <v>99.509</v>
-      </c>
-      <c r="F9" s="49">
-        <f t="shared" si="1"/>
-        <v>67.799000000000007</v>
-      </c>
-      <c r="G9" s="49">
-        <f t="shared" si="1"/>
-        <v>58.587999999999994</v>
-      </c>
-      <c r="H9" s="49">
-        <f t="shared" si="1"/>
-        <v>72.026999999999987</v>
-      </c>
-      <c r="I9" s="49">
-        <f t="shared" si="1"/>
-        <v>77.311999999999998</v>
-      </c>
-      <c r="J9" s="49">
-        <f t="shared" si="1"/>
-        <v>72.026999999999987</v>
-      </c>
-      <c r="K9" s="49">
-        <f t="shared" si="1"/>
-        <v>88.033000000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="B10" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="D10" s="33">
-        <v>3.11</v>
-      </c>
-      <c r="E10" s="33">
-        <v>3.17</v>
-      </c>
-      <c r="F10" s="33">
-        <v>3.48</v>
-      </c>
-      <c r="G10" s="33">
-        <v>3.52</v>
-      </c>
-      <c r="H10" s="33">
-        <v>3.22</v>
-      </c>
-      <c r="I10" s="33">
-        <v>3.18</v>
-      </c>
-      <c r="J10" s="33">
-        <v>3.18</v>
-      </c>
-      <c r="K10" s="33">
-        <v>3.43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="B11" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="D11" s="98">
-        <v>8</v>
-      </c>
-      <c r="E11" s="98">
-        <v>8</v>
-      </c>
-      <c r="F11" s="98">
-        <v>8</v>
-      </c>
-      <c r="G11" s="98">
-        <v>8</v>
-      </c>
-      <c r="H11" s="98">
-        <v>8</v>
-      </c>
-      <c r="I11" s="98">
-        <v>8</v>
-      </c>
-      <c r="J11" s="98">
-        <v>8</v>
-      </c>
-      <c r="K11" s="98">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="B12" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="D12" s="96">
-        <f>D11*D4</f>
-        <v>41.04</v>
-      </c>
-      <c r="E12" s="96">
-        <f t="shared" ref="E12:K12" si="2">E11*E4</f>
-        <v>52.72</v>
-      </c>
-      <c r="F12" s="96">
-        <f t="shared" si="2"/>
-        <v>35.92</v>
-      </c>
-      <c r="G12" s="96">
-        <f t="shared" si="2"/>
-        <v>31.04</v>
-      </c>
-      <c r="H12" s="96">
-        <f t="shared" si="2"/>
-        <v>38.159999999999997</v>
-      </c>
-      <c r="I12" s="96">
-        <f t="shared" si="2"/>
-        <v>40.96</v>
-      </c>
-      <c r="J12" s="96">
-        <f t="shared" si="2"/>
-        <v>38.159999999999997</v>
-      </c>
-      <c r="K12" s="96">
-        <f t="shared" si="2"/>
-        <v>46.64</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="B13" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="D13" s="97">
-        <v>1.42</v>
-      </c>
-      <c r="E13" s="97">
-        <v>1.34</v>
-      </c>
-      <c r="F13" s="97">
-        <v>1.2</v>
-      </c>
-      <c r="G13" s="97">
-        <v>1.2</v>
-      </c>
-      <c r="H13" s="97">
-        <v>1.19</v>
-      </c>
-      <c r="I13" s="97">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="J13" s="97">
-        <v>1.56</v>
-      </c>
-      <c r="K13" s="97">
-        <v>2.52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="B14" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="D14" s="100">
-        <v>6</v>
-      </c>
-      <c r="E14" s="100">
-        <v>6</v>
-      </c>
-      <c r="F14" s="100">
-        <v>6</v>
-      </c>
-      <c r="G14" s="100">
-        <v>6</v>
-      </c>
-      <c r="H14" s="100">
-        <v>6</v>
-      </c>
-      <c r="I14" s="100">
-        <v>6</v>
-      </c>
-      <c r="J14" s="100">
-        <v>6</v>
-      </c>
-      <c r="K14" s="100">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="B15" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>313</v>
-      </c>
-      <c r="D15" s="96">
-        <f>D14*D4</f>
-        <v>30.78</v>
-      </c>
-      <c r="E15" s="96">
-        <f t="shared" ref="E15:K15" si="3">E14*E4</f>
-        <v>39.54</v>
-      </c>
-      <c r="F15" s="96">
-        <f t="shared" si="3"/>
-        <v>26.94</v>
-      </c>
-      <c r="G15" s="96">
-        <f t="shared" si="3"/>
-        <v>23.28</v>
-      </c>
-      <c r="H15" s="96">
-        <f t="shared" si="3"/>
-        <v>28.619999999999997</v>
-      </c>
-      <c r="I15" s="96">
-        <f t="shared" si="3"/>
-        <v>30.72</v>
-      </c>
-      <c r="J15" s="96">
-        <f t="shared" si="3"/>
-        <v>28.619999999999997</v>
-      </c>
-      <c r="K15" s="96">
-        <f t="shared" si="3"/>
-        <v>34.980000000000004</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="B16" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>314</v>
-      </c>
-      <c r="D16" s="97">
-        <v>1.72</v>
-      </c>
-      <c r="E16" s="97">
-        <v>1.67</v>
-      </c>
-      <c r="F16" s="97">
-        <v>1.61</v>
-      </c>
-      <c r="G16" s="97">
-        <v>1.58</v>
-      </c>
-      <c r="H16" s="97">
-        <v>1.58</v>
-      </c>
-      <c r="I16" s="97">
-        <v>1.54</v>
-      </c>
-      <c r="J16" s="97">
-        <v>1.56</v>
-      </c>
-      <c r="K16" s="97">
-        <v>2.52</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="B17" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="D17" s="85">
-        <f>D10*D9+D13*D12+D16*D15</f>
-        <v>352.12832999999995</v>
-      </c>
-      <c r="E17" s="85">
-        <f t="shared" ref="E17:K17" si="4">E10*E9+E13*E12+E16*E15</f>
-        <v>452.12013000000002</v>
-      </c>
-      <c r="F17" s="85">
-        <f t="shared" si="4"/>
-        <v>322.41792000000004</v>
-      </c>
-      <c r="G17" s="85">
-        <f t="shared" si="4"/>
-        <v>280.26015999999998</v>
-      </c>
-      <c r="H17" s="85">
-        <f t="shared" si="4"/>
-        <v>322.55694</v>
-      </c>
-      <c r="I17" s="85">
-        <f t="shared" si="4"/>
-        <v>339.03616</v>
-      </c>
-      <c r="J17" s="85">
-        <f t="shared" si="4"/>
-        <v>333.22265999999996</v>
-      </c>
-      <c r="K17" s="85">
-        <f t="shared" si="4"/>
-        <v>507.63559000000004</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="B18" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="D18" s="31">
-        <f>D17</f>
-        <v>352.12832999999995</v>
-      </c>
-      <c r="E18" s="31">
-        <f t="shared" ref="E18:K18" si="5">E17</f>
-        <v>452.12013000000002</v>
-      </c>
-      <c r="F18" s="31">
-        <f t="shared" si="5"/>
-        <v>322.41792000000004</v>
-      </c>
-      <c r="G18" s="31">
-        <f t="shared" si="5"/>
-        <v>280.26015999999998</v>
-      </c>
-      <c r="H18" s="31">
-        <f t="shared" si="5"/>
-        <v>322.55694</v>
-      </c>
-      <c r="I18" s="31">
-        <f t="shared" si="5"/>
-        <v>339.03616</v>
-      </c>
-      <c r="J18" s="31">
-        <f t="shared" si="5"/>
-        <v>333.22265999999996</v>
-      </c>
-      <c r="K18" s="31">
-        <f t="shared" si="5"/>
-        <v>507.63559000000004</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" s="37">
-        <f>65+312+5+24</f>
-        <v>406</v>
-      </c>
-      <c r="E19" s="34">
-        <f>64+309+7+26</f>
-        <v>406</v>
-      </c>
-      <c r="F19" s="34">
-        <f>78+312+4+27</f>
-        <v>421</v>
-      </c>
-      <c r="G19" s="34">
-        <f>76+320+4+27</f>
-        <v>427</v>
-      </c>
-      <c r="H19" s="34">
-        <f>108+322+5+24</f>
-        <v>459</v>
-      </c>
-      <c r="I19" s="34">
-        <f>84+315+6+22</f>
-        <v>427</v>
-      </c>
-      <c r="J19" s="34">
-        <f>82+340+5+23</f>
-        <v>450</v>
-      </c>
-      <c r="K19" s="34">
-        <f>89+409+9+22</f>
-        <v>529</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A20" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" t="s">
-        <v>179</v>
-      </c>
-      <c r="C20" s="25" t="s">
-        <v>177</v>
-      </c>
-      <c r="D20" s="38">
-        <f t="shared" ref="D20:K20" si="6">D19+D7+D18</f>
-        <v>883.90832999999998</v>
-      </c>
-      <c r="E20" s="38">
-        <f t="shared" si="6"/>
-        <v>973.73013000000003</v>
-      </c>
-      <c r="F20" s="38">
-        <f t="shared" si="6"/>
-        <v>846.72792000000004</v>
-      </c>
-      <c r="G20" s="38">
-        <f t="shared" si="6"/>
-        <v>815.09015999999997</v>
-      </c>
-      <c r="H20" s="38">
-        <f t="shared" si="6"/>
-        <v>892.8869400000001</v>
-      </c>
-      <c r="I20" s="38">
-        <f t="shared" si="6"/>
-        <v>877.36616000000004</v>
-      </c>
-      <c r="J20" s="38">
-        <f t="shared" si="6"/>
-        <v>896.88265999999999</v>
-      </c>
-      <c r="K20" s="38">
-        <f t="shared" si="6"/>
-        <v>1168.3755900000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="25" t="s">
-        <v>177</v>
-      </c>
-      <c r="D21" s="6">
-        <f t="shared" ref="D21:K21" si="7">D6-D20</f>
-        <v>592.6595699999998</v>
-      </c>
-      <c r="E21" s="6">
-        <f t="shared" si="7"/>
-        <v>357.91116999999997</v>
-      </c>
-      <c r="F21" s="6">
-        <f t="shared" si="7"/>
-        <v>78.571280000000115</v>
-      </c>
-      <c r="G21" s="6">
-        <f t="shared" si="7"/>
-        <v>-14.296960000000013</v>
-      </c>
-      <c r="H21" s="6">
-        <f t="shared" si="7"/>
-        <v>186.65945999999985</v>
-      </c>
-      <c r="I21" s="6">
-        <f t="shared" si="7"/>
-        <v>458.9538399999999</v>
-      </c>
-      <c r="J21" s="6">
-        <f t="shared" si="7"/>
-        <v>816.02433999999994</v>
-      </c>
-      <c r="K21" s="6">
-        <f t="shared" si="7"/>
-        <v>1614.28341</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="2" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="D24" s="67"/>
-      <c r="E24" s="67"/>
-      <c r="F24" s="67"/>
-      <c r="G24" s="67"/>
-      <c r="H24" s="67"/>
-      <c r="I24" s="67"/>
-      <c r="J24" s="67"/>
-      <c r="K24" s="67"/>
-      <c r="N24" s="29"/>
-      <c r="O24" s="29"/>
-      <c r="P24" s="29"/>
-      <c r="Q24" s="29"/>
-      <c r="R24" s="29"/>
-      <c r="S24" s="29"/>
-      <c r="T24" s="29"/>
-      <c r="U24" s="29"/>
-    </row>
-    <row r="25" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B25" t="s">
-        <v>182</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="D25" s="67"/>
-      <c r="E25" s="67"/>
-      <c r="F25" s="67"/>
-      <c r="G25" s="67"/>
-      <c r="H25" s="67"/>
-      <c r="I25" s="67"/>
-      <c r="J25" s="67"/>
-      <c r="K25" s="67"/>
-      <c r="N25" s="29"/>
-      <c r="O25" s="29"/>
-      <c r="P25" s="29"/>
-      <c r="Q25" s="29"/>
-      <c r="R25" s="29"/>
-      <c r="S25" s="29"/>
-      <c r="T25" s="29"/>
-      <c r="U25" s="29"/>
-    </row>
-    <row r="26" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B26" t="s">
-        <v>183</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="D26" s="29">
-        <v>4.8899999999999997</v>
-      </c>
-      <c r="E26" s="29">
-        <v>4.8899999999999997</v>
-      </c>
-      <c r="F26" s="29">
-        <v>4.8899999999999997</v>
-      </c>
-      <c r="G26" s="29">
-        <v>3.88</v>
-      </c>
-      <c r="H26" s="29">
-        <v>4.7699999999999996</v>
-      </c>
-      <c r="I26" s="29">
-        <v>5.12</v>
-      </c>
-      <c r="J26" s="29">
-        <v>4.76</v>
-      </c>
-      <c r="K26" s="29">
-        <v>5.82</v>
-      </c>
-      <c r="N26" s="29"/>
-      <c r="O26" s="29"/>
-      <c r="P26" s="29"/>
-      <c r="Q26" s="29"/>
-      <c r="R26" s="29"/>
-      <c r="S26" s="29"/>
-      <c r="T26" s="29"/>
-      <c r="U26" s="29"/>
-    </row>
-    <row r="27" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B27" t="s">
-        <v>184</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="D27" s="67"/>
-      <c r="E27" s="67"/>
-      <c r="F27" s="67"/>
-      <c r="G27" s="67"/>
-      <c r="H27" s="67"/>
-      <c r="I27" s="67"/>
-      <c r="J27" s="67"/>
-      <c r="K27" s="67"/>
-      <c r="N27" s="29"/>
-      <c r="O27" s="29"/>
-      <c r="P27" s="29"/>
-      <c r="Q27" s="29"/>
-      <c r="R27" s="29"/>
-      <c r="S27" s="29"/>
-      <c r="T27" s="29"/>
-      <c r="U27" s="29"/>
-    </row>
-    <row r="28" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B28" t="s">
-        <v>185</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="D28" s="67"/>
-      <c r="E28" s="67"/>
-      <c r="F28" s="67"/>
-      <c r="G28" s="67"/>
-      <c r="H28" s="67"/>
-      <c r="I28" s="67"/>
-      <c r="J28" s="67"/>
-      <c r="K28" s="67"/>
-      <c r="N28" s="29"/>
-      <c r="O28" s="29"/>
-      <c r="P28" s="29"/>
-      <c r="Q28" s="29"/>
-      <c r="R28" s="29"/>
-      <c r="S28" s="29"/>
-      <c r="T28" s="29"/>
-      <c r="U28" s="29"/>
-    </row>
-    <row r="29" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B29" t="s">
-        <v>186</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="D29" s="29">
-        <v>8.89</v>
-      </c>
-      <c r="E29" s="29">
-        <v>8.89</v>
-      </c>
-      <c r="F29" s="29">
-        <v>8.89</v>
-      </c>
-      <c r="G29" s="29">
-        <v>3.88</v>
-      </c>
-      <c r="H29" s="29">
-        <v>4.7699999999999996</v>
-      </c>
-      <c r="I29" s="29">
-        <v>5.12</v>
-      </c>
-      <c r="J29" s="29">
-        <v>4.76</v>
-      </c>
-      <c r="K29" s="29">
-        <v>5.82</v>
-      </c>
-      <c r="N29" s="39"/>
-      <c r="O29" s="39"/>
-      <c r="P29" s="39"/>
-      <c r="Q29" s="39"/>
-      <c r="R29" s="39"/>
-      <c r="S29" s="39"/>
-      <c r="T29" s="39"/>
-      <c r="U29" s="39"/>
-    </row>
-    <row r="30" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B30" t="s">
-        <v>188</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="D30" s="29">
-        <v>5.68</v>
-      </c>
-      <c r="E30" s="29">
-        <v>5.68</v>
-      </c>
-      <c r="F30" s="29">
-        <v>5.68</v>
-      </c>
-      <c r="G30" s="29">
-        <v>3.88</v>
-      </c>
-      <c r="H30" s="29">
-        <v>4.7699999999999996</v>
-      </c>
-      <c r="I30" s="29">
-        <v>5.12</v>
-      </c>
-      <c r="J30" s="29">
-        <v>4.76</v>
-      </c>
-      <c r="K30" s="29">
-        <v>5.82</v>
-      </c>
-      <c r="N30" s="29"/>
-      <c r="O30" s="29"/>
-      <c r="P30" s="29"/>
-      <c r="Q30" s="29"/>
-      <c r="R30" s="29"/>
-      <c r="S30" s="29"/>
-      <c r="T30" s="29"/>
-      <c r="U30" s="29"/>
-    </row>
-    <row r="31" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B31" t="s">
-        <v>187</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="D31" s="29">
-        <v>5.13</v>
-      </c>
-      <c r="E31" s="29">
-        <v>5.42</v>
-      </c>
-      <c r="F31" s="29">
-        <v>3.61</v>
-      </c>
-      <c r="G31" s="29">
-        <v>3.88</v>
-      </c>
-      <c r="H31" s="29">
-        <v>4.7699999999999996</v>
-      </c>
-      <c r="I31" s="29">
-        <v>5.12</v>
-      </c>
-      <c r="J31" s="29">
-        <v>4.7699999999999996</v>
-      </c>
-      <c r="K31" s="29">
-        <v>5.83</v>
-      </c>
-      <c r="N31" s="29"/>
-      <c r="O31" s="29"/>
-      <c r="P31" s="29"/>
-      <c r="Q31" s="29"/>
-      <c r="R31" s="29"/>
-      <c r="S31" s="29"/>
-      <c r="T31" s="29"/>
-      <c r="U31" s="29"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/simulation_env/environment_maincrops/data/Erträge.xlsx
+++ b/simulation_env/environment_maincrops/data/Erträge.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr codeName="DieseArbeitsmappe"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Magnus\Documents\GitHub\cro_symbolic_mbpo\simulation_env\environment_maincrops\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\magnu\GitHub\cro_symbolic_mbpo\simulation_env\environment_maincrops\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E69780A-263C-42E3-ACB7-EF3FFE188317}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52CB01C5-88AF-4B91-B3CA-48DA6B37AFC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gras 1j" sheetId="35" r:id="rId1"/>
@@ -20,28 +20,29 @@
     <sheet name="Körnererbse" sheetId="19" r:id="rId5"/>
     <sheet name="Sojabohne" sheetId="21" r:id="rId6"/>
     <sheet name="FutterLupine" sheetId="29" r:id="rId7"/>
-    <sheet name="Winterweizen" sheetId="8" r:id="rId8"/>
-    <sheet name="Sommerweizen" sheetId="28" r:id="rId9"/>
-    <sheet name="(K)-Durum" sheetId="32" r:id="rId10"/>
-    <sheet name="Speise-Dinkel" sheetId="13" r:id="rId11"/>
-    <sheet name="Triticale" sheetId="14" r:id="rId12"/>
-    <sheet name="Winterroggen" sheetId="15" r:id="rId13"/>
-    <sheet name="Wintergerste" sheetId="10" r:id="rId14"/>
-    <sheet name="Sommergerste" sheetId="11" r:id="rId15"/>
-    <sheet name="Speisehafer" sheetId="16" r:id="rId16"/>
-    <sheet name="(K) Hirse" sheetId="26" r:id="rId17"/>
-    <sheet name="Silomais" sheetId="27" r:id="rId18"/>
-    <sheet name="Körnermais" sheetId="17" r:id="rId19"/>
-    <sheet name="Zuckerrübe" sheetId="22" r:id="rId20"/>
-    <sheet name="Speisekartoffel" sheetId="23" r:id="rId21"/>
-    <sheet name="(K) Raps" sheetId="25" r:id="rId22"/>
-    <sheet name="Sonnenblume" sheetId="18" r:id="rId23"/>
-    <sheet name="(K) Ölkürbis" sheetId="24" r:id="rId24"/>
-    <sheet name="Termine HF" sheetId="33" r:id="rId25"/>
-    <sheet name="Krankheiten" sheetId="4" r:id="rId26"/>
-    <sheet name="ZF" sheetId="5" r:id="rId27"/>
-    <sheet name="Stickstoffbedarf" sheetId="7" r:id="rId28"/>
-    <sheet name="Modell" sheetId="9" r:id="rId29"/>
+    <sheet name="Winterweizen_beispiel" sheetId="36" r:id="rId8"/>
+    <sheet name="Winterweizen" sheetId="8" r:id="rId9"/>
+    <sheet name="Sommerweizen" sheetId="28" r:id="rId10"/>
+    <sheet name="(K)-Durum" sheetId="32" r:id="rId11"/>
+    <sheet name="Speise-Dinkel" sheetId="13" r:id="rId12"/>
+    <sheet name="Triticale" sheetId="14" r:id="rId13"/>
+    <sheet name="Winterroggen" sheetId="15" r:id="rId14"/>
+    <sheet name="Wintergerste" sheetId="10" r:id="rId15"/>
+    <sheet name="Sommergerste" sheetId="11" r:id="rId16"/>
+    <sheet name="Speisehafer" sheetId="16" r:id="rId17"/>
+    <sheet name="(K) Hirse" sheetId="26" r:id="rId18"/>
+    <sheet name="Silomais" sheetId="27" r:id="rId19"/>
+    <sheet name="Körnermais" sheetId="17" r:id="rId20"/>
+    <sheet name="Zuckerrübe" sheetId="22" r:id="rId21"/>
+    <sheet name="Speisekartoffel" sheetId="23" r:id="rId22"/>
+    <sheet name="(K) Raps" sheetId="25" r:id="rId23"/>
+    <sheet name="Sonnenblume" sheetId="18" r:id="rId24"/>
+    <sheet name="(K) Ölkürbis" sheetId="24" r:id="rId25"/>
+    <sheet name="Termine HF" sheetId="33" r:id="rId26"/>
+    <sheet name="Krankheiten" sheetId="4" r:id="rId27"/>
+    <sheet name="ZF" sheetId="5" r:id="rId28"/>
+    <sheet name="Stickstoffbedarf" sheetId="7" r:id="rId29"/>
+    <sheet name="Modell" sheetId="9" r:id="rId30"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -64,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2551" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2631" uniqueCount="338">
   <si>
     <t>Kosten</t>
   </si>
@@ -1039,6 +1040,72 @@
   </si>
   <si>
     <t>flach</t>
+  </si>
+  <si>
+    <t>Parameter</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Einheit</t>
+  </si>
+  <si>
+    <t>€ / ha</t>
+  </si>
+  <si>
+    <t>Saatgut (€ / ha)</t>
+  </si>
+  <si>
+    <t>€ / t</t>
+  </si>
+  <si>
+    <t>t / ha</t>
+  </si>
+  <si>
+    <t>Yield</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Sowing costs</t>
+  </si>
+  <si>
+    <t>Nitrogen need</t>
+  </si>
+  <si>
+    <t>Nitrogen costs</t>
+  </si>
+  <si>
+    <t>Phosphate need</t>
+  </si>
+  <si>
+    <t>Phosphate cost</t>
+  </si>
+  <si>
+    <t>Potassium need</t>
+  </si>
+  <si>
+    <t>Potassium cost</t>
+  </si>
+  <si>
+    <t>Total fertilization cost</t>
+  </si>
+  <si>
+    <t>Other costs</t>
+  </si>
+  <si>
+    <t>€ /ha</t>
+  </si>
+  <si>
+    <t>variable</t>
+  </si>
+  <si>
+    <t>Total costs</t>
+  </si>
+  <si>
+    <t>Profit</t>
   </si>
 </sst>
 </file>
@@ -1130,7 +1197,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1218,6 +1285,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1346,7 +1425,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1584,6 +1663,12 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="3" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1599,11 +1684,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="16" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="16" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="16" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="16" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="16" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="2" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1890,7 +2004,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28DD0218-DA89-4895-AB3B-386E5B95561E}">
   <dimension ref="A3:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="D19" sqref="D19:K19"/>
     </sheetView>
   </sheetViews>
@@ -2129,35 +2243,35 @@
       <c r="C9" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="D9" s="118">
+      <c r="D9" s="113">
         <f>D8*D4</f>
         <v>130.38846153846154</v>
       </c>
-      <c r="E9" s="118">
+      <c r="E9" s="113">
         <f t="shared" ref="E9:K9" si="2">E8*E4</f>
         <v>130.38846153846154</v>
       </c>
-      <c r="F9" s="118">
+      <c r="F9" s="113">
         <f t="shared" si="2"/>
         <v>130.38846153846154</v>
       </c>
-      <c r="G9" s="118">
+      <c r="G9" s="113">
         <f t="shared" si="2"/>
         <v>130.38846153846154</v>
       </c>
-      <c r="H9" s="118">
+      <c r="H9" s="113">
         <f t="shared" si="2"/>
         <v>130.38846153846154</v>
       </c>
-      <c r="I9" s="118">
+      <c r="I9" s="113">
         <f t="shared" si="2"/>
         <v>130.38846153846154</v>
       </c>
-      <c r="J9" s="118">
+      <c r="J9" s="113">
         <f t="shared" si="2"/>
         <v>130.38846153846154</v>
       </c>
-      <c r="K9" s="118">
+      <c r="K9" s="113">
         <f t="shared" si="2"/>
         <v>130.38846153846154</v>
       </c>
@@ -2207,35 +2321,35 @@
       <c r="C11" s="102" t="s">
         <v>309</v>
       </c>
-      <c r="D11" s="119">
+      <c r="D11" s="114">
         <f>9.8*0.35/0.91</f>
         <v>3.7692307692307692</v>
       </c>
-      <c r="E11" s="119">
+      <c r="E11" s="114">
         <f t="shared" ref="E11:K11" si="3">9.8*0.35/0.91</f>
         <v>3.7692307692307692</v>
       </c>
-      <c r="F11" s="119">
+      <c r="F11" s="114">
         <f t="shared" si="3"/>
         <v>3.7692307692307692</v>
       </c>
-      <c r="G11" s="119">
+      <c r="G11" s="114">
         <f t="shared" si="3"/>
         <v>3.7692307692307692</v>
       </c>
-      <c r="H11" s="119">
+      <c r="H11" s="114">
         <f t="shared" si="3"/>
         <v>3.7692307692307692</v>
       </c>
-      <c r="I11" s="119">
+      <c r="I11" s="114">
         <f t="shared" si="3"/>
         <v>3.7692307692307692</v>
       </c>
-      <c r="J11" s="119">
+      <c r="J11" s="114">
         <f t="shared" si="3"/>
         <v>3.7692307692307692</v>
       </c>
-      <c r="K11" s="119">
+      <c r="K11" s="114">
         <f t="shared" si="3"/>
         <v>3.7692307692307692</v>
       </c>
@@ -2328,35 +2442,35 @@
       <c r="C14" s="102" t="s">
         <v>312</v>
       </c>
-      <c r="D14" s="119">
+      <c r="D14" s="114">
         <f>24.6*0.35/0.91</f>
         <v>9.4615384615384599</v>
       </c>
-      <c r="E14" s="119">
+      <c r="E14" s="114">
         <f t="shared" ref="E14:K14" si="5">24.6*0.35/0.91</f>
         <v>9.4615384615384599</v>
       </c>
-      <c r="F14" s="119">
+      <c r="F14" s="114">
         <f t="shared" si="5"/>
         <v>9.4615384615384599</v>
       </c>
-      <c r="G14" s="119">
+      <c r="G14" s="114">
         <f t="shared" si="5"/>
         <v>9.4615384615384599</v>
       </c>
-      <c r="H14" s="119">
+      <c r="H14" s="114">
         <f t="shared" si="5"/>
         <v>9.4615384615384599</v>
       </c>
-      <c r="I14" s="119">
+      <c r="I14" s="114">
         <f t="shared" si="5"/>
         <v>9.4615384615384599</v>
       </c>
-      <c r="J14" s="119">
+      <c r="J14" s="114">
         <f t="shared" si="5"/>
         <v>9.4615384615384599</v>
       </c>
-      <c r="K14" s="119">
+      <c r="K14" s="114">
         <f t="shared" si="5"/>
         <v>9.4615384615384599</v>
       </c>
@@ -2616,7 +2730,7 @@
         <v>-826.32403846153841</v>
       </c>
       <c r="E21" s="55">
-        <f t="shared" ref="D21:K21" si="10">E6-E20</f>
+        <f t="shared" ref="E21:K21" si="10">E6-E20</f>
         <v>-777.21865384615387</v>
       </c>
       <c r="F21" s="55">
@@ -2841,6 +2955,1112 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF474FF6-7C57-49F4-926A-CC90D7B60EA3}">
+  <dimension ref="A3:U31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A11:XFD17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4">
+        <v>2015</v>
+      </c>
+      <c r="E3" s="4">
+        <v>2016</v>
+      </c>
+      <c r="F3" s="4">
+        <v>2017</v>
+      </c>
+      <c r="G3" s="4">
+        <v>2018</v>
+      </c>
+      <c r="H3" s="4">
+        <v>2019</v>
+      </c>
+      <c r="I3" s="4">
+        <v>2020</v>
+      </c>
+      <c r="J3" s="4">
+        <v>2021</v>
+      </c>
+      <c r="K3" s="4">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D4" s="65">
+        <v>2.7885000000000004</v>
+      </c>
+      <c r="E4" s="65">
+        <v>2.9755000000000003</v>
+      </c>
+      <c r="F4" s="65">
+        <v>2.3375000000000004</v>
+      </c>
+      <c r="G4" s="65">
+        <v>2.4750000000000001</v>
+      </c>
+      <c r="H4" s="65">
+        <v>2.8105000000000002</v>
+      </c>
+      <c r="I4" s="65">
+        <v>2.9095000000000004</v>
+      </c>
+      <c r="J4" s="65">
+        <v>2.8215000000000003</v>
+      </c>
+      <c r="K4" s="66">
+        <v>2.6950000000000003</v>
+      </c>
+      <c r="N4" s="29"/>
+      <c r="O4" s="29"/>
+      <c r="P4" s="29"/>
+      <c r="Q4" s="29"/>
+      <c r="R4" s="29"/>
+      <c r="S4" s="29"/>
+      <c r="T4" s="29"/>
+      <c r="U4" s="29"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B5" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D5" s="33">
+        <v>331.09</v>
+      </c>
+      <c r="E5" s="33">
+        <v>333.35</v>
+      </c>
+      <c r="F5" s="33">
+        <v>398.33</v>
+      </c>
+      <c r="G5" s="33">
+        <v>318.08999999999997</v>
+      </c>
+      <c r="H5" s="33">
+        <v>268.38</v>
+      </c>
+      <c r="I5" s="3">
+        <v>263.77</v>
+      </c>
+      <c r="J5" s="33">
+        <v>340.26</v>
+      </c>
+      <c r="K5" s="34">
+        <v>418.71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B6" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D6" s="32">
+        <f>D5*D4</f>
+        <v>923.2444650000001</v>
+      </c>
+      <c r="E6" s="32">
+        <f t="shared" ref="E6:K6" si="0">E5*E4</f>
+        <v>991.88292500000011</v>
+      </c>
+      <c r="F6" s="32">
+        <f t="shared" si="0"/>
+        <v>931.09637500000008</v>
+      </c>
+      <c r="G6" s="32">
+        <f t="shared" si="0"/>
+        <v>787.27274999999997</v>
+      </c>
+      <c r="H6" s="32">
+        <f t="shared" si="0"/>
+        <v>754.28199000000006</v>
+      </c>
+      <c r="I6" s="32">
+        <f t="shared" si="0"/>
+        <v>767.43881500000009</v>
+      </c>
+      <c r="J6" s="32">
+        <f t="shared" si="0"/>
+        <v>960.04359000000011</v>
+      </c>
+      <c r="K6" s="32">
+        <f t="shared" si="0"/>
+        <v>1128.42345</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="37">
+        <v>143.99</v>
+      </c>
+      <c r="E7" s="37">
+        <v>145.86000000000001</v>
+      </c>
+      <c r="F7" s="34">
+        <v>157.08000000000001</v>
+      </c>
+      <c r="G7" s="34">
+        <v>158.94999999999999</v>
+      </c>
+      <c r="H7" s="34">
+        <v>157.08000000000001</v>
+      </c>
+      <c r="I7" s="3">
+        <v>158.94999999999999</v>
+      </c>
+      <c r="J7" s="34">
+        <v>170.17</v>
+      </c>
+      <c r="K7" s="34">
+        <v>211.31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B8" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="D8" s="77">
+        <v>21.1</v>
+      </c>
+      <c r="E8" s="77">
+        <v>21.1</v>
+      </c>
+      <c r="F8" s="77">
+        <v>21.1</v>
+      </c>
+      <c r="G8" s="77">
+        <v>21.1</v>
+      </c>
+      <c r="H8" s="77">
+        <v>21.1</v>
+      </c>
+      <c r="I8" s="77">
+        <v>21.1</v>
+      </c>
+      <c r="J8" s="77">
+        <v>21.1</v>
+      </c>
+      <c r="K8" s="77">
+        <v>21.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B9" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="D9" s="49">
+        <f>D4*D8</f>
+        <v>58.837350000000015</v>
+      </c>
+      <c r="E9" s="49">
+        <f t="shared" ref="E9:K9" si="1">E4*E8</f>
+        <v>62.78305000000001</v>
+      </c>
+      <c r="F9" s="49">
+        <f t="shared" si="1"/>
+        <v>49.321250000000013</v>
+      </c>
+      <c r="G9" s="49">
+        <f t="shared" si="1"/>
+        <v>52.222500000000004</v>
+      </c>
+      <c r="H9" s="49">
+        <f t="shared" si="1"/>
+        <v>59.301550000000006</v>
+      </c>
+      <c r="I9" s="49">
+        <f t="shared" si="1"/>
+        <v>61.390450000000016</v>
+      </c>
+      <c r="J9" s="49">
+        <f t="shared" si="1"/>
+        <v>59.533650000000009</v>
+      </c>
+      <c r="K9" s="49">
+        <f t="shared" si="1"/>
+        <v>56.864500000000007</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B10" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="D10" s="33">
+        <v>3.11</v>
+      </c>
+      <c r="E10" s="33">
+        <v>3.17</v>
+      </c>
+      <c r="F10" s="33">
+        <v>3.48</v>
+      </c>
+      <c r="G10" s="33">
+        <v>3.52</v>
+      </c>
+      <c r="H10" s="33">
+        <v>3.22</v>
+      </c>
+      <c r="I10" s="33">
+        <v>3.18</v>
+      </c>
+      <c r="J10" s="33">
+        <v>3.18</v>
+      </c>
+      <c r="K10" s="33">
+        <v>3.43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="B11" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="D11" s="98">
+        <v>8</v>
+      </c>
+      <c r="E11" s="98">
+        <v>8</v>
+      </c>
+      <c r="F11" s="98">
+        <v>8</v>
+      </c>
+      <c r="G11" s="98">
+        <v>8</v>
+      </c>
+      <c r="H11" s="98">
+        <v>8</v>
+      </c>
+      <c r="I11" s="98">
+        <v>8</v>
+      </c>
+      <c r="J11" s="98">
+        <v>8</v>
+      </c>
+      <c r="K11" s="98">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="B12" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="D12" s="96">
+        <f>D11*D4</f>
+        <v>22.308000000000003</v>
+      </c>
+      <c r="E12" s="96">
+        <f t="shared" ref="E12:K12" si="2">E11*E4</f>
+        <v>23.804000000000002</v>
+      </c>
+      <c r="F12" s="96">
+        <f t="shared" si="2"/>
+        <v>18.700000000000003</v>
+      </c>
+      <c r="G12" s="96">
+        <f t="shared" si="2"/>
+        <v>19.8</v>
+      </c>
+      <c r="H12" s="96">
+        <f t="shared" si="2"/>
+        <v>22.484000000000002</v>
+      </c>
+      <c r="I12" s="96">
+        <f t="shared" si="2"/>
+        <v>23.276000000000003</v>
+      </c>
+      <c r="J12" s="96">
+        <f t="shared" si="2"/>
+        <v>22.572000000000003</v>
+      </c>
+      <c r="K12" s="96">
+        <f t="shared" si="2"/>
+        <v>21.560000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="B13" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="D13" s="97">
+        <v>1.42</v>
+      </c>
+      <c r="E13" s="97">
+        <v>1.34</v>
+      </c>
+      <c r="F13" s="97">
+        <v>1.2</v>
+      </c>
+      <c r="G13" s="97">
+        <v>1.2</v>
+      </c>
+      <c r="H13" s="97">
+        <v>1.19</v>
+      </c>
+      <c r="I13" s="97">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="J13" s="97">
+        <v>1.56</v>
+      </c>
+      <c r="K13" s="97">
+        <v>2.52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="B14" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="D14" s="100">
+        <v>6</v>
+      </c>
+      <c r="E14" s="100">
+        <v>6</v>
+      </c>
+      <c r="F14" s="100">
+        <v>6</v>
+      </c>
+      <c r="G14" s="100">
+        <v>6</v>
+      </c>
+      <c r="H14" s="100">
+        <v>6</v>
+      </c>
+      <c r="I14" s="100">
+        <v>6</v>
+      </c>
+      <c r="J14" s="100">
+        <v>6</v>
+      </c>
+      <c r="K14" s="100">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="B15" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="D15" s="96">
+        <f>D14*D4</f>
+        <v>16.731000000000002</v>
+      </c>
+      <c r="E15" s="96">
+        <f t="shared" ref="E15:K15" si="3">E14*E4</f>
+        <v>17.853000000000002</v>
+      </c>
+      <c r="F15" s="96">
+        <f t="shared" si="3"/>
+        <v>14.025000000000002</v>
+      </c>
+      <c r="G15" s="96">
+        <f t="shared" si="3"/>
+        <v>14.850000000000001</v>
+      </c>
+      <c r="H15" s="96">
+        <f t="shared" si="3"/>
+        <v>16.863</v>
+      </c>
+      <c r="I15" s="96">
+        <f t="shared" si="3"/>
+        <v>17.457000000000001</v>
+      </c>
+      <c r="J15" s="96">
+        <f t="shared" si="3"/>
+        <v>16.929000000000002</v>
+      </c>
+      <c r="K15" s="96">
+        <f t="shared" si="3"/>
+        <v>16.170000000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="B16" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="D16" s="97">
+        <v>1.72</v>
+      </c>
+      <c r="E16" s="97">
+        <v>1.67</v>
+      </c>
+      <c r="F16" s="97">
+        <v>1.61</v>
+      </c>
+      <c r="G16" s="97">
+        <v>1.58</v>
+      </c>
+      <c r="H16" s="97">
+        <v>1.58</v>
+      </c>
+      <c r="I16" s="97">
+        <v>1.54</v>
+      </c>
+      <c r="J16" s="97">
+        <v>1.56</v>
+      </c>
+      <c r="K16" s="97">
+        <v>2.52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B17" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D17" s="85">
+        <f>D10*D9+D13*D12+D16*D15</f>
+        <v>243.43883850000003</v>
+      </c>
+      <c r="E17" s="85">
+        <f t="shared" ref="E17:K17" si="4">E10*E9+E13*E12+E16*E15</f>
+        <v>260.73413850000003</v>
+      </c>
+      <c r="F17" s="85">
+        <f t="shared" si="4"/>
+        <v>216.65820000000005</v>
+      </c>
+      <c r="G17" s="85">
+        <f t="shared" si="4"/>
+        <v>231.0462</v>
+      </c>
+      <c r="H17" s="85">
+        <f t="shared" si="4"/>
+        <v>244.35049100000006</v>
+      </c>
+      <c r="I17" s="85">
+        <f t="shared" si="4"/>
+        <v>248.17453100000006</v>
+      </c>
+      <c r="J17" s="85">
+        <f t="shared" si="4"/>
+        <v>250.93856700000006</v>
+      </c>
+      <c r="K17" s="85">
+        <f t="shared" si="4"/>
+        <v>290.12483500000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B18" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D18" s="31">
+        <f>D17</f>
+        <v>243.43883850000003</v>
+      </c>
+      <c r="E18" s="31">
+        <f t="shared" ref="E18:K18" si="5">E17</f>
+        <v>260.73413850000003</v>
+      </c>
+      <c r="F18" s="31">
+        <f t="shared" si="5"/>
+        <v>216.65820000000005</v>
+      </c>
+      <c r="G18" s="31">
+        <f t="shared" si="5"/>
+        <v>231.0462</v>
+      </c>
+      <c r="H18" s="31">
+        <f t="shared" si="5"/>
+        <v>244.35049100000006</v>
+      </c>
+      <c r="I18" s="31">
+        <f t="shared" si="5"/>
+        <v>248.17453100000006</v>
+      </c>
+      <c r="J18" s="31">
+        <f t="shared" si="5"/>
+        <v>250.93856700000006</v>
+      </c>
+      <c r="K18" s="31">
+        <f t="shared" si="5"/>
+        <v>290.12483500000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="37">
+        <f>343.96+24.35+4.57</f>
+        <v>372.88</v>
+      </c>
+      <c r="E19" s="34">
+        <f>342.84+5.01+25.7</f>
+        <v>373.54999999999995</v>
+      </c>
+      <c r="F19" s="34">
+        <f>343.67+4.04+27</f>
+        <v>374.71000000000004</v>
+      </c>
+      <c r="G19" s="34">
+        <f>353.68+27+3.89</f>
+        <v>384.57</v>
+      </c>
+      <c r="H19" s="34">
+        <f>358.7+4.49+23.8</f>
+        <v>386.99</v>
+      </c>
+      <c r="I19" s="34">
+        <f>345.96+5.12+22.1</f>
+        <v>373.18</v>
+      </c>
+      <c r="J19" s="34">
+        <f>373.48+4.84+22.1</f>
+        <v>400.42</v>
+      </c>
+      <c r="K19" s="34">
+        <f>452+8+22</f>
+        <v>482</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A20" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" t="s">
+        <v>179</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="D20" s="38">
+        <f t="shared" ref="D20:K20" si="6">D19+D7+D18</f>
+        <v>760.30883850000009</v>
+      </c>
+      <c r="E20" s="38">
+        <f t="shared" si="6"/>
+        <v>780.14413850000005</v>
+      </c>
+      <c r="F20" s="38">
+        <f t="shared" si="6"/>
+        <v>748.44820000000016</v>
+      </c>
+      <c r="G20" s="38">
+        <f t="shared" si="6"/>
+        <v>774.56619999999998</v>
+      </c>
+      <c r="H20" s="38">
+        <f t="shared" si="6"/>
+        <v>788.42049100000008</v>
+      </c>
+      <c r="I20" s="38">
+        <f t="shared" si="6"/>
+        <v>780.304531</v>
+      </c>
+      <c r="J20" s="38">
+        <f t="shared" si="6"/>
+        <v>821.52856700000007</v>
+      </c>
+      <c r="K20" s="38">
+        <f t="shared" si="6"/>
+        <v>983.43483500000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="D21" s="6">
+        <f t="shared" ref="D21:K21" si="7">D6-D20</f>
+        <v>162.93562650000001</v>
+      </c>
+      <c r="E21" s="6">
+        <f t="shared" si="7"/>
+        <v>211.73878650000006</v>
+      </c>
+      <c r="F21" s="6">
+        <f t="shared" si="7"/>
+        <v>182.64817499999992</v>
+      </c>
+      <c r="G21" s="6">
+        <f t="shared" si="7"/>
+        <v>12.706549999999993</v>
+      </c>
+      <c r="H21" s="6">
+        <f t="shared" si="7"/>
+        <v>-34.138501000000019</v>
+      </c>
+      <c r="I21" s="6">
+        <f t="shared" si="7"/>
+        <v>-12.865715999999907</v>
+      </c>
+      <c r="J21" s="6">
+        <f t="shared" si="7"/>
+        <v>138.51502300000004</v>
+      </c>
+      <c r="K21" s="6">
+        <f t="shared" si="7"/>
+        <v>144.98861499999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D24" s="67">
+        <v>2.0350000000000001</v>
+      </c>
+      <c r="E24" s="67">
+        <v>1.5125000000000002</v>
+      </c>
+      <c r="F24" s="67">
+        <v>1.375</v>
+      </c>
+      <c r="G24" s="67">
+        <v>2.4365000000000001</v>
+      </c>
+      <c r="H24" s="67">
+        <v>0.8580000000000001</v>
+      </c>
+      <c r="I24" s="67">
+        <v>2.8875000000000002</v>
+      </c>
+      <c r="J24" s="67">
+        <v>2.7885000000000004</v>
+      </c>
+      <c r="K24" s="67">
+        <v>2.0570000000000004</v>
+      </c>
+      <c r="N24" s="29"/>
+      <c r="O24" s="29"/>
+      <c r="P24" s="29"/>
+      <c r="Q24" s="29"/>
+      <c r="R24" s="29"/>
+      <c r="S24" s="29"/>
+      <c r="T24" s="29"/>
+      <c r="U24" s="29"/>
+    </row>
+    <row r="25" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" t="s">
+        <v>182</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D25" s="67">
+        <v>2.2385000000000002</v>
+      </c>
+      <c r="E25" s="67">
+        <v>2.4255000000000004</v>
+      </c>
+      <c r="F25" s="67">
+        <v>2.5850000000000004</v>
+      </c>
+      <c r="G25" s="67">
+        <v>2.2935000000000003</v>
+      </c>
+      <c r="H25" s="67">
+        <v>2.3704999999999998</v>
+      </c>
+      <c r="I25" s="67">
+        <v>1.9635</v>
+      </c>
+      <c r="J25" s="67">
+        <v>2.5024999999999999</v>
+      </c>
+      <c r="K25" s="67">
+        <v>2.3265000000000002</v>
+      </c>
+      <c r="N25" s="29"/>
+      <c r="O25" s="29"/>
+      <c r="P25" s="29"/>
+      <c r="Q25" s="29"/>
+      <c r="R25" s="29"/>
+      <c r="S25" s="29"/>
+      <c r="T25" s="29"/>
+      <c r="U25" s="29"/>
+    </row>
+    <row r="26" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26" t="s">
+        <v>183</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D26" s="67">
+        <v>2.64</v>
+      </c>
+      <c r="E26" s="67">
+        <v>2.4695000000000005</v>
+      </c>
+      <c r="F26" s="67">
+        <v>2.3265000000000002</v>
+      </c>
+      <c r="G26" s="67">
+        <v>2.4584999999999999</v>
+      </c>
+      <c r="H26" s="67">
+        <v>2.5739999999999998</v>
+      </c>
+      <c r="I26" s="67">
+        <v>2.9590000000000001</v>
+      </c>
+      <c r="J26" s="67">
+        <v>2.3980000000000006</v>
+      </c>
+      <c r="K26" s="67">
+        <v>2.5575000000000006</v>
+      </c>
+      <c r="N26" s="29"/>
+      <c r="O26" s="29"/>
+      <c r="P26" s="29"/>
+      <c r="Q26" s="29"/>
+      <c r="R26" s="29"/>
+      <c r="S26" s="29"/>
+      <c r="T26" s="29"/>
+      <c r="U26" s="29"/>
+    </row>
+    <row r="27" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" t="s">
+        <v>184</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D27" s="67">
+        <v>2.7610000000000001</v>
+      </c>
+      <c r="E27" s="67">
+        <v>2.8380000000000005</v>
+      </c>
+      <c r="F27" s="67">
+        <v>2.2165000000000004</v>
+      </c>
+      <c r="G27" s="67">
+        <v>2.6290000000000004</v>
+      </c>
+      <c r="H27" s="67">
+        <v>2.7390000000000003</v>
+      </c>
+      <c r="I27" s="67">
+        <v>2.7665000000000002</v>
+      </c>
+      <c r="J27" s="67">
+        <v>2.8545000000000003</v>
+      </c>
+      <c r="K27" s="67">
+        <v>2.6455000000000002</v>
+      </c>
+      <c r="N27" s="29"/>
+      <c r="O27" s="29"/>
+      <c r="P27" s="29"/>
+      <c r="Q27" s="29"/>
+      <c r="R27" s="29"/>
+      <c r="S27" s="29"/>
+      <c r="T27" s="29"/>
+      <c r="U27" s="29"/>
+    </row>
+    <row r="28" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28" t="s">
+        <v>185</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D28" s="67">
+        <v>2.9040000000000004</v>
+      </c>
+      <c r="E28" s="67">
+        <v>3.2450000000000006</v>
+      </c>
+      <c r="F28" s="67">
+        <v>2.9260000000000006</v>
+      </c>
+      <c r="G28" s="67">
+        <v>2.4805000000000001</v>
+      </c>
+      <c r="H28" s="67">
+        <v>3.1019999999999999</v>
+      </c>
+      <c r="I28" s="67">
+        <v>3.2670000000000003</v>
+      </c>
+      <c r="J28" s="67">
+        <v>3.3055000000000003</v>
+      </c>
+      <c r="K28" s="67">
+        <v>3.0140000000000007</v>
+      </c>
+      <c r="N28" s="29"/>
+      <c r="O28" s="29"/>
+      <c r="P28" s="29"/>
+      <c r="Q28" s="29"/>
+      <c r="R28" s="29"/>
+      <c r="S28" s="29"/>
+      <c r="T28" s="29"/>
+      <c r="U28" s="29"/>
+    </row>
+    <row r="29" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29" t="s">
+        <v>186</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D29" s="67">
+        <v>3.2890000000000006</v>
+      </c>
+      <c r="E29" s="67">
+        <v>3.2505000000000002</v>
+      </c>
+      <c r="F29" s="67">
+        <v>3.0855000000000006</v>
+      </c>
+      <c r="G29" s="67">
+        <v>3.1625000000000001</v>
+      </c>
+      <c r="H29" s="67">
+        <v>3.5255000000000005</v>
+      </c>
+      <c r="I29" s="67">
+        <v>3.4704999999999999</v>
+      </c>
+      <c r="J29" s="67">
+        <v>3.4375000000000004</v>
+      </c>
+      <c r="K29" s="67">
+        <v>3.3330000000000002</v>
+      </c>
+      <c r="N29" s="39"/>
+      <c r="O29" s="39"/>
+      <c r="P29" s="39"/>
+      <c r="Q29" s="39"/>
+      <c r="R29" s="39"/>
+      <c r="S29" s="39"/>
+      <c r="T29" s="39"/>
+      <c r="U29" s="39"/>
+    </row>
+    <row r="30" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B30" t="s">
+        <v>188</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D30" s="67">
+        <v>2.9040000000000004</v>
+      </c>
+      <c r="E30" s="67">
+        <v>2.6125000000000003</v>
+      </c>
+      <c r="F30" s="67">
+        <v>2.7115</v>
+      </c>
+      <c r="G30" s="67">
+        <v>2.4090000000000003</v>
+      </c>
+      <c r="H30" s="67">
+        <v>2.8215000000000003</v>
+      </c>
+      <c r="I30" s="67">
+        <v>3.2065000000000001</v>
+      </c>
+      <c r="J30" s="67">
+        <v>3.0579999999999998</v>
+      </c>
+      <c r="K30" s="67">
+        <v>2.8325000000000005</v>
+      </c>
+      <c r="N30" s="29"/>
+      <c r="O30" s="29"/>
+      <c r="P30" s="29"/>
+      <c r="Q30" s="29"/>
+      <c r="R30" s="29"/>
+      <c r="S30" s="29"/>
+      <c r="T30" s="29"/>
+      <c r="U30" s="29"/>
+    </row>
+    <row r="31" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" t="s">
+        <v>187</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D31" s="67">
+        <v>2.7775000000000003</v>
+      </c>
+      <c r="E31" s="67">
+        <v>3.0910000000000002</v>
+      </c>
+      <c r="F31" s="67">
+        <v>1.8920000000000001</v>
+      </c>
+      <c r="G31" s="67">
+        <v>2.3045000000000004</v>
+      </c>
+      <c r="H31" s="67">
+        <v>2.6675</v>
+      </c>
+      <c r="I31" s="67">
+        <v>2.8160000000000003</v>
+      </c>
+      <c r="J31" s="67">
+        <v>2.6840000000000002</v>
+      </c>
+      <c r="K31" s="67">
+        <v>2.4640000000000004</v>
+      </c>
+      <c r="N31" s="29"/>
+      <c r="O31" s="29"/>
+      <c r="P31" s="29"/>
+      <c r="Q31" s="29"/>
+      <c r="R31" s="29"/>
+      <c r="S31" s="29"/>
+      <c r="T31" s="29"/>
+      <c r="U31" s="29"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F417A572-8B3C-4366-BFFD-5FB309490CCF}">
   <dimension ref="A3:U31"/>
   <sheetViews>
@@ -3882,7 +5102,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A64135B8-E7E3-4A5F-8C26-DEA931A42179}">
   <dimension ref="A3:K31"/>
   <sheetViews>
@@ -4916,7 +6136,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39D7C62F-8B87-4908-A0A3-6614DAEAD8EA}">
   <dimension ref="A3:K31"/>
   <sheetViews>
@@ -5951,7 +7171,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65299A8D-6BEA-4E72-BD39-933C68C3B034}">
   <dimension ref="A3:K31"/>
   <sheetViews>
@@ -6985,7 +8205,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54CCD4D4-4608-408B-AFB6-337312556698}">
   <dimension ref="A3:K31"/>
   <sheetViews>
@@ -8020,7 +9240,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F08483FC-BFEF-4C03-AC54-85BF0CA86305}">
   <dimension ref="A3:K31"/>
   <sheetViews>
@@ -9054,7 +10274,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3984A9E-00E3-47DD-9AF9-A792D9F0569E}">
   <dimension ref="A3:K31"/>
   <sheetViews>
@@ -10088,7 +11308,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E0C405F-94A0-42A2-9B9F-9E92BEE44B5B}">
   <dimension ref="A3:K31"/>
   <sheetViews>
@@ -11090,7 +12310,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A4F80B8-338C-48DC-81DD-54CAAAB3A4E1}">
   <dimension ref="A3:T31"/>
   <sheetViews>
@@ -11999,1024 +13219,6 @@
       <c r="I31" s="29"/>
       <c r="J31" s="29"/>
       <c r="K31" s="29"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EE5979E-901B-4E91-BDC1-22480B139BB8}">
-  <dimension ref="A3:K31"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.85546875" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4">
-        <v>2015</v>
-      </c>
-      <c r="E3" s="4">
-        <v>2016</v>
-      </c>
-      <c r="F3" s="4">
-        <v>2017</v>
-      </c>
-      <c r="G3" s="4">
-        <v>2018</v>
-      </c>
-      <c r="H3" s="4">
-        <v>2019</v>
-      </c>
-      <c r="I3" s="4">
-        <v>2020</v>
-      </c>
-      <c r="J3" s="4">
-        <v>2021</v>
-      </c>
-      <c r="K3" s="4">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="D4" s="29">
-        <v>5.48</v>
-      </c>
-      <c r="E4" s="29">
-        <v>7.6</v>
-      </c>
-      <c r="F4" s="29">
-        <v>5.56</v>
-      </c>
-      <c r="G4" s="29">
-        <v>7.25</v>
-      </c>
-      <c r="H4" s="29">
-        <v>5.83</v>
-      </c>
-      <c r="I4" s="29">
-        <v>6.77</v>
-      </c>
-      <c r="J4" s="29">
-        <v>5.8</v>
-      </c>
-      <c r="K4" s="29">
-        <v>5.91</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="B5" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="D5" s="3">
-        <v>344.65</v>
-      </c>
-      <c r="E5" s="3">
-        <v>339</v>
-      </c>
-      <c r="F5" s="3">
-        <v>355.95</v>
-      </c>
-      <c r="G5" s="3">
-        <v>305.10000000000002</v>
-      </c>
-      <c r="H5" s="3">
-        <v>231.65</v>
-      </c>
-      <c r="I5" s="3">
-        <v>224.59</v>
-      </c>
-      <c r="J5" s="3">
-        <v>355.95</v>
-      </c>
-      <c r="K5" s="3">
-        <v>497.2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="B6" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="D6" s="32">
-        <f>D5*D4</f>
-        <v>1888.682</v>
-      </c>
-      <c r="E6" s="32">
-        <f t="shared" ref="E6:K6" si="0">E5*E4</f>
-        <v>2576.4</v>
-      </c>
-      <c r="F6" s="32">
-        <f t="shared" si="0"/>
-        <v>1979.0819999999999</v>
-      </c>
-      <c r="G6" s="32">
-        <f t="shared" si="0"/>
-        <v>2211.9750000000004</v>
-      </c>
-      <c r="H6" s="32">
-        <f t="shared" si="0"/>
-        <v>1350.5195000000001</v>
-      </c>
-      <c r="I6" s="32">
-        <f t="shared" si="0"/>
-        <v>1520.4742999999999</v>
-      </c>
-      <c r="J6" s="32">
-        <f t="shared" si="0"/>
-        <v>2064.5099999999998</v>
-      </c>
-      <c r="K6" s="32">
-        <f t="shared" si="0"/>
-        <v>2938.4520000000002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="3">
-        <v>179.2</v>
-      </c>
-      <c r="E7" s="3">
-        <v>179.2</v>
-      </c>
-      <c r="F7" s="52">
-        <v>179.2</v>
-      </c>
-      <c r="G7" s="52">
-        <v>179.2</v>
-      </c>
-      <c r="H7" s="52">
-        <v>179.2</v>
-      </c>
-      <c r="I7" s="52">
-        <v>179.2</v>
-      </c>
-      <c r="J7" s="3">
-        <v>223.87</v>
-      </c>
-      <c r="K7" s="3">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="B8" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="D8" s="35">
-        <v>13.8</v>
-      </c>
-      <c r="E8" s="35">
-        <v>13.8</v>
-      </c>
-      <c r="F8" s="35">
-        <v>13.8</v>
-      </c>
-      <c r="G8" s="35">
-        <v>13.8</v>
-      </c>
-      <c r="H8" s="35">
-        <v>13.8</v>
-      </c>
-      <c r="I8" s="35">
-        <v>13.8</v>
-      </c>
-      <c r="J8" s="35">
-        <v>13.8</v>
-      </c>
-      <c r="K8" s="35">
-        <v>13.8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="B9" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="D9" s="49">
-        <f>D8*D4</f>
-        <v>75.624000000000009</v>
-      </c>
-      <c r="E9" s="49">
-        <f t="shared" ref="E9:K9" si="1">E8*E4</f>
-        <v>104.88</v>
-      </c>
-      <c r="F9" s="49">
-        <f t="shared" si="1"/>
-        <v>76.727999999999994</v>
-      </c>
-      <c r="G9" s="49">
-        <f t="shared" si="1"/>
-        <v>100.05000000000001</v>
-      </c>
-      <c r="H9" s="49">
-        <f t="shared" si="1"/>
-        <v>80.454000000000008</v>
-      </c>
-      <c r="I9" s="49">
-        <f t="shared" si="1"/>
-        <v>93.426000000000002</v>
-      </c>
-      <c r="J9" s="49">
-        <f t="shared" si="1"/>
-        <v>80.040000000000006</v>
-      </c>
-      <c r="K9" s="49">
-        <f t="shared" si="1"/>
-        <v>81.558000000000007</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="B10" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="D10" s="47">
-        <v>3.11</v>
-      </c>
-      <c r="E10" s="47">
-        <v>3.17</v>
-      </c>
-      <c r="F10" s="47">
-        <v>3.48</v>
-      </c>
-      <c r="G10" s="47">
-        <v>3.52</v>
-      </c>
-      <c r="H10" s="47">
-        <v>3.22</v>
-      </c>
-      <c r="I10" s="47">
-        <v>3.18</v>
-      </c>
-      <c r="J10" s="47">
-        <v>3.18</v>
-      </c>
-      <c r="K10" s="47">
-        <v>3.43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="B11" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="D11" s="98">
-        <v>8.1</v>
-      </c>
-      <c r="E11" s="98">
-        <v>8.1</v>
-      </c>
-      <c r="F11" s="98">
-        <v>8.1</v>
-      </c>
-      <c r="G11" s="98">
-        <v>8.1</v>
-      </c>
-      <c r="H11" s="98">
-        <v>8.1</v>
-      </c>
-      <c r="I11" s="98">
-        <v>8.1</v>
-      </c>
-      <c r="J11" s="98">
-        <v>8.1</v>
-      </c>
-      <c r="K11" s="98">
-        <v>8.1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="B12" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="D12" s="96">
-        <f>D11*D4</f>
-        <v>44.387999999999998</v>
-      </c>
-      <c r="E12" s="96">
-        <f t="shared" ref="E12:K12" si="2">E11*E4</f>
-        <v>61.559999999999995</v>
-      </c>
-      <c r="F12" s="96">
-        <f t="shared" si="2"/>
-        <v>45.035999999999994</v>
-      </c>
-      <c r="G12" s="96">
-        <f t="shared" si="2"/>
-        <v>58.724999999999994</v>
-      </c>
-      <c r="H12" s="96">
-        <f t="shared" si="2"/>
-        <v>47.222999999999999</v>
-      </c>
-      <c r="I12" s="96">
-        <f t="shared" si="2"/>
-        <v>54.836999999999996</v>
-      </c>
-      <c r="J12" s="96">
-        <f t="shared" si="2"/>
-        <v>46.98</v>
-      </c>
-      <c r="K12" s="96">
-        <f t="shared" si="2"/>
-        <v>47.871000000000002</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="B13" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="D13" s="97">
-        <v>1.42</v>
-      </c>
-      <c r="E13" s="97">
-        <v>1.34</v>
-      </c>
-      <c r="F13" s="97">
-        <v>1.2</v>
-      </c>
-      <c r="G13" s="97">
-        <v>1.2</v>
-      </c>
-      <c r="H13" s="97">
-        <v>1.19</v>
-      </c>
-      <c r="I13" s="97">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="J13" s="97">
-        <v>1.56</v>
-      </c>
-      <c r="K13" s="97">
-        <v>2.52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="B14" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="D14" s="101">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="E14" s="101">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="F14" s="101">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="G14" s="101">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="H14" s="101">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="I14" s="101">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="J14" s="101">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="K14" s="101">
-        <v>4.9000000000000004</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="B15" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>313</v>
-      </c>
-      <c r="D15" s="96">
-        <f>D14*D4</f>
-        <v>26.852000000000004</v>
-      </c>
-      <c r="E15" s="96">
-        <f t="shared" ref="E15:K15" si="3">E14*E4</f>
-        <v>37.24</v>
-      </c>
-      <c r="F15" s="96">
-        <f t="shared" si="3"/>
-        <v>27.244</v>
-      </c>
-      <c r="G15" s="96">
-        <f t="shared" si="3"/>
-        <v>35.525000000000006</v>
-      </c>
-      <c r="H15" s="96">
-        <f t="shared" si="3"/>
-        <v>28.567000000000004</v>
-      </c>
-      <c r="I15" s="96">
-        <f t="shared" si="3"/>
-        <v>33.173000000000002</v>
-      </c>
-      <c r="J15" s="96">
-        <f t="shared" si="3"/>
-        <v>28.42</v>
-      </c>
-      <c r="K15" s="96">
-        <f t="shared" si="3"/>
-        <v>28.959000000000003</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="B16" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>314</v>
-      </c>
-      <c r="D16" s="97">
-        <v>1.72</v>
-      </c>
-      <c r="E16" s="97">
-        <v>1.67</v>
-      </c>
-      <c r="F16" s="97">
-        <v>1.61</v>
-      </c>
-      <c r="G16" s="97">
-        <v>1.58</v>
-      </c>
-      <c r="H16" s="97">
-        <v>1.58</v>
-      </c>
-      <c r="I16" s="97">
-        <v>1.54</v>
-      </c>
-      <c r="J16" s="97">
-        <v>1.56</v>
-      </c>
-      <c r="K16" s="97">
-        <v>2.52</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="B17" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="D17" s="85">
-        <f>D10*D9+D13*D12+D16*D15</f>
-        <v>344.40704000000005</v>
-      </c>
-      <c r="E17" s="85">
-        <f t="shared" ref="E17:K17" si="4">E10*E9+E13*E12+E16*E15</f>
-        <v>477.15079999999995</v>
-      </c>
-      <c r="F17" s="85">
-        <f t="shared" si="4"/>
-        <v>364.91948000000002</v>
-      </c>
-      <c r="G17" s="85">
-        <f t="shared" si="4"/>
-        <v>478.77550000000002</v>
-      </c>
-      <c r="H17" s="85">
-        <f t="shared" si="4"/>
-        <v>360.39310999999998</v>
-      </c>
-      <c r="I17" s="85">
-        <f t="shared" si="4"/>
-        <v>409.59854000000007</v>
-      </c>
-      <c r="J17" s="85">
-        <f t="shared" si="4"/>
-        <v>372.15120000000002</v>
-      </c>
-      <c r="K17" s="85">
-        <f t="shared" si="4"/>
-        <v>473.35554000000002</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="B18" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="D18" s="31">
-        <f>D17</f>
-        <v>344.40704000000005</v>
-      </c>
-      <c r="E18" s="31">
-        <f t="shared" ref="E18:K18" si="5">E17</f>
-        <v>477.15079999999995</v>
-      </c>
-      <c r="F18" s="31">
-        <f t="shared" si="5"/>
-        <v>364.91948000000002</v>
-      </c>
-      <c r="G18" s="31">
-        <f t="shared" si="5"/>
-        <v>478.77550000000002</v>
-      </c>
-      <c r="H18" s="31">
-        <f t="shared" si="5"/>
-        <v>360.39310999999998</v>
-      </c>
-      <c r="I18" s="31">
-        <f t="shared" si="5"/>
-        <v>409.59854000000007</v>
-      </c>
-      <c r="J18" s="31">
-        <f t="shared" si="5"/>
-        <v>372.15120000000002</v>
-      </c>
-      <c r="K18" s="31">
-        <f t="shared" si="5"/>
-        <v>473.35554000000002</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" s="37">
-        <f>330+230+24</f>
-        <v>584</v>
-      </c>
-      <c r="E19" s="34">
-        <f>344+443+26</f>
-        <v>813</v>
-      </c>
-      <c r="F19" s="34">
-        <f>333+286+27</f>
-        <v>646</v>
-      </c>
-      <c r="G19" s="34">
-        <f>355+305+27</f>
-        <v>687</v>
-      </c>
-      <c r="H19" s="34">
-        <f>342+357+23</f>
-        <v>722</v>
-      </c>
-      <c r="I19" s="34">
-        <f>335+415+22</f>
-        <v>772</v>
-      </c>
-      <c r="J19" s="34">
-        <f>356+336+22</f>
-        <v>714</v>
-      </c>
-      <c r="K19" s="34">
-        <f>427+398+22</f>
-        <v>847</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" t="s">
-        <v>179</v>
-      </c>
-      <c r="C20" s="25" t="s">
-        <v>177</v>
-      </c>
-      <c r="D20" s="38">
-        <f t="shared" ref="D20:K20" si="6">D19+D7+D18</f>
-        <v>1107.6070400000001</v>
-      </c>
-      <c r="E20" s="38">
-        <f t="shared" si="6"/>
-        <v>1469.3507999999999</v>
-      </c>
-      <c r="F20" s="38">
-        <f t="shared" si="6"/>
-        <v>1190.1194800000001</v>
-      </c>
-      <c r="G20" s="38">
-        <f t="shared" si="6"/>
-        <v>1344.9755</v>
-      </c>
-      <c r="H20" s="38">
-        <f t="shared" si="6"/>
-        <v>1261.59311</v>
-      </c>
-      <c r="I20" s="38">
-        <f t="shared" si="6"/>
-        <v>1360.7985400000002</v>
-      </c>
-      <c r="J20" s="38">
-        <f t="shared" si="6"/>
-        <v>1310.0212000000001</v>
-      </c>
-      <c r="K20" s="38">
-        <f t="shared" si="6"/>
-        <v>1588.35554</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="25" t="s">
-        <v>177</v>
-      </c>
-      <c r="D21" s="6">
-        <f t="shared" ref="D21:K21" si="7">D6-D20</f>
-        <v>781.07495999999992</v>
-      </c>
-      <c r="E21" s="6">
-        <f t="shared" si="7"/>
-        <v>1107.0492000000002</v>
-      </c>
-      <c r="F21" s="6">
-        <f t="shared" si="7"/>
-        <v>788.96251999999981</v>
-      </c>
-      <c r="G21" s="6">
-        <f t="shared" si="7"/>
-        <v>866.99950000000035</v>
-      </c>
-      <c r="H21" s="6">
-        <f t="shared" si="7"/>
-        <v>88.926390000000083</v>
-      </c>
-      <c r="I21" s="6">
-        <f t="shared" si="7"/>
-        <v>159.67575999999963</v>
-      </c>
-      <c r="J21" s="6">
-        <f t="shared" si="7"/>
-        <v>754.48879999999963</v>
-      </c>
-      <c r="K21" s="6">
-        <f t="shared" si="7"/>
-        <v>1350.0964600000002</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="2" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="D24" s="29">
-        <v>5</v>
-      </c>
-      <c r="E24" s="29">
-        <v>3.33</v>
-      </c>
-      <c r="F24" s="29">
-        <v>10</v>
-      </c>
-      <c r="G24" s="29">
-        <v>9.01</v>
-      </c>
-      <c r="H24" s="29">
-        <v>7.22</v>
-      </c>
-      <c r="I24" s="29">
-        <v>7.72</v>
-      </c>
-      <c r="J24" s="29">
-        <v>5.87</v>
-      </c>
-      <c r="K24" s="29">
-        <v>5.91</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B25" t="s">
-        <v>182</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="D25" s="51"/>
-      <c r="E25" s="51"/>
-      <c r="F25" s="51"/>
-      <c r="G25" s="51"/>
-      <c r="H25" s="51"/>
-      <c r="I25" s="51"/>
-      <c r="J25" s="51"/>
-      <c r="K25" s="51"/>
-    </row>
-    <row r="26" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B26" t="s">
-        <v>183</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="D26" s="29">
-        <v>12.93</v>
-      </c>
-      <c r="E26" s="29">
-        <v>5.59</v>
-      </c>
-      <c r="F26" s="29">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="G26" s="29">
-        <v>7.69</v>
-      </c>
-      <c r="H26" s="29">
-        <v>7.79</v>
-      </c>
-      <c r="I26" s="29">
-        <v>9.42</v>
-      </c>
-      <c r="J26" s="29">
-        <v>6.08</v>
-      </c>
-      <c r="K26" s="29">
-        <v>7.43</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B27" t="s">
-        <v>184</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="D27" s="29">
-        <v>5.3</v>
-      </c>
-      <c r="E27" s="29">
-        <v>7.77</v>
-      </c>
-      <c r="F27" s="29">
-        <v>7.77</v>
-      </c>
-      <c r="G27" s="29">
-        <v>7.87</v>
-      </c>
-      <c r="H27" s="29">
-        <v>10.56</v>
-      </c>
-      <c r="I27" s="29">
-        <v>4.47</v>
-      </c>
-      <c r="J27" s="29">
-        <v>6.05</v>
-      </c>
-      <c r="K27" s="29">
-        <v>9.24</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B28" t="s">
-        <v>185</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="D28" s="39">
-        <v>8.5399999999999991</v>
-      </c>
-      <c r="E28" s="39">
-        <v>9.23</v>
-      </c>
-      <c r="F28" s="39">
-        <v>6.6</v>
-      </c>
-      <c r="G28" s="39">
-        <v>6.84</v>
-      </c>
-      <c r="H28" s="39">
-        <v>4.74</v>
-      </c>
-      <c r="I28" s="39">
-        <v>8.49</v>
-      </c>
-      <c r="J28" s="39">
-        <v>5.31</v>
-      </c>
-      <c r="K28" s="39">
-        <v>8.19</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B29" t="s">
-        <v>186</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="D29" s="29">
-        <v>6.34</v>
-      </c>
-      <c r="E29" s="29">
-        <v>6.62</v>
-      </c>
-      <c r="F29" s="29">
-        <v>6.59</v>
-      </c>
-      <c r="G29" s="29">
-        <v>10.15</v>
-      </c>
-      <c r="H29" s="29">
-        <v>6.63</v>
-      </c>
-      <c r="I29" s="29">
-        <v>8.3699999999999992</v>
-      </c>
-      <c r="J29" s="29">
-        <v>8.65</v>
-      </c>
-      <c r="K29" s="29">
-        <v>9.7799999999999994</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B30" t="s">
-        <v>188</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="D30" s="29">
-        <v>6.73</v>
-      </c>
-      <c r="E30" s="29">
-        <v>8.4499999999999993</v>
-      </c>
-      <c r="F30" s="29">
-        <v>13.02</v>
-      </c>
-      <c r="G30" s="29">
-        <v>8.44</v>
-      </c>
-      <c r="H30" s="29">
-        <v>7.35</v>
-      </c>
-      <c r="I30" s="29">
-        <v>9.4600000000000009</v>
-      </c>
-      <c r="J30" s="29">
-        <v>7.73</v>
-      </c>
-      <c r="K30" s="29">
-        <v>7.22</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B31" t="s">
-        <v>187</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="D31" s="29">
-        <v>4.76</v>
-      </c>
-      <c r="E31" s="29">
-        <v>7.7</v>
-      </c>
-      <c r="F31" s="29">
-        <v>4.66</v>
-      </c>
-      <c r="G31" s="29">
-        <v>6.61</v>
-      </c>
-      <c r="H31" s="29">
-        <v>5.53</v>
-      </c>
-      <c r="I31" s="29">
-        <v>6.12</v>
-      </c>
-      <c r="J31" s="29">
-        <v>5.12</v>
-      </c>
-      <c r="K31" s="29">
-        <v>4.46</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -13715,7 +13917,7 @@
         <v>1292.886</v>
       </c>
       <c r="E20" s="38">
-        <f t="shared" ref="D20:K20" si="8">E19+E7+E18</f>
+        <f t="shared" ref="E20:K20" si="8">E19+E7+E18</f>
         <v>1285.5995</v>
       </c>
       <c r="F20" s="38">
@@ -13756,7 +13958,7 @@
         <v>351.06399999999985</v>
       </c>
       <c r="E21" s="55">
-        <f t="shared" ref="D21:K21" si="9">E6-E20</f>
+        <f t="shared" ref="E21:K21" si="9">E6-E20</f>
         <v>358.35049999999978</v>
       </c>
       <c r="F21" s="55">
@@ -14077,6 +14279,1024 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EE5979E-901B-4E91-BDC1-22480B139BB8}">
+  <dimension ref="A3:K31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4">
+        <v>2015</v>
+      </c>
+      <c r="E3" s="4">
+        <v>2016</v>
+      </c>
+      <c r="F3" s="4">
+        <v>2017</v>
+      </c>
+      <c r="G3" s="4">
+        <v>2018</v>
+      </c>
+      <c r="H3" s="4">
+        <v>2019</v>
+      </c>
+      <c r="I3" s="4">
+        <v>2020</v>
+      </c>
+      <c r="J3" s="4">
+        <v>2021</v>
+      </c>
+      <c r="K3" s="4">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D4" s="29">
+        <v>5.48</v>
+      </c>
+      <c r="E4" s="29">
+        <v>7.6</v>
+      </c>
+      <c r="F4" s="29">
+        <v>5.56</v>
+      </c>
+      <c r="G4" s="29">
+        <v>7.25</v>
+      </c>
+      <c r="H4" s="29">
+        <v>5.83</v>
+      </c>
+      <c r="I4" s="29">
+        <v>6.77</v>
+      </c>
+      <c r="J4" s="29">
+        <v>5.8</v>
+      </c>
+      <c r="K4" s="29">
+        <v>5.91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B5" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D5" s="3">
+        <v>344.65</v>
+      </c>
+      <c r="E5" s="3">
+        <v>339</v>
+      </c>
+      <c r="F5" s="3">
+        <v>355.95</v>
+      </c>
+      <c r="G5" s="3">
+        <v>305.10000000000002</v>
+      </c>
+      <c r="H5" s="3">
+        <v>231.65</v>
+      </c>
+      <c r="I5" s="3">
+        <v>224.59</v>
+      </c>
+      <c r="J5" s="3">
+        <v>355.95</v>
+      </c>
+      <c r="K5" s="3">
+        <v>497.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B6" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D6" s="32">
+        <f>D5*D4</f>
+        <v>1888.682</v>
+      </c>
+      <c r="E6" s="32">
+        <f t="shared" ref="E6:K6" si="0">E5*E4</f>
+        <v>2576.4</v>
+      </c>
+      <c r="F6" s="32">
+        <f t="shared" si="0"/>
+        <v>1979.0819999999999</v>
+      </c>
+      <c r="G6" s="32">
+        <f t="shared" si="0"/>
+        <v>2211.9750000000004</v>
+      </c>
+      <c r="H6" s="32">
+        <f t="shared" si="0"/>
+        <v>1350.5195000000001</v>
+      </c>
+      <c r="I6" s="32">
+        <f t="shared" si="0"/>
+        <v>1520.4742999999999</v>
+      </c>
+      <c r="J6" s="32">
+        <f t="shared" si="0"/>
+        <v>2064.5099999999998</v>
+      </c>
+      <c r="K6" s="32">
+        <f t="shared" si="0"/>
+        <v>2938.4520000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="3">
+        <v>179.2</v>
+      </c>
+      <c r="E7" s="3">
+        <v>179.2</v>
+      </c>
+      <c r="F7" s="52">
+        <v>179.2</v>
+      </c>
+      <c r="G7" s="52">
+        <v>179.2</v>
+      </c>
+      <c r="H7" s="52">
+        <v>179.2</v>
+      </c>
+      <c r="I7" s="52">
+        <v>179.2</v>
+      </c>
+      <c r="J7" s="3">
+        <v>223.87</v>
+      </c>
+      <c r="K7" s="3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B8" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="D8" s="35">
+        <v>13.8</v>
+      </c>
+      <c r="E8" s="35">
+        <v>13.8</v>
+      </c>
+      <c r="F8" s="35">
+        <v>13.8</v>
+      </c>
+      <c r="G8" s="35">
+        <v>13.8</v>
+      </c>
+      <c r="H8" s="35">
+        <v>13.8</v>
+      </c>
+      <c r="I8" s="35">
+        <v>13.8</v>
+      </c>
+      <c r="J8" s="35">
+        <v>13.8</v>
+      </c>
+      <c r="K8" s="35">
+        <v>13.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="B9" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="D9" s="49">
+        <f>D8*D4</f>
+        <v>75.624000000000009</v>
+      </c>
+      <c r="E9" s="49">
+        <f t="shared" ref="E9:K9" si="1">E8*E4</f>
+        <v>104.88</v>
+      </c>
+      <c r="F9" s="49">
+        <f t="shared" si="1"/>
+        <v>76.727999999999994</v>
+      </c>
+      <c r="G9" s="49">
+        <f t="shared" si="1"/>
+        <v>100.05000000000001</v>
+      </c>
+      <c r="H9" s="49">
+        <f t="shared" si="1"/>
+        <v>80.454000000000008</v>
+      </c>
+      <c r="I9" s="49">
+        <f t="shared" si="1"/>
+        <v>93.426000000000002</v>
+      </c>
+      <c r="J9" s="49">
+        <f t="shared" si="1"/>
+        <v>80.040000000000006</v>
+      </c>
+      <c r="K9" s="49">
+        <f t="shared" si="1"/>
+        <v>81.558000000000007</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B10" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="D10" s="47">
+        <v>3.11</v>
+      </c>
+      <c r="E10" s="47">
+        <v>3.17</v>
+      </c>
+      <c r="F10" s="47">
+        <v>3.48</v>
+      </c>
+      <c r="G10" s="47">
+        <v>3.52</v>
+      </c>
+      <c r="H10" s="47">
+        <v>3.22</v>
+      </c>
+      <c r="I10" s="47">
+        <v>3.18</v>
+      </c>
+      <c r="J10" s="47">
+        <v>3.18</v>
+      </c>
+      <c r="K10" s="47">
+        <v>3.43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="B11" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="D11" s="98">
+        <v>8.1</v>
+      </c>
+      <c r="E11" s="98">
+        <v>8.1</v>
+      </c>
+      <c r="F11" s="98">
+        <v>8.1</v>
+      </c>
+      <c r="G11" s="98">
+        <v>8.1</v>
+      </c>
+      <c r="H11" s="98">
+        <v>8.1</v>
+      </c>
+      <c r="I11" s="98">
+        <v>8.1</v>
+      </c>
+      <c r="J11" s="98">
+        <v>8.1</v>
+      </c>
+      <c r="K11" s="98">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="B12" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="D12" s="96">
+        <f>D11*D4</f>
+        <v>44.387999999999998</v>
+      </c>
+      <c r="E12" s="96">
+        <f t="shared" ref="E12:K12" si="2">E11*E4</f>
+        <v>61.559999999999995</v>
+      </c>
+      <c r="F12" s="96">
+        <f t="shared" si="2"/>
+        <v>45.035999999999994</v>
+      </c>
+      <c r="G12" s="96">
+        <f t="shared" si="2"/>
+        <v>58.724999999999994</v>
+      </c>
+      <c r="H12" s="96">
+        <f t="shared" si="2"/>
+        <v>47.222999999999999</v>
+      </c>
+      <c r="I12" s="96">
+        <f t="shared" si="2"/>
+        <v>54.836999999999996</v>
+      </c>
+      <c r="J12" s="96">
+        <f t="shared" si="2"/>
+        <v>46.98</v>
+      </c>
+      <c r="K12" s="96">
+        <f t="shared" si="2"/>
+        <v>47.871000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="B13" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="D13" s="97">
+        <v>1.42</v>
+      </c>
+      <c r="E13" s="97">
+        <v>1.34</v>
+      </c>
+      <c r="F13" s="97">
+        <v>1.2</v>
+      </c>
+      <c r="G13" s="97">
+        <v>1.2</v>
+      </c>
+      <c r="H13" s="97">
+        <v>1.19</v>
+      </c>
+      <c r="I13" s="97">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="J13" s="97">
+        <v>1.56</v>
+      </c>
+      <c r="K13" s="97">
+        <v>2.52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="B14" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="D14" s="101">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="E14" s="101">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="F14" s="101">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="G14" s="101">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="H14" s="101">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="I14" s="101">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="J14" s="101">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="K14" s="101">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="B15" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="D15" s="96">
+        <f>D14*D4</f>
+        <v>26.852000000000004</v>
+      </c>
+      <c r="E15" s="96">
+        <f t="shared" ref="E15:K15" si="3">E14*E4</f>
+        <v>37.24</v>
+      </c>
+      <c r="F15" s="96">
+        <f t="shared" si="3"/>
+        <v>27.244</v>
+      </c>
+      <c r="G15" s="96">
+        <f t="shared" si="3"/>
+        <v>35.525000000000006</v>
+      </c>
+      <c r="H15" s="96">
+        <f t="shared" si="3"/>
+        <v>28.567000000000004</v>
+      </c>
+      <c r="I15" s="96">
+        <f t="shared" si="3"/>
+        <v>33.173000000000002</v>
+      </c>
+      <c r="J15" s="96">
+        <f t="shared" si="3"/>
+        <v>28.42</v>
+      </c>
+      <c r="K15" s="96">
+        <f t="shared" si="3"/>
+        <v>28.959000000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="B16" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="D16" s="97">
+        <v>1.72</v>
+      </c>
+      <c r="E16" s="97">
+        <v>1.67</v>
+      </c>
+      <c r="F16" s="97">
+        <v>1.61</v>
+      </c>
+      <c r="G16" s="97">
+        <v>1.58</v>
+      </c>
+      <c r="H16" s="97">
+        <v>1.58</v>
+      </c>
+      <c r="I16" s="97">
+        <v>1.54</v>
+      </c>
+      <c r="J16" s="97">
+        <v>1.56</v>
+      </c>
+      <c r="K16" s="97">
+        <v>2.52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B17" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D17" s="85">
+        <f>D10*D9+D13*D12+D16*D15</f>
+        <v>344.40704000000005</v>
+      </c>
+      <c r="E17" s="85">
+        <f t="shared" ref="E17:K17" si="4">E10*E9+E13*E12+E16*E15</f>
+        <v>477.15079999999995</v>
+      </c>
+      <c r="F17" s="85">
+        <f t="shared" si="4"/>
+        <v>364.91948000000002</v>
+      </c>
+      <c r="G17" s="85">
+        <f t="shared" si="4"/>
+        <v>478.77550000000002</v>
+      </c>
+      <c r="H17" s="85">
+        <f t="shared" si="4"/>
+        <v>360.39310999999998</v>
+      </c>
+      <c r="I17" s="85">
+        <f t="shared" si="4"/>
+        <v>409.59854000000007</v>
+      </c>
+      <c r="J17" s="85">
+        <f t="shared" si="4"/>
+        <v>372.15120000000002</v>
+      </c>
+      <c r="K17" s="85">
+        <f t="shared" si="4"/>
+        <v>473.35554000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B18" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D18" s="31">
+        <f>D17</f>
+        <v>344.40704000000005</v>
+      </c>
+      <c r="E18" s="31">
+        <f t="shared" ref="E18:K18" si="5">E17</f>
+        <v>477.15079999999995</v>
+      </c>
+      <c r="F18" s="31">
+        <f t="shared" si="5"/>
+        <v>364.91948000000002</v>
+      </c>
+      <c r="G18" s="31">
+        <f t="shared" si="5"/>
+        <v>478.77550000000002</v>
+      </c>
+      <c r="H18" s="31">
+        <f t="shared" si="5"/>
+        <v>360.39310999999998</v>
+      </c>
+      <c r="I18" s="31">
+        <f t="shared" si="5"/>
+        <v>409.59854000000007</v>
+      </c>
+      <c r="J18" s="31">
+        <f t="shared" si="5"/>
+        <v>372.15120000000002</v>
+      </c>
+      <c r="K18" s="31">
+        <f t="shared" si="5"/>
+        <v>473.35554000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="37">
+        <f>330+230+24</f>
+        <v>584</v>
+      </c>
+      <c r="E19" s="34">
+        <f>344+443+26</f>
+        <v>813</v>
+      </c>
+      <c r="F19" s="34">
+        <f>333+286+27</f>
+        <v>646</v>
+      </c>
+      <c r="G19" s="34">
+        <f>355+305+27</f>
+        <v>687</v>
+      </c>
+      <c r="H19" s="34">
+        <f>342+357+23</f>
+        <v>722</v>
+      </c>
+      <c r="I19" s="34">
+        <f>335+415+22</f>
+        <v>772</v>
+      </c>
+      <c r="J19" s="34">
+        <f>356+336+22</f>
+        <v>714</v>
+      </c>
+      <c r="K19" s="34">
+        <f>427+398+22</f>
+        <v>847</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" t="s">
+        <v>179</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="D20" s="38">
+        <f t="shared" ref="D20:K20" si="6">D19+D7+D18</f>
+        <v>1107.6070400000001</v>
+      </c>
+      <c r="E20" s="38">
+        <f t="shared" si="6"/>
+        <v>1469.3507999999999</v>
+      </c>
+      <c r="F20" s="38">
+        <f t="shared" si="6"/>
+        <v>1190.1194800000001</v>
+      </c>
+      <c r="G20" s="38">
+        <f t="shared" si="6"/>
+        <v>1344.9755</v>
+      </c>
+      <c r="H20" s="38">
+        <f t="shared" si="6"/>
+        <v>1261.59311</v>
+      </c>
+      <c r="I20" s="38">
+        <f t="shared" si="6"/>
+        <v>1360.7985400000002</v>
+      </c>
+      <c r="J20" s="38">
+        <f t="shared" si="6"/>
+        <v>1310.0212000000001</v>
+      </c>
+      <c r="K20" s="38">
+        <f t="shared" si="6"/>
+        <v>1588.35554</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="D21" s="6">
+        <f t="shared" ref="D21:K21" si="7">D6-D20</f>
+        <v>781.07495999999992</v>
+      </c>
+      <c r="E21" s="6">
+        <f t="shared" si="7"/>
+        <v>1107.0492000000002</v>
+      </c>
+      <c r="F21" s="6">
+        <f t="shared" si="7"/>
+        <v>788.96251999999981</v>
+      </c>
+      <c r="G21" s="6">
+        <f t="shared" si="7"/>
+        <v>866.99950000000035</v>
+      </c>
+      <c r="H21" s="6">
+        <f t="shared" si="7"/>
+        <v>88.926390000000083</v>
+      </c>
+      <c r="I21" s="6">
+        <f t="shared" si="7"/>
+        <v>159.67575999999963</v>
+      </c>
+      <c r="J21" s="6">
+        <f t="shared" si="7"/>
+        <v>754.48879999999963</v>
+      </c>
+      <c r="K21" s="6">
+        <f t="shared" si="7"/>
+        <v>1350.0964600000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D24" s="29">
+        <v>5</v>
+      </c>
+      <c r="E24" s="29">
+        <v>3.33</v>
+      </c>
+      <c r="F24" s="29">
+        <v>10</v>
+      </c>
+      <c r="G24" s="29">
+        <v>9.01</v>
+      </c>
+      <c r="H24" s="29">
+        <v>7.22</v>
+      </c>
+      <c r="I24" s="29">
+        <v>7.72</v>
+      </c>
+      <c r="J24" s="29">
+        <v>5.87</v>
+      </c>
+      <c r="K24" s="29">
+        <v>5.91</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" t="s">
+        <v>182</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D25" s="51"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="51"/>
+      <c r="H25" s="51"/>
+      <c r="I25" s="51"/>
+      <c r="J25" s="51"/>
+      <c r="K25" s="51"/>
+    </row>
+    <row r="26" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26" t="s">
+        <v>183</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D26" s="29">
+        <v>12.93</v>
+      </c>
+      <c r="E26" s="29">
+        <v>5.59</v>
+      </c>
+      <c r="F26" s="29">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="G26" s="29">
+        <v>7.69</v>
+      </c>
+      <c r="H26" s="29">
+        <v>7.79</v>
+      </c>
+      <c r="I26" s="29">
+        <v>9.42</v>
+      </c>
+      <c r="J26" s="29">
+        <v>6.08</v>
+      </c>
+      <c r="K26" s="29">
+        <v>7.43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" t="s">
+        <v>184</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D27" s="29">
+        <v>5.3</v>
+      </c>
+      <c r="E27" s="29">
+        <v>7.77</v>
+      </c>
+      <c r="F27" s="29">
+        <v>7.77</v>
+      </c>
+      <c r="G27" s="29">
+        <v>7.87</v>
+      </c>
+      <c r="H27" s="29">
+        <v>10.56</v>
+      </c>
+      <c r="I27" s="29">
+        <v>4.47</v>
+      </c>
+      <c r="J27" s="29">
+        <v>6.05</v>
+      </c>
+      <c r="K27" s="29">
+        <v>9.24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28" t="s">
+        <v>185</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D28" s="39">
+        <v>8.5399999999999991</v>
+      </c>
+      <c r="E28" s="39">
+        <v>9.23</v>
+      </c>
+      <c r="F28" s="39">
+        <v>6.6</v>
+      </c>
+      <c r="G28" s="39">
+        <v>6.84</v>
+      </c>
+      <c r="H28" s="39">
+        <v>4.74</v>
+      </c>
+      <c r="I28" s="39">
+        <v>8.49</v>
+      </c>
+      <c r="J28" s="39">
+        <v>5.31</v>
+      </c>
+      <c r="K28" s="39">
+        <v>8.19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29" t="s">
+        <v>186</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D29" s="29">
+        <v>6.34</v>
+      </c>
+      <c r="E29" s="29">
+        <v>6.62</v>
+      </c>
+      <c r="F29" s="29">
+        <v>6.59</v>
+      </c>
+      <c r="G29" s="29">
+        <v>10.15</v>
+      </c>
+      <c r="H29" s="29">
+        <v>6.63</v>
+      </c>
+      <c r="I29" s="29">
+        <v>8.3699999999999992</v>
+      </c>
+      <c r="J29" s="29">
+        <v>8.65</v>
+      </c>
+      <c r="K29" s="29">
+        <v>9.7799999999999994</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B30" t="s">
+        <v>188</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D30" s="29">
+        <v>6.73</v>
+      </c>
+      <c r="E30" s="29">
+        <v>8.4499999999999993</v>
+      </c>
+      <c r="F30" s="29">
+        <v>13.02</v>
+      </c>
+      <c r="G30" s="29">
+        <v>8.44</v>
+      </c>
+      <c r="H30" s="29">
+        <v>7.35</v>
+      </c>
+      <c r="I30" s="29">
+        <v>9.4600000000000009</v>
+      </c>
+      <c r="J30" s="29">
+        <v>7.73</v>
+      </c>
+      <c r="K30" s="29">
+        <v>7.22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" t="s">
+        <v>187</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D31" s="29">
+        <v>4.76</v>
+      </c>
+      <c r="E31" s="29">
+        <v>7.7</v>
+      </c>
+      <c r="F31" s="29">
+        <v>4.66</v>
+      </c>
+      <c r="G31" s="29">
+        <v>6.61</v>
+      </c>
+      <c r="H31" s="29">
+        <v>5.53</v>
+      </c>
+      <c r="I31" s="29">
+        <v>6.12</v>
+      </c>
+      <c r="J31" s="29">
+        <v>5.12</v>
+      </c>
+      <c r="K31" s="29">
+        <v>4.46</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FD4424E-EDAA-4D4C-89AC-1C6CBEDDCB88}">
   <dimension ref="A3:K31"/>
   <sheetViews>
@@ -14999,7 +16219,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0C6D7B1-53EC-442D-A870-7BF96B29E312}">
   <dimension ref="A3:K33"/>
   <sheetViews>
@@ -15971,7 +17191,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F37978DD-914F-4A67-835D-80E1CCE3448C}">
   <dimension ref="A3:K31"/>
   <sheetViews>
@@ -16989,7 +18209,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEBC5245-C226-4EBF-9797-453338F0B92D}">
   <dimension ref="A3:K31"/>
   <sheetViews>
@@ -17991,7 +19211,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C174750E-BF3D-4FF0-BC54-9393D53BB872}">
   <dimension ref="A3:K31"/>
   <sheetViews>
@@ -18993,7 +20213,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74887163-0E9C-46D6-BC12-326C79CC9034}">
   <dimension ref="A2:C29"/>
   <sheetViews>
@@ -19287,7 +20507,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33F0955A-C7ED-43CE-9761-E354D432F140}">
   <sheetPr codeName="Tabelle3"/>
   <dimension ref="A1:AA13"/>
@@ -19399,10 +20619,10 @@
       </c>
     </row>
     <row r="3" spans="1:27" ht="31.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="113" t="s">
+      <c r="A3" s="115" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="113"/>
+      <c r="B3" s="115"/>
       <c r="C3" s="5" t="s">
         <v>23</v>
       </c>
@@ -20203,7 +21423,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F1155B8-029F-4784-B88D-A39BF661F3CA}">
   <sheetPr codeName="Tabelle4"/>
   <dimension ref="A2:AB31"/>
@@ -20239,13 +21459,13 @@
       <c r="A2" t="s">
         <v>281</v>
       </c>
-      <c r="B2" s="114" t="s">
+      <c r="B2" s="116" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
+      <c r="C2" s="117"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
     </row>
     <row r="3" spans="1:28" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -22423,7 +23643,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F08458A0-9E77-4FF3-987A-D5BEFCF7C60A}">
   <sheetPr codeName="Tabelle6"/>
   <dimension ref="A1:N40"/>
@@ -22984,7 +24204,959 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DB1167F-E09D-41BB-B2F7-2774B79A088B}">
+  <dimension ref="A3:K31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4">
+        <v>2015</v>
+      </c>
+      <c r="E3" s="4">
+        <v>2016</v>
+      </c>
+      <c r="F3" s="4">
+        <v>2017</v>
+      </c>
+      <c r="G3" s="4">
+        <v>2018</v>
+      </c>
+      <c r="H3" s="4">
+        <v>2019</v>
+      </c>
+      <c r="I3" s="4">
+        <v>2020</v>
+      </c>
+      <c r="J3" s="4">
+        <v>2021</v>
+      </c>
+      <c r="K3" s="4">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D4" s="29">
+        <v>25.4</v>
+      </c>
+      <c r="E4" s="29">
+        <v>25.4</v>
+      </c>
+      <c r="F4" s="29">
+        <v>25.4</v>
+      </c>
+      <c r="G4" s="29">
+        <v>25.4</v>
+      </c>
+      <c r="H4" s="29">
+        <v>25.4</v>
+      </c>
+      <c r="I4" s="29">
+        <v>25.4</v>
+      </c>
+      <c r="J4" s="29">
+        <v>25.4</v>
+      </c>
+      <c r="K4" s="29">
+        <v>25.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B5" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D5" s="3">
+        <v>48.3</v>
+      </c>
+      <c r="E5" s="3">
+        <v>61.4</v>
+      </c>
+      <c r="F5" s="3">
+        <v>56.3</v>
+      </c>
+      <c r="G5" s="3">
+        <v>57.3</v>
+      </c>
+      <c r="H5" s="3">
+        <v>66.7</v>
+      </c>
+      <c r="I5" s="3">
+        <v>74.3</v>
+      </c>
+      <c r="J5" s="3">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="K5" s="3">
+        <v>66.099999999999994</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B6" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D6" s="32">
+        <f>D5*D4</f>
+        <v>1226.82</v>
+      </c>
+      <c r="E6" s="32">
+        <f t="shared" ref="E6:K6" si="0">E5*E4</f>
+        <v>1559.56</v>
+      </c>
+      <c r="F6" s="32">
+        <f t="shared" si="0"/>
+        <v>1430.0199999999998</v>
+      </c>
+      <c r="G6" s="32">
+        <f t="shared" si="0"/>
+        <v>1455.4199999999998</v>
+      </c>
+      <c r="H6" s="32">
+        <f t="shared" si="0"/>
+        <v>1694.18</v>
+      </c>
+      <c r="I6" s="32">
+        <f t="shared" si="0"/>
+        <v>1887.2199999999998</v>
+      </c>
+      <c r="J6" s="32">
+        <f t="shared" si="0"/>
+        <v>1678.9399999999998</v>
+      </c>
+      <c r="K6" s="32">
+        <f t="shared" si="0"/>
+        <v>1678.9399999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="48">
+        <v>163.5</v>
+      </c>
+      <c r="E7" s="48">
+        <v>163.5</v>
+      </c>
+      <c r="F7" s="48">
+        <v>163.5</v>
+      </c>
+      <c r="G7" s="48">
+        <v>170</v>
+      </c>
+      <c r="H7" s="48">
+        <v>180</v>
+      </c>
+      <c r="I7" s="48">
+        <v>190</v>
+      </c>
+      <c r="J7" s="48">
+        <v>204</v>
+      </c>
+      <c r="K7" s="48">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B8" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="D8" s="65">
+        <v>0</v>
+      </c>
+      <c r="E8" s="65">
+        <v>0</v>
+      </c>
+      <c r="F8" s="65">
+        <v>0</v>
+      </c>
+      <c r="G8" s="65">
+        <v>0</v>
+      </c>
+      <c r="H8" s="65">
+        <v>0</v>
+      </c>
+      <c r="I8" s="65">
+        <v>0</v>
+      </c>
+      <c r="J8" s="65">
+        <v>0</v>
+      </c>
+      <c r="K8" s="65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="B9" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="D9" s="49">
+        <f>D8*D4</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="49">
+        <f t="shared" ref="E9:K9" si="1">E8*E4</f>
+        <v>0</v>
+      </c>
+      <c r="F9" s="49">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G9" s="49">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H9" s="49">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I9" s="49">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="49">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="49">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B10" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="D10" s="47">
+        <v>3.11</v>
+      </c>
+      <c r="E10" s="47">
+        <v>3.17</v>
+      </c>
+      <c r="F10" s="47">
+        <v>3.48</v>
+      </c>
+      <c r="G10" s="47">
+        <v>3.52</v>
+      </c>
+      <c r="H10" s="47">
+        <v>3.22</v>
+      </c>
+      <c r="I10" s="47">
+        <v>3.18</v>
+      </c>
+      <c r="J10" s="47">
+        <v>3.18</v>
+      </c>
+      <c r="K10" s="47">
+        <v>3.43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="B11" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="102" t="s">
+        <v>309</v>
+      </c>
+      <c r="D11" s="109">
+        <f>0.14*10</f>
+        <v>1.4000000000000001</v>
+      </c>
+      <c r="E11" s="109">
+        <f t="shared" ref="E11:K11" si="2">0.14*10</f>
+        <v>1.4000000000000001</v>
+      </c>
+      <c r="F11" s="109">
+        <f t="shared" si="2"/>
+        <v>1.4000000000000001</v>
+      </c>
+      <c r="G11" s="109">
+        <f t="shared" si="2"/>
+        <v>1.4000000000000001</v>
+      </c>
+      <c r="H11" s="109">
+        <f t="shared" si="2"/>
+        <v>1.4000000000000001</v>
+      </c>
+      <c r="I11" s="109">
+        <f t="shared" si="2"/>
+        <v>1.4000000000000001</v>
+      </c>
+      <c r="J11" s="109">
+        <f t="shared" si="2"/>
+        <v>1.4000000000000001</v>
+      </c>
+      <c r="K11" s="109">
+        <f t="shared" si="2"/>
+        <v>1.4000000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="B12" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="102" t="s">
+        <v>310</v>
+      </c>
+      <c r="D12" s="96">
+        <f>D11*D4</f>
+        <v>35.56</v>
+      </c>
+      <c r="E12" s="96">
+        <f t="shared" ref="E12:K12" si="3">E11*E4</f>
+        <v>35.56</v>
+      </c>
+      <c r="F12" s="96">
+        <f t="shared" si="3"/>
+        <v>35.56</v>
+      </c>
+      <c r="G12" s="96">
+        <f t="shared" si="3"/>
+        <v>35.56</v>
+      </c>
+      <c r="H12" s="96">
+        <f t="shared" si="3"/>
+        <v>35.56</v>
+      </c>
+      <c r="I12" s="96">
+        <f t="shared" si="3"/>
+        <v>35.56</v>
+      </c>
+      <c r="J12" s="96">
+        <f t="shared" si="3"/>
+        <v>35.56</v>
+      </c>
+      <c r="K12" s="96">
+        <f t="shared" si="3"/>
+        <v>35.56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="B13" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="102" t="s">
+        <v>311</v>
+      </c>
+      <c r="D13" s="97">
+        <v>1.42</v>
+      </c>
+      <c r="E13" s="97">
+        <v>1.34</v>
+      </c>
+      <c r="F13" s="97">
+        <v>1.2</v>
+      </c>
+      <c r="G13" s="97">
+        <v>1.2</v>
+      </c>
+      <c r="H13" s="97">
+        <v>1.19</v>
+      </c>
+      <c r="I13" s="97">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="J13" s="97">
+        <v>1.56</v>
+      </c>
+      <c r="K13" s="97">
+        <v>2.52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="B14" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="102" t="s">
+        <v>312</v>
+      </c>
+      <c r="D14" s="101">
+        <f>0.65*10</f>
+        <v>6.5</v>
+      </c>
+      <c r="E14" s="101">
+        <f t="shared" ref="E14:K14" si="4">0.65*10</f>
+        <v>6.5</v>
+      </c>
+      <c r="F14" s="101">
+        <f t="shared" si="4"/>
+        <v>6.5</v>
+      </c>
+      <c r="G14" s="101">
+        <f t="shared" si="4"/>
+        <v>6.5</v>
+      </c>
+      <c r="H14" s="101">
+        <f t="shared" si="4"/>
+        <v>6.5</v>
+      </c>
+      <c r="I14" s="101">
+        <f t="shared" si="4"/>
+        <v>6.5</v>
+      </c>
+      <c r="J14" s="101">
+        <f t="shared" si="4"/>
+        <v>6.5</v>
+      </c>
+      <c r="K14" s="101">
+        <f t="shared" si="4"/>
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="B15" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="102" t="s">
+        <v>313</v>
+      </c>
+      <c r="D15" s="96">
+        <f>D14*D4</f>
+        <v>165.1</v>
+      </c>
+      <c r="E15" s="96">
+        <f t="shared" ref="E15:K15" si="5">E14*E4</f>
+        <v>165.1</v>
+      </c>
+      <c r="F15" s="96">
+        <f t="shared" si="5"/>
+        <v>165.1</v>
+      </c>
+      <c r="G15" s="96">
+        <f t="shared" si="5"/>
+        <v>165.1</v>
+      </c>
+      <c r="H15" s="96">
+        <f t="shared" si="5"/>
+        <v>165.1</v>
+      </c>
+      <c r="I15" s="96">
+        <f t="shared" si="5"/>
+        <v>165.1</v>
+      </c>
+      <c r="J15" s="96">
+        <f t="shared" si="5"/>
+        <v>165.1</v>
+      </c>
+      <c r="K15" s="96">
+        <f t="shared" si="5"/>
+        <v>165.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="B16" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="102" t="s">
+        <v>314</v>
+      </c>
+      <c r="D16" s="97">
+        <v>1.72</v>
+      </c>
+      <c r="E16" s="97">
+        <v>1.67</v>
+      </c>
+      <c r="F16" s="97">
+        <v>1.61</v>
+      </c>
+      <c r="G16" s="97">
+        <v>1.58</v>
+      </c>
+      <c r="H16" s="97">
+        <v>1.58</v>
+      </c>
+      <c r="I16" s="97">
+        <v>1.54</v>
+      </c>
+      <c r="J16" s="97">
+        <v>1.56</v>
+      </c>
+      <c r="K16" s="97">
+        <v>2.52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B17" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="102" t="s">
+        <v>177</v>
+      </c>
+      <c r="D17" s="85">
+        <f>D10*D9+D13*D12+D16*D15</f>
+        <v>334.46719999999999</v>
+      </c>
+      <c r="E17" s="85">
+        <f t="shared" ref="E17:K17" si="6">E10*E9+E13*E12+E16*E15</f>
+        <v>323.36739999999998</v>
+      </c>
+      <c r="F17" s="85">
+        <f t="shared" si="6"/>
+        <v>308.483</v>
+      </c>
+      <c r="G17" s="85">
+        <f t="shared" si="6"/>
+        <v>303.53000000000003</v>
+      </c>
+      <c r="H17" s="85">
+        <f t="shared" si="6"/>
+        <v>303.17439999999999</v>
+      </c>
+      <c r="I17" s="85">
+        <f t="shared" si="6"/>
+        <v>294.08119999999997</v>
+      </c>
+      <c r="J17" s="85">
+        <f t="shared" si="6"/>
+        <v>313.02959999999996</v>
+      </c>
+      <c r="K17" s="85">
+        <f t="shared" si="6"/>
+        <v>505.66319999999996</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B18" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D18" s="31">
+        <f>D17</f>
+        <v>334.46719999999999</v>
+      </c>
+      <c r="E18" s="31">
+        <f t="shared" ref="E18:K18" si="7">E17</f>
+        <v>323.36739999999998</v>
+      </c>
+      <c r="F18" s="31">
+        <f t="shared" si="7"/>
+        <v>308.483</v>
+      </c>
+      <c r="G18" s="31">
+        <f t="shared" si="7"/>
+        <v>303.53000000000003</v>
+      </c>
+      <c r="H18" s="31">
+        <f t="shared" si="7"/>
+        <v>303.17439999999999</v>
+      </c>
+      <c r="I18" s="31">
+        <f t="shared" si="7"/>
+        <v>294.08119999999997</v>
+      </c>
+      <c r="J18" s="31">
+        <f t="shared" si="7"/>
+        <v>313.02959999999996</v>
+      </c>
+      <c r="K18" s="31">
+        <f t="shared" si="7"/>
+        <v>505.66319999999996</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="37">
+        <f>439+32+143</f>
+        <v>614</v>
+      </c>
+      <c r="E19" s="37">
+        <f>439+32+143</f>
+        <v>614</v>
+      </c>
+      <c r="F19" s="34">
+        <v>600</v>
+      </c>
+      <c r="G19" s="34">
+        <v>610</v>
+      </c>
+      <c r="H19" s="34">
+        <v>620</v>
+      </c>
+      <c r="I19" s="34">
+        <f>167+32+476</f>
+        <v>675</v>
+      </c>
+      <c r="J19" s="34">
+        <f>486+33+170</f>
+        <v>689</v>
+      </c>
+      <c r="K19" s="34">
+        <f>173+32+483</f>
+        <v>688</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" t="s">
+        <v>179</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="D20" s="38">
+        <f t="shared" ref="D20:K20" si="8">D19+D7+D18</f>
+        <v>1111.9672</v>
+      </c>
+      <c r="E20" s="38">
+        <f t="shared" si="8"/>
+        <v>1100.8674000000001</v>
+      </c>
+      <c r="F20" s="38">
+        <f t="shared" si="8"/>
+        <v>1071.9829999999999</v>
+      </c>
+      <c r="G20" s="38">
+        <f t="shared" si="8"/>
+        <v>1083.53</v>
+      </c>
+      <c r="H20" s="38">
+        <f t="shared" si="8"/>
+        <v>1103.1743999999999</v>
+      </c>
+      <c r="I20" s="38">
+        <f t="shared" si="8"/>
+        <v>1159.0812000000001</v>
+      </c>
+      <c r="J20" s="38">
+        <f t="shared" si="8"/>
+        <v>1206.0295999999998</v>
+      </c>
+      <c r="K20" s="38">
+        <f t="shared" si="8"/>
+        <v>1397.6632</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="54"/>
+      <c r="C21" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="D21" s="55">
+        <f t="shared" ref="D21:K21" si="9">D6-D20</f>
+        <v>114.85279999999989</v>
+      </c>
+      <c r="E21" s="55">
+        <f t="shared" si="9"/>
+        <v>458.69259999999986</v>
+      </c>
+      <c r="F21" s="55">
+        <f t="shared" si="9"/>
+        <v>358.03699999999981</v>
+      </c>
+      <c r="G21" s="55">
+        <f t="shared" si="9"/>
+        <v>371.88999999999987</v>
+      </c>
+      <c r="H21" s="55">
+        <f t="shared" si="9"/>
+        <v>591.00560000000019</v>
+      </c>
+      <c r="I21" s="55">
+        <f t="shared" si="9"/>
+        <v>728.13879999999972</v>
+      </c>
+      <c r="J21" s="55">
+        <f t="shared" si="9"/>
+        <v>472.91039999999998</v>
+      </c>
+      <c r="K21" s="55">
+        <f t="shared" si="9"/>
+        <v>281.27679999999987</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="D22" s="75">
+        <v>0</v>
+      </c>
+      <c r="E22" s="75">
+        <v>0</v>
+      </c>
+      <c r="F22" s="75">
+        <v>0</v>
+      </c>
+      <c r="G22" s="75">
+        <v>0</v>
+      </c>
+      <c r="H22" s="75">
+        <v>0</v>
+      </c>
+      <c r="I22" s="75">
+        <v>0</v>
+      </c>
+      <c r="J22" s="75">
+        <v>0</v>
+      </c>
+      <c r="K22" s="75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D24" s="53"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="53"/>
+      <c r="H24" s="53"/>
+      <c r="I24" s="53"/>
+      <c r="J24" s="53"/>
+      <c r="K24" s="53"/>
+    </row>
+    <row r="25" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" t="s">
+        <v>182</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D25" s="53"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="53"/>
+      <c r="H25" s="53"/>
+      <c r="I25" s="53"/>
+      <c r="J25" s="53"/>
+      <c r="K25" s="53"/>
+    </row>
+    <row r="26" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26" t="s">
+        <v>183</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="29"/>
+    </row>
+    <row r="27" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" t="s">
+        <v>184</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="29"/>
+    </row>
+    <row r="28" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28" t="s">
+        <v>185</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="29"/>
+    </row>
+    <row r="29" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29" t="s">
+        <v>186</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="29"/>
+    </row>
+    <row r="30" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B30" t="s">
+        <v>188</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D30" s="29"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="29"/>
+      <c r="K30" s="29"/>
+    </row>
+    <row r="31" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" t="s">
+        <v>187</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D31" s="29"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="29"/>
+      <c r="K31" s="29"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB6D9549-3E0E-4FEE-ABD4-7A1FDA7B5692}">
   <dimension ref="A1:Q55"/>
   <sheetViews>
@@ -23009,15 +25181,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="116" t="s">
+      <c r="A1" s="118" t="s">
         <v>217</v>
       </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -23090,10 +25262,10 @@
       <c r="B5" s="43">
         <v>0.05</v>
       </c>
-      <c r="D5" s="117" t="s">
+      <c r="D5" s="119" t="s">
         <v>268</v>
       </c>
-      <c r="E5" s="117"/>
+      <c r="E5" s="119"/>
       <c r="F5" s="19">
         <v>0.4</v>
       </c>
@@ -23261,15 +25433,15 @@
       <c r="K18" s="19"/>
     </row>
     <row r="19" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="116" t="s">
+      <c r="A19" s="118" t="s">
         <v>201</v>
       </c>
-      <c r="B19" s="116"/>
-      <c r="C19" s="116"/>
-      <c r="D19" s="116"/>
-      <c r="E19" s="116"/>
-      <c r="F19" s="116"/>
-      <c r="G19" s="116"/>
+      <c r="B19" s="118"/>
+      <c r="C19" s="118"/>
+      <c r="D19" s="118"/>
+      <c r="E19" s="118"/>
+      <c r="F19" s="118"/>
+      <c r="G19" s="118"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -23277,15 +25449,15 @@
       </c>
     </row>
     <row r="27" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="116" t="s">
+      <c r="A27" s="118" t="s">
         <v>221</v>
       </c>
-      <c r="B27" s="116"/>
-      <c r="C27" s="116"/>
-      <c r="D27" s="116"/>
-      <c r="E27" s="116"/>
-      <c r="F27" s="116"/>
-      <c r="G27" s="116"/>
+      <c r="B27" s="118"/>
+      <c r="C27" s="118"/>
+      <c r="D27" s="118"/>
+      <c r="E27" s="118"/>
+      <c r="F27" s="118"/>
+      <c r="G27" s="118"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
@@ -23670,958 +25842,6 @@
   <hyperlinks>
     <hyperlink ref="A29" r:id="rId1" xr:uid="{648F0640-BCDF-44F0-BDB5-950D52435F41}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DB1167F-E09D-41BB-B2F7-2774B79A088B}">
-  <dimension ref="A3:K31"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.85546875" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4">
-        <v>2015</v>
-      </c>
-      <c r="E3" s="4">
-        <v>2016</v>
-      </c>
-      <c r="F3" s="4">
-        <v>2017</v>
-      </c>
-      <c r="G3" s="4">
-        <v>2018</v>
-      </c>
-      <c r="H3" s="4">
-        <v>2019</v>
-      </c>
-      <c r="I3" s="4">
-        <v>2020</v>
-      </c>
-      <c r="J3" s="4">
-        <v>2021</v>
-      </c>
-      <c r="K3" s="4">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="D4" s="29">
-        <v>25.4</v>
-      </c>
-      <c r="E4" s="29">
-        <v>25.4</v>
-      </c>
-      <c r="F4" s="29">
-        <v>25.4</v>
-      </c>
-      <c r="G4" s="29">
-        <v>25.4</v>
-      </c>
-      <c r="H4" s="29">
-        <v>25.4</v>
-      </c>
-      <c r="I4" s="29">
-        <v>25.4</v>
-      </c>
-      <c r="J4" s="29">
-        <v>25.4</v>
-      </c>
-      <c r="K4" s="29">
-        <v>25.4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="B5" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="D5" s="3">
-        <v>48.3</v>
-      </c>
-      <c r="E5" s="3">
-        <v>61.4</v>
-      </c>
-      <c r="F5" s="3">
-        <v>56.3</v>
-      </c>
-      <c r="G5" s="3">
-        <v>57.3</v>
-      </c>
-      <c r="H5" s="3">
-        <v>66.7</v>
-      </c>
-      <c r="I5" s="3">
-        <v>74.3</v>
-      </c>
-      <c r="J5" s="3">
-        <v>66.099999999999994</v>
-      </c>
-      <c r="K5" s="3">
-        <v>66.099999999999994</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="B6" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="D6" s="32">
-        <f>D5*D4</f>
-        <v>1226.82</v>
-      </c>
-      <c r="E6" s="32">
-        <f t="shared" ref="E6:K6" si="0">E5*E4</f>
-        <v>1559.56</v>
-      </c>
-      <c r="F6" s="32">
-        <f t="shared" si="0"/>
-        <v>1430.0199999999998</v>
-      </c>
-      <c r="G6" s="32">
-        <f t="shared" si="0"/>
-        <v>1455.4199999999998</v>
-      </c>
-      <c r="H6" s="32">
-        <f t="shared" si="0"/>
-        <v>1694.18</v>
-      </c>
-      <c r="I6" s="32">
-        <f t="shared" si="0"/>
-        <v>1887.2199999999998</v>
-      </c>
-      <c r="J6" s="32">
-        <f t="shared" si="0"/>
-        <v>1678.9399999999998</v>
-      </c>
-      <c r="K6" s="32">
-        <f t="shared" si="0"/>
-        <v>1678.9399999999998</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="48">
-        <v>163.5</v>
-      </c>
-      <c r="E7" s="48">
-        <v>163.5</v>
-      </c>
-      <c r="F7" s="48">
-        <v>163.5</v>
-      </c>
-      <c r="G7" s="48">
-        <v>170</v>
-      </c>
-      <c r="H7" s="48">
-        <v>180</v>
-      </c>
-      <c r="I7" s="48">
-        <v>190</v>
-      </c>
-      <c r="J7" s="48">
-        <v>204</v>
-      </c>
-      <c r="K7" s="48">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="B8" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="D8" s="65">
-        <v>0</v>
-      </c>
-      <c r="E8" s="65">
-        <v>0</v>
-      </c>
-      <c r="F8" s="65">
-        <v>0</v>
-      </c>
-      <c r="G8" s="65">
-        <v>0</v>
-      </c>
-      <c r="H8" s="65">
-        <v>0</v>
-      </c>
-      <c r="I8" s="65">
-        <v>0</v>
-      </c>
-      <c r="J8" s="65">
-        <v>0</v>
-      </c>
-      <c r="K8" s="65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="B9" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="D9" s="49">
-        <f>D8*D4</f>
-        <v>0</v>
-      </c>
-      <c r="E9" s="49">
-        <f t="shared" ref="E9:K9" si="1">E8*E4</f>
-        <v>0</v>
-      </c>
-      <c r="F9" s="49">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G9" s="49">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H9" s="49">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I9" s="49">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J9" s="49">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K9" s="49">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="B10" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="D10" s="47">
-        <v>3.11</v>
-      </c>
-      <c r="E10" s="47">
-        <v>3.17</v>
-      </c>
-      <c r="F10" s="47">
-        <v>3.48</v>
-      </c>
-      <c r="G10" s="47">
-        <v>3.52</v>
-      </c>
-      <c r="H10" s="47">
-        <v>3.22</v>
-      </c>
-      <c r="I10" s="47">
-        <v>3.18</v>
-      </c>
-      <c r="J10" s="47">
-        <v>3.18</v>
-      </c>
-      <c r="K10" s="47">
-        <v>3.43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="B11" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="102" t="s">
-        <v>309</v>
-      </c>
-      <c r="D11" s="109">
-        <f>0.14*10</f>
-        <v>1.4000000000000001</v>
-      </c>
-      <c r="E11" s="109">
-        <f t="shared" ref="E11:K11" si="2">0.14*10</f>
-        <v>1.4000000000000001</v>
-      </c>
-      <c r="F11" s="109">
-        <f t="shared" si="2"/>
-        <v>1.4000000000000001</v>
-      </c>
-      <c r="G11" s="109">
-        <f t="shared" si="2"/>
-        <v>1.4000000000000001</v>
-      </c>
-      <c r="H11" s="109">
-        <f t="shared" si="2"/>
-        <v>1.4000000000000001</v>
-      </c>
-      <c r="I11" s="109">
-        <f t="shared" si="2"/>
-        <v>1.4000000000000001</v>
-      </c>
-      <c r="J11" s="109">
-        <f t="shared" si="2"/>
-        <v>1.4000000000000001</v>
-      </c>
-      <c r="K11" s="109">
-        <f t="shared" si="2"/>
-        <v>1.4000000000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="B12" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="102" t="s">
-        <v>310</v>
-      </c>
-      <c r="D12" s="96">
-        <f>D11*D4</f>
-        <v>35.56</v>
-      </c>
-      <c r="E12" s="96">
-        <f t="shared" ref="E12:K12" si="3">E11*E4</f>
-        <v>35.56</v>
-      </c>
-      <c r="F12" s="96">
-        <f t="shared" si="3"/>
-        <v>35.56</v>
-      </c>
-      <c r="G12" s="96">
-        <f t="shared" si="3"/>
-        <v>35.56</v>
-      </c>
-      <c r="H12" s="96">
-        <f t="shared" si="3"/>
-        <v>35.56</v>
-      </c>
-      <c r="I12" s="96">
-        <f t="shared" si="3"/>
-        <v>35.56</v>
-      </c>
-      <c r="J12" s="96">
-        <f t="shared" si="3"/>
-        <v>35.56</v>
-      </c>
-      <c r="K12" s="96">
-        <f t="shared" si="3"/>
-        <v>35.56</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="B13" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="102" t="s">
-        <v>311</v>
-      </c>
-      <c r="D13" s="97">
-        <v>1.42</v>
-      </c>
-      <c r="E13" s="97">
-        <v>1.34</v>
-      </c>
-      <c r="F13" s="97">
-        <v>1.2</v>
-      </c>
-      <c r="G13" s="97">
-        <v>1.2</v>
-      </c>
-      <c r="H13" s="97">
-        <v>1.19</v>
-      </c>
-      <c r="I13" s="97">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="J13" s="97">
-        <v>1.56</v>
-      </c>
-      <c r="K13" s="97">
-        <v>2.52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="B14" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="102" t="s">
-        <v>312</v>
-      </c>
-      <c r="D14" s="101">
-        <f>0.65*10</f>
-        <v>6.5</v>
-      </c>
-      <c r="E14" s="101">
-        <f t="shared" ref="E14:K14" si="4">0.65*10</f>
-        <v>6.5</v>
-      </c>
-      <c r="F14" s="101">
-        <f t="shared" si="4"/>
-        <v>6.5</v>
-      </c>
-      <c r="G14" s="101">
-        <f t="shared" si="4"/>
-        <v>6.5</v>
-      </c>
-      <c r="H14" s="101">
-        <f t="shared" si="4"/>
-        <v>6.5</v>
-      </c>
-      <c r="I14" s="101">
-        <f t="shared" si="4"/>
-        <v>6.5</v>
-      </c>
-      <c r="J14" s="101">
-        <f t="shared" si="4"/>
-        <v>6.5</v>
-      </c>
-      <c r="K14" s="101">
-        <f t="shared" si="4"/>
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="B15" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="102" t="s">
-        <v>313</v>
-      </c>
-      <c r="D15" s="96">
-        <f>D14*D4</f>
-        <v>165.1</v>
-      </c>
-      <c r="E15" s="96">
-        <f t="shared" ref="E15:K15" si="5">E14*E4</f>
-        <v>165.1</v>
-      </c>
-      <c r="F15" s="96">
-        <f t="shared" si="5"/>
-        <v>165.1</v>
-      </c>
-      <c r="G15" s="96">
-        <f t="shared" si="5"/>
-        <v>165.1</v>
-      </c>
-      <c r="H15" s="96">
-        <f t="shared" si="5"/>
-        <v>165.1</v>
-      </c>
-      <c r="I15" s="96">
-        <f t="shared" si="5"/>
-        <v>165.1</v>
-      </c>
-      <c r="J15" s="96">
-        <f t="shared" si="5"/>
-        <v>165.1</v>
-      </c>
-      <c r="K15" s="96">
-        <f t="shared" si="5"/>
-        <v>165.1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="B16" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="102" t="s">
-        <v>314</v>
-      </c>
-      <c r="D16" s="97">
-        <v>1.72</v>
-      </c>
-      <c r="E16" s="97">
-        <v>1.67</v>
-      </c>
-      <c r="F16" s="97">
-        <v>1.61</v>
-      </c>
-      <c r="G16" s="97">
-        <v>1.58</v>
-      </c>
-      <c r="H16" s="97">
-        <v>1.58</v>
-      </c>
-      <c r="I16" s="97">
-        <v>1.54</v>
-      </c>
-      <c r="J16" s="97">
-        <v>1.56</v>
-      </c>
-      <c r="K16" s="97">
-        <v>2.52</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="B17" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="102" t="s">
-        <v>177</v>
-      </c>
-      <c r="D17" s="85">
-        <f>D10*D9+D13*D12+D16*D15</f>
-        <v>334.46719999999999</v>
-      </c>
-      <c r="E17" s="85">
-        <f t="shared" ref="E17:K17" si="6">E10*E9+E13*E12+E16*E15</f>
-        <v>323.36739999999998</v>
-      </c>
-      <c r="F17" s="85">
-        <f t="shared" si="6"/>
-        <v>308.483</v>
-      </c>
-      <c r="G17" s="85">
-        <f t="shared" si="6"/>
-        <v>303.53000000000003</v>
-      </c>
-      <c r="H17" s="85">
-        <f t="shared" si="6"/>
-        <v>303.17439999999999</v>
-      </c>
-      <c r="I17" s="85">
-        <f t="shared" si="6"/>
-        <v>294.08119999999997</v>
-      </c>
-      <c r="J17" s="85">
-        <f t="shared" si="6"/>
-        <v>313.02959999999996</v>
-      </c>
-      <c r="K17" s="85">
-        <f t="shared" si="6"/>
-        <v>505.66319999999996</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="B18" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="D18" s="31">
-        <f>D17</f>
-        <v>334.46719999999999</v>
-      </c>
-      <c r="E18" s="31">
-        <f t="shared" ref="E18:K18" si="7">E17</f>
-        <v>323.36739999999998</v>
-      </c>
-      <c r="F18" s="31">
-        <f t="shared" si="7"/>
-        <v>308.483</v>
-      </c>
-      <c r="G18" s="31">
-        <f t="shared" si="7"/>
-        <v>303.53000000000003</v>
-      </c>
-      <c r="H18" s="31">
-        <f t="shared" si="7"/>
-        <v>303.17439999999999</v>
-      </c>
-      <c r="I18" s="31">
-        <f t="shared" si="7"/>
-        <v>294.08119999999997</v>
-      </c>
-      <c r="J18" s="31">
-        <f t="shared" si="7"/>
-        <v>313.02959999999996</v>
-      </c>
-      <c r="K18" s="31">
-        <f t="shared" si="7"/>
-        <v>505.66319999999996</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" s="37">
-        <f>439+32+143</f>
-        <v>614</v>
-      </c>
-      <c r="E19" s="37">
-        <f>439+32+143</f>
-        <v>614</v>
-      </c>
-      <c r="F19" s="34">
-        <v>600</v>
-      </c>
-      <c r="G19" s="34">
-        <v>610</v>
-      </c>
-      <c r="H19" s="34">
-        <v>620</v>
-      </c>
-      <c r="I19" s="34">
-        <f>167+32+476</f>
-        <v>675</v>
-      </c>
-      <c r="J19" s="34">
-        <f>486+33+170</f>
-        <v>689</v>
-      </c>
-      <c r="K19" s="34">
-        <f>173+32+483</f>
-        <v>688</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" t="s">
-        <v>179</v>
-      </c>
-      <c r="C20" s="25" t="s">
-        <v>177</v>
-      </c>
-      <c r="D20" s="38">
-        <f t="shared" ref="D20:K20" si="8">D19+D7+D18</f>
-        <v>1111.9672</v>
-      </c>
-      <c r="E20" s="38">
-        <f t="shared" si="8"/>
-        <v>1100.8674000000001</v>
-      </c>
-      <c r="F20" s="38">
-        <f t="shared" si="8"/>
-        <v>1071.9829999999999</v>
-      </c>
-      <c r="G20" s="38">
-        <f t="shared" si="8"/>
-        <v>1083.53</v>
-      </c>
-      <c r="H20" s="38">
-        <f t="shared" si="8"/>
-        <v>1103.1743999999999</v>
-      </c>
-      <c r="I20" s="38">
-        <f t="shared" si="8"/>
-        <v>1159.0812000000001</v>
-      </c>
-      <c r="J20" s="38">
-        <f t="shared" si="8"/>
-        <v>1206.0295999999998</v>
-      </c>
-      <c r="K20" s="38">
-        <f t="shared" si="8"/>
-        <v>1397.6632</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="54" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21" s="54"/>
-      <c r="C21" s="25" t="s">
-        <v>177</v>
-      </c>
-      <c r="D21" s="55">
-        <f t="shared" ref="D21:K21" si="9">D6-D20</f>
-        <v>114.85279999999989</v>
-      </c>
-      <c r="E21" s="55">
-        <f t="shared" si="9"/>
-        <v>458.69259999999986</v>
-      </c>
-      <c r="F21" s="55">
-        <f t="shared" si="9"/>
-        <v>358.03699999999981</v>
-      </c>
-      <c r="G21" s="55">
-        <f t="shared" si="9"/>
-        <v>371.88999999999987</v>
-      </c>
-      <c r="H21" s="55">
-        <f t="shared" si="9"/>
-        <v>591.00560000000019</v>
-      </c>
-      <c r="I21" s="55">
-        <f t="shared" si="9"/>
-        <v>728.13879999999972</v>
-      </c>
-      <c r="J21" s="55">
-        <f t="shared" si="9"/>
-        <v>472.91039999999998</v>
-      </c>
-      <c r="K21" s="55">
-        <f t="shared" si="9"/>
-        <v>281.27679999999987</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="D22" s="75">
-        <v>0</v>
-      </c>
-      <c r="E22" s="75">
-        <v>0</v>
-      </c>
-      <c r="F22" s="75">
-        <v>0</v>
-      </c>
-      <c r="G22" s="75">
-        <v>0</v>
-      </c>
-      <c r="H22" s="75">
-        <v>0</v>
-      </c>
-      <c r="I22" s="75">
-        <v>0</v>
-      </c>
-      <c r="J22" s="75">
-        <v>0</v>
-      </c>
-      <c r="K22" s="75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="2" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="D24" s="53"/>
-      <c r="E24" s="53"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="53"/>
-      <c r="H24" s="53"/>
-      <c r="I24" s="53"/>
-      <c r="J24" s="53"/>
-      <c r="K24" s="53"/>
-    </row>
-    <row r="25" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B25" t="s">
-        <v>182</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="D25" s="53"/>
-      <c r="E25" s="53"/>
-      <c r="F25" s="53"/>
-      <c r="G25" s="53"/>
-      <c r="H25" s="53"/>
-      <c r="I25" s="53"/>
-      <c r="J25" s="53"/>
-      <c r="K25" s="53"/>
-    </row>
-    <row r="26" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B26" t="s">
-        <v>183</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="29"/>
-      <c r="J26" s="29"/>
-      <c r="K26" s="29"/>
-    </row>
-    <row r="27" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B27" t="s">
-        <v>184</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="29"/>
-      <c r="I27" s="29"/>
-      <c r="J27" s="29"/>
-      <c r="K27" s="29"/>
-    </row>
-    <row r="28" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B28" t="s">
-        <v>185</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="29"/>
-      <c r="I28" s="29"/>
-      <c r="J28" s="29"/>
-      <c r="K28" s="29"/>
-    </row>
-    <row r="29" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B29" t="s">
-        <v>186</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="29"/>
-      <c r="I29" s="29"/>
-      <c r="J29" s="29"/>
-      <c r="K29" s="29"/>
-    </row>
-    <row r="30" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B30" t="s">
-        <v>188</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="D30" s="29"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="29"/>
-      <c r="H30" s="29"/>
-      <c r="I30" s="29"/>
-      <c r="J30" s="29"/>
-      <c r="K30" s="29"/>
-    </row>
-    <row r="31" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B31" t="s">
-        <v>187</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="D31" s="29"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="29"/>
-      <c r="H31" s="29"/>
-      <c r="I31" s="29"/>
-      <c r="J31" s="29"/>
-      <c r="K31" s="29"/>
-    </row>
-  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -28798,11 +30018,1029 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{429E885F-8D73-4BE9-80B7-B4818AF35EFF}">
+  <dimension ref="A2:K30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="128" t="s">
+        <v>170</v>
+      </c>
+      <c r="B2" s="128"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="128"/>
+      <c r="E2" s="128"/>
+      <c r="F2" s="128"/>
+      <c r="G2" s="128"/>
+      <c r="H2" s="128"/>
+      <c r="I2" s="128"/>
+      <c r="J2" s="128"/>
+      <c r="K2" s="128"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="129" t="s">
+        <v>316</v>
+      </c>
+      <c r="B3" s="129" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="129" t="s">
+        <v>318</v>
+      </c>
+      <c r="D3" s="129">
+        <v>2015</v>
+      </c>
+      <c r="E3" s="129">
+        <v>2016</v>
+      </c>
+      <c r="F3" s="129">
+        <v>2017</v>
+      </c>
+      <c r="G3" s="129">
+        <v>2018</v>
+      </c>
+      <c r="H3" s="129">
+        <v>2019</v>
+      </c>
+      <c r="I3" s="129">
+        <v>2020</v>
+      </c>
+      <c r="J3" s="129">
+        <v>2021</v>
+      </c>
+      <c r="K3" s="129">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="D4" s="121">
+        <v>3.76</v>
+      </c>
+      <c r="E4" s="121">
+        <v>4.12</v>
+      </c>
+      <c r="F4" s="121">
+        <v>3.33</v>
+      </c>
+      <c r="G4" s="121">
+        <v>3.2</v>
+      </c>
+      <c r="H4" s="121">
+        <v>3.69</v>
+      </c>
+      <c r="I4" s="121">
+        <v>3.82</v>
+      </c>
+      <c r="J4" s="121">
+        <v>3.58</v>
+      </c>
+      <c r="K4" s="122">
+        <v>3.89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="B5" s="120" t="s">
+        <v>335</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="D5" s="123">
+        <v>331.09</v>
+      </c>
+      <c r="E5" s="123">
+        <v>333.35</v>
+      </c>
+      <c r="F5" s="123">
+        <v>398.33</v>
+      </c>
+      <c r="G5" s="123">
+        <v>318.08999999999997</v>
+      </c>
+      <c r="H5" s="123">
+        <v>268.38</v>
+      </c>
+      <c r="I5" s="122">
+        <v>263.77</v>
+      </c>
+      <c r="J5" s="123">
+        <v>340.26</v>
+      </c>
+      <c r="K5" s="124">
+        <v>418.71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="B6" s="120" t="s">
+        <v>335</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="D6" s="90">
+        <f>D5*D4</f>
+        <v>1244.8983999999998</v>
+      </c>
+      <c r="E6" s="90">
+        <f t="shared" ref="E6:K6" si="0">E5*E4</f>
+        <v>1373.402</v>
+      </c>
+      <c r="F6" s="90">
+        <f t="shared" si="0"/>
+        <v>1326.4388999999999</v>
+      </c>
+      <c r="G6" s="90">
+        <f t="shared" si="0"/>
+        <v>1017.8879999999999</v>
+      </c>
+      <c r="H6" s="90">
+        <f t="shared" si="0"/>
+        <v>990.32219999999995</v>
+      </c>
+      <c r="I6" s="90">
+        <f t="shared" si="0"/>
+        <v>1007.6013999999999</v>
+      </c>
+      <c r="J6" s="90">
+        <f t="shared" si="0"/>
+        <v>1218.1307999999999</v>
+      </c>
+      <c r="K6" s="90">
+        <f t="shared" si="0"/>
+        <v>1628.7819</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="B7" s="120" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="D7" s="125">
+        <v>143.99</v>
+      </c>
+      <c r="E7" s="125">
+        <v>145.86000000000001</v>
+      </c>
+      <c r="F7" s="124">
+        <v>157.08000000000001</v>
+      </c>
+      <c r="G7" s="124">
+        <v>158.94999999999999</v>
+      </c>
+      <c r="H7" s="124">
+        <v>157.08000000000001</v>
+      </c>
+      <c r="I7" s="122">
+        <v>158.94999999999999</v>
+      </c>
+      <c r="J7" s="124">
+        <v>170.17</v>
+      </c>
+      <c r="K7" s="124">
+        <v>211.31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="B8" s="120" t="s">
+        <v>335</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="D8" s="126">
+        <v>21.1</v>
+      </c>
+      <c r="E8" s="126">
+        <v>21.1</v>
+      </c>
+      <c r="F8" s="126">
+        <v>21.1</v>
+      </c>
+      <c r="G8" s="126">
+        <v>21.1</v>
+      </c>
+      <c r="H8" s="126">
+        <v>21.1</v>
+      </c>
+      <c r="I8" s="126">
+        <v>21.1</v>
+      </c>
+      <c r="J8" s="126">
+        <v>21.1</v>
+      </c>
+      <c r="K8" s="126">
+        <v>21.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="B9" s="120" t="s">
+        <v>335</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="D9" s="132">
+        <f>D4*D8</f>
+        <v>79.335999999999999</v>
+      </c>
+      <c r="E9" s="132">
+        <f t="shared" ref="E9:K9" si="1">E4*E8</f>
+        <v>86.932000000000002</v>
+      </c>
+      <c r="F9" s="132">
+        <f t="shared" si="1"/>
+        <v>70.263000000000005</v>
+      </c>
+      <c r="G9" s="132">
+        <f t="shared" si="1"/>
+        <v>67.52000000000001</v>
+      </c>
+      <c r="H9" s="132">
+        <f t="shared" si="1"/>
+        <v>77.859000000000009</v>
+      </c>
+      <c r="I9" s="132">
+        <f t="shared" si="1"/>
+        <v>80.602000000000004</v>
+      </c>
+      <c r="J9" s="132">
+        <f t="shared" si="1"/>
+        <v>75.538000000000011</v>
+      </c>
+      <c r="K9" s="132">
+        <f t="shared" si="1"/>
+        <v>82.079000000000008</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="B10" s="120" t="s">
+        <v>335</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="D10" s="123">
+        <v>3.11</v>
+      </c>
+      <c r="E10" s="123">
+        <v>3.17</v>
+      </c>
+      <c r="F10" s="123">
+        <v>3.48</v>
+      </c>
+      <c r="G10" s="123">
+        <v>3.52</v>
+      </c>
+      <c r="H10" s="123">
+        <v>3.22</v>
+      </c>
+      <c r="I10" s="123">
+        <v>3.18</v>
+      </c>
+      <c r="J10" s="123">
+        <v>3.18</v>
+      </c>
+      <c r="K10" s="123">
+        <v>3.43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="B11" s="120" t="s">
+        <v>335</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="D11" s="131">
+        <v>8</v>
+      </c>
+      <c r="E11" s="131">
+        <v>8</v>
+      </c>
+      <c r="F11" s="131">
+        <v>8</v>
+      </c>
+      <c r="G11" s="131">
+        <v>8</v>
+      </c>
+      <c r="H11" s="131">
+        <v>8</v>
+      </c>
+      <c r="I11" s="131">
+        <v>8</v>
+      </c>
+      <c r="J11" s="131">
+        <v>8</v>
+      </c>
+      <c r="K11" s="131">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="B12" s="120" t="s">
+        <v>335</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="D12" s="96">
+        <f>D11*D4</f>
+        <v>30.08</v>
+      </c>
+      <c r="E12" s="96">
+        <f t="shared" ref="E12:K12" si="2">E11*E4</f>
+        <v>32.96</v>
+      </c>
+      <c r="F12" s="96">
+        <f t="shared" si="2"/>
+        <v>26.64</v>
+      </c>
+      <c r="G12" s="96">
+        <f t="shared" si="2"/>
+        <v>25.6</v>
+      </c>
+      <c r="H12" s="96">
+        <f t="shared" si="2"/>
+        <v>29.52</v>
+      </c>
+      <c r="I12" s="96">
+        <f t="shared" si="2"/>
+        <v>30.56</v>
+      </c>
+      <c r="J12" s="96">
+        <f t="shared" si="2"/>
+        <v>28.64</v>
+      </c>
+      <c r="K12" s="96">
+        <f t="shared" si="2"/>
+        <v>31.12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="B13" s="120" t="s">
+        <v>335</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="D13" s="123">
+        <v>1.42</v>
+      </c>
+      <c r="E13" s="123">
+        <v>1.34</v>
+      </c>
+      <c r="F13" s="123">
+        <v>1.2</v>
+      </c>
+      <c r="G13" s="123">
+        <v>1.2</v>
+      </c>
+      <c r="H13" s="123">
+        <v>1.19</v>
+      </c>
+      <c r="I13" s="123">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="J13" s="123">
+        <v>1.56</v>
+      </c>
+      <c r="K13" s="123">
+        <v>2.52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="B14" s="120" t="s">
+        <v>335</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="D14" s="130">
+        <v>6</v>
+      </c>
+      <c r="E14" s="130">
+        <v>6</v>
+      </c>
+      <c r="F14" s="130">
+        <v>6</v>
+      </c>
+      <c r="G14" s="130">
+        <v>6</v>
+      </c>
+      <c r="H14" s="130">
+        <v>6</v>
+      </c>
+      <c r="I14" s="130">
+        <v>6</v>
+      </c>
+      <c r="J14" s="130">
+        <v>6</v>
+      </c>
+      <c r="K14" s="130">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="B15" s="120" t="s">
+        <v>335</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="D15" s="96">
+        <f>D14*D4</f>
+        <v>22.56</v>
+      </c>
+      <c r="E15" s="96">
+        <f t="shared" ref="E15:K15" si="3">E14*E4</f>
+        <v>24.72</v>
+      </c>
+      <c r="F15" s="96">
+        <f t="shared" si="3"/>
+        <v>19.98</v>
+      </c>
+      <c r="G15" s="96">
+        <f t="shared" si="3"/>
+        <v>19.200000000000003</v>
+      </c>
+      <c r="H15" s="96">
+        <f t="shared" si="3"/>
+        <v>22.14</v>
+      </c>
+      <c r="I15" s="96">
+        <f t="shared" si="3"/>
+        <v>22.919999999999998</v>
+      </c>
+      <c r="J15" s="96">
+        <f t="shared" si="3"/>
+        <v>21.48</v>
+      </c>
+      <c r="K15" s="96">
+        <f t="shared" si="3"/>
+        <v>23.34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="B16" s="120" t="s">
+        <v>335</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="D16" s="123">
+        <v>1.72</v>
+      </c>
+      <c r="E16" s="123">
+        <v>1.67</v>
+      </c>
+      <c r="F16" s="123">
+        <v>1.61</v>
+      </c>
+      <c r="G16" s="123">
+        <v>1.58</v>
+      </c>
+      <c r="H16" s="123">
+        <v>1.58</v>
+      </c>
+      <c r="I16" s="123">
+        <v>1.54</v>
+      </c>
+      <c r="J16" s="123">
+        <v>1.56</v>
+      </c>
+      <c r="K16" s="123">
+        <v>2.52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="B17" s="120" t="s">
+        <v>335</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="D17" s="85">
+        <f>D10*D9+D13*D12+D16*D15</f>
+        <v>328.25175999999999</v>
+      </c>
+      <c r="E17" s="85">
+        <f t="shared" ref="E17:K17" si="4">E10*E9+E13*E12+E16*E15</f>
+        <v>361.02323999999999</v>
+      </c>
+      <c r="F17" s="85">
+        <f t="shared" si="4"/>
+        <v>308.65104000000002</v>
+      </c>
+      <c r="G17" s="85">
+        <f t="shared" si="4"/>
+        <v>298.72640000000001</v>
+      </c>
+      <c r="H17" s="85">
+        <f t="shared" si="4"/>
+        <v>320.81598000000002</v>
+      </c>
+      <c r="I17" s="85">
+        <f t="shared" si="4"/>
+        <v>325.83836000000002</v>
+      </c>
+      <c r="J17" s="85">
+        <f t="shared" si="4"/>
+        <v>318.39804000000004</v>
+      </c>
+      <c r="K17" s="85">
+        <f t="shared" si="4"/>
+        <v>418.77017000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="B18" s="120" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="D18" s="125">
+        <f>343.96+24.35+4.57</f>
+        <v>372.88</v>
+      </c>
+      <c r="E18" s="124">
+        <f>342.84+5.01+25.7</f>
+        <v>373.54999999999995</v>
+      </c>
+      <c r="F18" s="124">
+        <f>343.67+4.04+27</f>
+        <v>374.71000000000004</v>
+      </c>
+      <c r="G18" s="124">
+        <f>353.68+27+3.89</f>
+        <v>384.57</v>
+      </c>
+      <c r="H18" s="124">
+        <f>358.7+4.49+23.8</f>
+        <v>386.99</v>
+      </c>
+      <c r="I18" s="124">
+        <f>345.96+5.12+22.1</f>
+        <v>373.18</v>
+      </c>
+      <c r="J18" s="124">
+        <f>373.48+4.84+22.1</f>
+        <v>400.42</v>
+      </c>
+      <c r="K18" s="124">
+        <f>452+8+22</f>
+        <v>482</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="B19" s="120" t="s">
+        <v>335</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="D19" s="127">
+        <f t="shared" ref="D19:K19" si="5">D18+D7+D17</f>
+        <v>845.12175999999999</v>
+      </c>
+      <c r="E19" s="127">
+        <f t="shared" si="5"/>
+        <v>880.43323999999996</v>
+      </c>
+      <c r="F19" s="127">
+        <f t="shared" si="5"/>
+        <v>840.44104000000016</v>
+      </c>
+      <c r="G19" s="127">
+        <f t="shared" si="5"/>
+        <v>842.24639999999999</v>
+      </c>
+      <c r="H19" s="127">
+        <f t="shared" si="5"/>
+        <v>864.88598000000002</v>
+      </c>
+      <c r="I19" s="127">
+        <f t="shared" si="5"/>
+        <v>857.96836000000008</v>
+      </c>
+      <c r="J19" s="127">
+        <f t="shared" si="5"/>
+        <v>888.98804000000007</v>
+      </c>
+      <c r="K19" s="127">
+        <f t="shared" si="5"/>
+        <v>1112.08017</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="B20" s="120" t="s">
+        <v>335</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="D20" s="95">
+        <f t="shared" ref="D20:K20" si="6">D6-D19</f>
+        <v>399.77663999999982</v>
+      </c>
+      <c r="E20" s="95">
+        <f t="shared" si="6"/>
+        <v>492.96876000000009</v>
+      </c>
+      <c r="F20" s="95">
+        <f t="shared" si="6"/>
+        <v>485.99785999999972</v>
+      </c>
+      <c r="G20" s="95">
+        <f t="shared" si="6"/>
+        <v>175.64159999999993</v>
+      </c>
+      <c r="H20" s="95">
+        <f t="shared" si="6"/>
+        <v>125.43621999999993</v>
+      </c>
+      <c r="I20" s="95">
+        <f t="shared" si="6"/>
+        <v>149.63303999999982</v>
+      </c>
+      <c r="J20" s="95">
+        <f t="shared" si="6"/>
+        <v>329.14275999999984</v>
+      </c>
+      <c r="K20" s="95">
+        <f t="shared" si="6"/>
+        <v>516.70173</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D23" s="29">
+        <v>3</v>
+      </c>
+      <c r="E23" s="29">
+        <v>3.42</v>
+      </c>
+      <c r="F23" s="29">
+        <v>2</v>
+      </c>
+      <c r="G23" s="29">
+        <v>3.22</v>
+      </c>
+      <c r="H23" s="29">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="I23" s="29">
+        <v>3.68</v>
+      </c>
+      <c r="J23" s="29">
+        <v>3.55</v>
+      </c>
+      <c r="K23" s="29">
+        <v>3.87</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" t="s">
+        <v>182</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D24" s="29">
+        <v>3.58</v>
+      </c>
+      <c r="E24" s="29">
+        <v>1.85</v>
+      </c>
+      <c r="F24" s="29">
+        <v>1.99</v>
+      </c>
+      <c r="G24" s="29">
+        <v>3.04</v>
+      </c>
+      <c r="H24" s="29">
+        <v>2.19</v>
+      </c>
+      <c r="I24" s="29">
+        <v>2.5</v>
+      </c>
+      <c r="J24" s="29">
+        <v>3.55</v>
+      </c>
+      <c r="K24" s="29">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" t="s">
+        <v>183</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D25" s="29">
+        <v>2.64</v>
+      </c>
+      <c r="E25" s="29">
+        <v>2.91</v>
+      </c>
+      <c r="F25" s="29">
+        <v>2.89</v>
+      </c>
+      <c r="G25" s="29">
+        <v>2.27</v>
+      </c>
+      <c r="H25" s="29">
+        <v>2.73</v>
+      </c>
+      <c r="I25" s="29">
+        <v>2.88</v>
+      </c>
+      <c r="J25" s="29">
+        <v>2.88</v>
+      </c>
+      <c r="K25" s="29">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26" t="s">
+        <v>184</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D26" s="39">
+        <v>4.17</v>
+      </c>
+      <c r="E26" s="39">
+        <v>4.32</v>
+      </c>
+      <c r="F26" s="39">
+        <v>3.33</v>
+      </c>
+      <c r="G26" s="39">
+        <v>4.09</v>
+      </c>
+      <c r="H26" s="39">
+        <v>4.28</v>
+      </c>
+      <c r="I26" s="39">
+        <v>3.79</v>
+      </c>
+      <c r="J26" s="39">
+        <v>3.92</v>
+      </c>
+      <c r="K26" s="39">
+        <v>3.93</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" t="s">
+        <v>185</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D27" s="29">
+        <v>4.78</v>
+      </c>
+      <c r="E27" s="29">
+        <v>3.03</v>
+      </c>
+      <c r="F27" s="29">
+        <v>4.05</v>
+      </c>
+      <c r="G27" s="29">
+        <v>3.55</v>
+      </c>
+      <c r="H27" s="29">
+        <v>3.95</v>
+      </c>
+      <c r="I27" s="29">
+        <v>4.95</v>
+      </c>
+      <c r="J27" s="29">
+        <v>3.55</v>
+      </c>
+      <c r="K27" s="29">
+        <v>3.87</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28" t="s">
+        <v>186</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D28" s="29">
+        <v>3.54</v>
+      </c>
+      <c r="E28" s="29">
+        <v>3.75</v>
+      </c>
+      <c r="F28" s="29">
+        <v>3.22</v>
+      </c>
+      <c r="G28" s="29">
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="H28" s="29">
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="I28" s="29">
+        <v>4.46</v>
+      </c>
+      <c r="J28" s="29">
+        <v>4.47</v>
+      </c>
+      <c r="K28" s="29">
+        <v>5.04</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29" t="s">
+        <v>188</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D29" s="29">
+        <v>3.15</v>
+      </c>
+      <c r="E29" s="29">
+        <v>3.25</v>
+      </c>
+      <c r="F29" s="29">
+        <v>4.3</v>
+      </c>
+      <c r="G29" s="29">
+        <v>3.02</v>
+      </c>
+      <c r="H29" s="29">
+        <v>3.93</v>
+      </c>
+      <c r="I29" s="29">
+        <v>3.38</v>
+      </c>
+      <c r="J29" s="29">
+        <v>2.77</v>
+      </c>
+      <c r="K29" s="29">
+        <v>3.88</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B30" t="s">
+        <v>187</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D30" s="29">
+        <v>3.81</v>
+      </c>
+      <c r="E30" s="29">
+        <v>4.3</v>
+      </c>
+      <c r="F30" s="29">
+        <v>3.26</v>
+      </c>
+      <c r="G30" s="29">
+        <v>2.9</v>
+      </c>
+      <c r="H30" s="29">
+        <v>3.53</v>
+      </c>
+      <c r="I30" s="29">
+        <v>3.81</v>
+      </c>
+      <c r="J30" s="29">
+        <v>3.51</v>
+      </c>
+      <c r="K30" s="29">
+        <v>3.79</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:K2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00E1ABE5-C613-477B-9BF4-3B932EE688EE}">
   <dimension ref="A3:K30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="K20" sqref="A3:K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29786,1110 +32024,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF474FF6-7C57-49F4-926A-CC90D7B60EA3}">
-  <dimension ref="A3:U31"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A11:XFD17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.85546875" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4">
-        <v>2015</v>
-      </c>
-      <c r="E3" s="4">
-        <v>2016</v>
-      </c>
-      <c r="F3" s="4">
-        <v>2017</v>
-      </c>
-      <c r="G3" s="4">
-        <v>2018</v>
-      </c>
-      <c r="H3" s="4">
-        <v>2019</v>
-      </c>
-      <c r="I3" s="4">
-        <v>2020</v>
-      </c>
-      <c r="J3" s="4">
-        <v>2021</v>
-      </c>
-      <c r="K3" s="4">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="D4" s="65">
-        <v>2.7885000000000004</v>
-      </c>
-      <c r="E4" s="65">
-        <v>2.9755000000000003</v>
-      </c>
-      <c r="F4" s="65">
-        <v>2.3375000000000004</v>
-      </c>
-      <c r="G4" s="65">
-        <v>2.4750000000000001</v>
-      </c>
-      <c r="H4" s="65">
-        <v>2.8105000000000002</v>
-      </c>
-      <c r="I4" s="65">
-        <v>2.9095000000000004</v>
-      </c>
-      <c r="J4" s="65">
-        <v>2.8215000000000003</v>
-      </c>
-      <c r="K4" s="66">
-        <v>2.6950000000000003</v>
-      </c>
-      <c r="N4" s="29"/>
-      <c r="O4" s="29"/>
-      <c r="P4" s="29"/>
-      <c r="Q4" s="29"/>
-      <c r="R4" s="29"/>
-      <c r="S4" s="29"/>
-      <c r="T4" s="29"/>
-      <c r="U4" s="29"/>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="B5" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="D5" s="33">
-        <v>331.09</v>
-      </c>
-      <c r="E5" s="33">
-        <v>333.35</v>
-      </c>
-      <c r="F5" s="33">
-        <v>398.33</v>
-      </c>
-      <c r="G5" s="33">
-        <v>318.08999999999997</v>
-      </c>
-      <c r="H5" s="33">
-        <v>268.38</v>
-      </c>
-      <c r="I5" s="3">
-        <v>263.77</v>
-      </c>
-      <c r="J5" s="33">
-        <v>340.26</v>
-      </c>
-      <c r="K5" s="34">
-        <v>418.71</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="B6" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="D6" s="32">
-        <f>D5*D4</f>
-        <v>923.2444650000001</v>
-      </c>
-      <c r="E6" s="32">
-        <f t="shared" ref="E6:K6" si="0">E5*E4</f>
-        <v>991.88292500000011</v>
-      </c>
-      <c r="F6" s="32">
-        <f t="shared" si="0"/>
-        <v>931.09637500000008</v>
-      </c>
-      <c r="G6" s="32">
-        <f t="shared" si="0"/>
-        <v>787.27274999999997</v>
-      </c>
-      <c r="H6" s="32">
-        <f t="shared" si="0"/>
-        <v>754.28199000000006</v>
-      </c>
-      <c r="I6" s="32">
-        <f t="shared" si="0"/>
-        <v>767.43881500000009</v>
-      </c>
-      <c r="J6" s="32">
-        <f t="shared" si="0"/>
-        <v>960.04359000000011</v>
-      </c>
-      <c r="K6" s="32">
-        <f t="shared" si="0"/>
-        <v>1128.42345</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="37">
-        <v>143.99</v>
-      </c>
-      <c r="E7" s="37">
-        <v>145.86000000000001</v>
-      </c>
-      <c r="F7" s="34">
-        <v>157.08000000000001</v>
-      </c>
-      <c r="G7" s="34">
-        <v>158.94999999999999</v>
-      </c>
-      <c r="H7" s="34">
-        <v>157.08000000000001</v>
-      </c>
-      <c r="I7" s="3">
-        <v>158.94999999999999</v>
-      </c>
-      <c r="J7" s="34">
-        <v>170.17</v>
-      </c>
-      <c r="K7" s="34">
-        <v>211.31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="B8" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="D8" s="77">
-        <v>21.1</v>
-      </c>
-      <c r="E8" s="77">
-        <v>21.1</v>
-      </c>
-      <c r="F8" s="77">
-        <v>21.1</v>
-      </c>
-      <c r="G8" s="77">
-        <v>21.1</v>
-      </c>
-      <c r="H8" s="77">
-        <v>21.1</v>
-      </c>
-      <c r="I8" s="77">
-        <v>21.1</v>
-      </c>
-      <c r="J8" s="77">
-        <v>21.1</v>
-      </c>
-      <c r="K8" s="77">
-        <v>21.1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="B9" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="D9" s="49">
-        <f>D4*D8</f>
-        <v>58.837350000000015</v>
-      </c>
-      <c r="E9" s="49">
-        <f t="shared" ref="E9:K9" si="1">E4*E8</f>
-        <v>62.78305000000001</v>
-      </c>
-      <c r="F9" s="49">
-        <f t="shared" si="1"/>
-        <v>49.321250000000013</v>
-      </c>
-      <c r="G9" s="49">
-        <f t="shared" si="1"/>
-        <v>52.222500000000004</v>
-      </c>
-      <c r="H9" s="49">
-        <f t="shared" si="1"/>
-        <v>59.301550000000006</v>
-      </c>
-      <c r="I9" s="49">
-        <f t="shared" si="1"/>
-        <v>61.390450000000016</v>
-      </c>
-      <c r="J9" s="49">
-        <f t="shared" si="1"/>
-        <v>59.533650000000009</v>
-      </c>
-      <c r="K9" s="49">
-        <f t="shared" si="1"/>
-        <v>56.864500000000007</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="B10" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="D10" s="33">
-        <v>3.11</v>
-      </c>
-      <c r="E10" s="33">
-        <v>3.17</v>
-      </c>
-      <c r="F10" s="33">
-        <v>3.48</v>
-      </c>
-      <c r="G10" s="33">
-        <v>3.52</v>
-      </c>
-      <c r="H10" s="33">
-        <v>3.22</v>
-      </c>
-      <c r="I10" s="33">
-        <v>3.18</v>
-      </c>
-      <c r="J10" s="33">
-        <v>3.18</v>
-      </c>
-      <c r="K10" s="33">
-        <v>3.43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="B11" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="D11" s="98">
-        <v>8</v>
-      </c>
-      <c r="E11" s="98">
-        <v>8</v>
-      </c>
-      <c r="F11" s="98">
-        <v>8</v>
-      </c>
-      <c r="G11" s="98">
-        <v>8</v>
-      </c>
-      <c r="H11" s="98">
-        <v>8</v>
-      </c>
-      <c r="I11" s="98">
-        <v>8</v>
-      </c>
-      <c r="J11" s="98">
-        <v>8</v>
-      </c>
-      <c r="K11" s="98">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="B12" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="D12" s="96">
-        <f>D11*D4</f>
-        <v>22.308000000000003</v>
-      </c>
-      <c r="E12" s="96">
-        <f t="shared" ref="E12:K12" si="2">E11*E4</f>
-        <v>23.804000000000002</v>
-      </c>
-      <c r="F12" s="96">
-        <f t="shared" si="2"/>
-        <v>18.700000000000003</v>
-      </c>
-      <c r="G12" s="96">
-        <f t="shared" si="2"/>
-        <v>19.8</v>
-      </c>
-      <c r="H12" s="96">
-        <f t="shared" si="2"/>
-        <v>22.484000000000002</v>
-      </c>
-      <c r="I12" s="96">
-        <f t="shared" si="2"/>
-        <v>23.276000000000003</v>
-      </c>
-      <c r="J12" s="96">
-        <f t="shared" si="2"/>
-        <v>22.572000000000003</v>
-      </c>
-      <c r="K12" s="96">
-        <f t="shared" si="2"/>
-        <v>21.560000000000002</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="B13" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="D13" s="97">
-        <v>1.42</v>
-      </c>
-      <c r="E13" s="97">
-        <v>1.34</v>
-      </c>
-      <c r="F13" s="97">
-        <v>1.2</v>
-      </c>
-      <c r="G13" s="97">
-        <v>1.2</v>
-      </c>
-      <c r="H13" s="97">
-        <v>1.19</v>
-      </c>
-      <c r="I13" s="97">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="J13" s="97">
-        <v>1.56</v>
-      </c>
-      <c r="K13" s="97">
-        <v>2.52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="B14" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="D14" s="100">
-        <v>6</v>
-      </c>
-      <c r="E14" s="100">
-        <v>6</v>
-      </c>
-      <c r="F14" s="100">
-        <v>6</v>
-      </c>
-      <c r="G14" s="100">
-        <v>6</v>
-      </c>
-      <c r="H14" s="100">
-        <v>6</v>
-      </c>
-      <c r="I14" s="100">
-        <v>6</v>
-      </c>
-      <c r="J14" s="100">
-        <v>6</v>
-      </c>
-      <c r="K14" s="100">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="B15" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>313</v>
-      </c>
-      <c r="D15" s="96">
-        <f>D14*D4</f>
-        <v>16.731000000000002</v>
-      </c>
-      <c r="E15" s="96">
-        <f t="shared" ref="E15:K15" si="3">E14*E4</f>
-        <v>17.853000000000002</v>
-      </c>
-      <c r="F15" s="96">
-        <f t="shared" si="3"/>
-        <v>14.025000000000002</v>
-      </c>
-      <c r="G15" s="96">
-        <f t="shared" si="3"/>
-        <v>14.850000000000001</v>
-      </c>
-      <c r="H15" s="96">
-        <f t="shared" si="3"/>
-        <v>16.863</v>
-      </c>
-      <c r="I15" s="96">
-        <f t="shared" si="3"/>
-        <v>17.457000000000001</v>
-      </c>
-      <c r="J15" s="96">
-        <f t="shared" si="3"/>
-        <v>16.929000000000002</v>
-      </c>
-      <c r="K15" s="96">
-        <f t="shared" si="3"/>
-        <v>16.170000000000002</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="B16" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>314</v>
-      </c>
-      <c r="D16" s="97">
-        <v>1.72</v>
-      </c>
-      <c r="E16" s="97">
-        <v>1.67</v>
-      </c>
-      <c r="F16" s="97">
-        <v>1.61</v>
-      </c>
-      <c r="G16" s="97">
-        <v>1.58</v>
-      </c>
-      <c r="H16" s="97">
-        <v>1.58</v>
-      </c>
-      <c r="I16" s="97">
-        <v>1.54</v>
-      </c>
-      <c r="J16" s="97">
-        <v>1.56</v>
-      </c>
-      <c r="K16" s="97">
-        <v>2.52</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="B17" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="D17" s="85">
-        <f>D10*D9+D13*D12+D16*D15</f>
-        <v>243.43883850000003</v>
-      </c>
-      <c r="E17" s="85">
-        <f t="shared" ref="E17:K17" si="4">E10*E9+E13*E12+E16*E15</f>
-        <v>260.73413850000003</v>
-      </c>
-      <c r="F17" s="85">
-        <f t="shared" si="4"/>
-        <v>216.65820000000005</v>
-      </c>
-      <c r="G17" s="85">
-        <f t="shared" si="4"/>
-        <v>231.0462</v>
-      </c>
-      <c r="H17" s="85">
-        <f t="shared" si="4"/>
-        <v>244.35049100000006</v>
-      </c>
-      <c r="I17" s="85">
-        <f t="shared" si="4"/>
-        <v>248.17453100000006</v>
-      </c>
-      <c r="J17" s="85">
-        <f t="shared" si="4"/>
-        <v>250.93856700000006</v>
-      </c>
-      <c r="K17" s="85">
-        <f t="shared" si="4"/>
-        <v>290.12483500000002</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="B18" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="D18" s="31">
-        <f>D17</f>
-        <v>243.43883850000003</v>
-      </c>
-      <c r="E18" s="31">
-        <f t="shared" ref="E18:K18" si="5">E17</f>
-        <v>260.73413850000003</v>
-      </c>
-      <c r="F18" s="31">
-        <f t="shared" si="5"/>
-        <v>216.65820000000005</v>
-      </c>
-      <c r="G18" s="31">
-        <f t="shared" si="5"/>
-        <v>231.0462</v>
-      </c>
-      <c r="H18" s="31">
-        <f t="shared" si="5"/>
-        <v>244.35049100000006</v>
-      </c>
-      <c r="I18" s="31">
-        <f t="shared" si="5"/>
-        <v>248.17453100000006</v>
-      </c>
-      <c r="J18" s="31">
-        <f t="shared" si="5"/>
-        <v>250.93856700000006</v>
-      </c>
-      <c r="K18" s="31">
-        <f t="shared" si="5"/>
-        <v>290.12483500000002</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" s="37">
-        <f>343.96+24.35+4.57</f>
-        <v>372.88</v>
-      </c>
-      <c r="E19" s="34">
-        <f>342.84+5.01+25.7</f>
-        <v>373.54999999999995</v>
-      </c>
-      <c r="F19" s="34">
-        <f>343.67+4.04+27</f>
-        <v>374.71000000000004</v>
-      </c>
-      <c r="G19" s="34">
-        <f>353.68+27+3.89</f>
-        <v>384.57</v>
-      </c>
-      <c r="H19" s="34">
-        <f>358.7+4.49+23.8</f>
-        <v>386.99</v>
-      </c>
-      <c r="I19" s="34">
-        <f>345.96+5.12+22.1</f>
-        <v>373.18</v>
-      </c>
-      <c r="J19" s="34">
-        <f>373.48+4.84+22.1</f>
-        <v>400.42</v>
-      </c>
-      <c r="K19" s="34">
-        <f>452+8+22</f>
-        <v>482</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A20" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" t="s">
-        <v>179</v>
-      </c>
-      <c r="C20" s="25" t="s">
-        <v>177</v>
-      </c>
-      <c r="D20" s="38">
-        <f t="shared" ref="D20:K20" si="6">D19+D7+D18</f>
-        <v>760.30883850000009</v>
-      </c>
-      <c r="E20" s="38">
-        <f t="shared" si="6"/>
-        <v>780.14413850000005</v>
-      </c>
-      <c r="F20" s="38">
-        <f t="shared" si="6"/>
-        <v>748.44820000000016</v>
-      </c>
-      <c r="G20" s="38">
-        <f t="shared" si="6"/>
-        <v>774.56619999999998</v>
-      </c>
-      <c r="H20" s="38">
-        <f t="shared" si="6"/>
-        <v>788.42049100000008</v>
-      </c>
-      <c r="I20" s="38">
-        <f t="shared" si="6"/>
-        <v>780.304531</v>
-      </c>
-      <c r="J20" s="38">
-        <f t="shared" si="6"/>
-        <v>821.52856700000007</v>
-      </c>
-      <c r="K20" s="38">
-        <f t="shared" si="6"/>
-        <v>983.43483500000002</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="25" t="s">
-        <v>177</v>
-      </c>
-      <c r="D21" s="6">
-        <f t="shared" ref="D21:K21" si="7">D6-D20</f>
-        <v>162.93562650000001</v>
-      </c>
-      <c r="E21" s="6">
-        <f t="shared" si="7"/>
-        <v>211.73878650000006</v>
-      </c>
-      <c r="F21" s="6">
-        <f t="shared" si="7"/>
-        <v>182.64817499999992</v>
-      </c>
-      <c r="G21" s="6">
-        <f t="shared" si="7"/>
-        <v>12.706549999999993</v>
-      </c>
-      <c r="H21" s="6">
-        <f t="shared" si="7"/>
-        <v>-34.138501000000019</v>
-      </c>
-      <c r="I21" s="6">
-        <f t="shared" si="7"/>
-        <v>-12.865715999999907</v>
-      </c>
-      <c r="J21" s="6">
-        <f t="shared" si="7"/>
-        <v>138.51502300000004</v>
-      </c>
-      <c r="K21" s="6">
-        <f t="shared" si="7"/>
-        <v>144.98861499999998</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="2" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="D24" s="67">
-        <v>2.0350000000000001</v>
-      </c>
-      <c r="E24" s="67">
-        <v>1.5125000000000002</v>
-      </c>
-      <c r="F24" s="67">
-        <v>1.375</v>
-      </c>
-      <c r="G24" s="67">
-        <v>2.4365000000000001</v>
-      </c>
-      <c r="H24" s="67">
-        <v>0.8580000000000001</v>
-      </c>
-      <c r="I24" s="67">
-        <v>2.8875000000000002</v>
-      </c>
-      <c r="J24" s="67">
-        <v>2.7885000000000004</v>
-      </c>
-      <c r="K24" s="67">
-        <v>2.0570000000000004</v>
-      </c>
-      <c r="N24" s="29"/>
-      <c r="O24" s="29"/>
-      <c r="P24" s="29"/>
-      <c r="Q24" s="29"/>
-      <c r="R24" s="29"/>
-      <c r="S24" s="29"/>
-      <c r="T24" s="29"/>
-      <c r="U24" s="29"/>
-    </row>
-    <row r="25" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B25" t="s">
-        <v>182</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="D25" s="67">
-        <v>2.2385000000000002</v>
-      </c>
-      <c r="E25" s="67">
-        <v>2.4255000000000004</v>
-      </c>
-      <c r="F25" s="67">
-        <v>2.5850000000000004</v>
-      </c>
-      <c r="G25" s="67">
-        <v>2.2935000000000003</v>
-      </c>
-      <c r="H25" s="67">
-        <v>2.3704999999999998</v>
-      </c>
-      <c r="I25" s="67">
-        <v>1.9635</v>
-      </c>
-      <c r="J25" s="67">
-        <v>2.5024999999999999</v>
-      </c>
-      <c r="K25" s="67">
-        <v>2.3265000000000002</v>
-      </c>
-      <c r="N25" s="29"/>
-      <c r="O25" s="29"/>
-      <c r="P25" s="29"/>
-      <c r="Q25" s="29"/>
-      <c r="R25" s="29"/>
-      <c r="S25" s="29"/>
-      <c r="T25" s="29"/>
-      <c r="U25" s="29"/>
-    </row>
-    <row r="26" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B26" t="s">
-        <v>183</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="D26" s="67">
-        <v>2.64</v>
-      </c>
-      <c r="E26" s="67">
-        <v>2.4695000000000005</v>
-      </c>
-      <c r="F26" s="67">
-        <v>2.3265000000000002</v>
-      </c>
-      <c r="G26" s="67">
-        <v>2.4584999999999999</v>
-      </c>
-      <c r="H26" s="67">
-        <v>2.5739999999999998</v>
-      </c>
-      <c r="I26" s="67">
-        <v>2.9590000000000001</v>
-      </c>
-      <c r="J26" s="67">
-        <v>2.3980000000000006</v>
-      </c>
-      <c r="K26" s="67">
-        <v>2.5575000000000006</v>
-      </c>
-      <c r="N26" s="29"/>
-      <c r="O26" s="29"/>
-      <c r="P26" s="29"/>
-      <c r="Q26" s="29"/>
-      <c r="R26" s="29"/>
-      <c r="S26" s="29"/>
-      <c r="T26" s="29"/>
-      <c r="U26" s="29"/>
-    </row>
-    <row r="27" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B27" t="s">
-        <v>184</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="D27" s="67">
-        <v>2.7610000000000001</v>
-      </c>
-      <c r="E27" s="67">
-        <v>2.8380000000000005</v>
-      </c>
-      <c r="F27" s="67">
-        <v>2.2165000000000004</v>
-      </c>
-      <c r="G27" s="67">
-        <v>2.6290000000000004</v>
-      </c>
-      <c r="H27" s="67">
-        <v>2.7390000000000003</v>
-      </c>
-      <c r="I27" s="67">
-        <v>2.7665000000000002</v>
-      </c>
-      <c r="J27" s="67">
-        <v>2.8545000000000003</v>
-      </c>
-      <c r="K27" s="67">
-        <v>2.6455000000000002</v>
-      </c>
-      <c r="N27" s="29"/>
-      <c r="O27" s="29"/>
-      <c r="P27" s="29"/>
-      <c r="Q27" s="29"/>
-      <c r="R27" s="29"/>
-      <c r="S27" s="29"/>
-      <c r="T27" s="29"/>
-      <c r="U27" s="29"/>
-    </row>
-    <row r="28" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B28" t="s">
-        <v>185</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="D28" s="67">
-        <v>2.9040000000000004</v>
-      </c>
-      <c r="E28" s="67">
-        <v>3.2450000000000006</v>
-      </c>
-      <c r="F28" s="67">
-        <v>2.9260000000000006</v>
-      </c>
-      <c r="G28" s="67">
-        <v>2.4805000000000001</v>
-      </c>
-      <c r="H28" s="67">
-        <v>3.1019999999999999</v>
-      </c>
-      <c r="I28" s="67">
-        <v>3.2670000000000003</v>
-      </c>
-      <c r="J28" s="67">
-        <v>3.3055000000000003</v>
-      </c>
-      <c r="K28" s="67">
-        <v>3.0140000000000007</v>
-      </c>
-      <c r="N28" s="29"/>
-      <c r="O28" s="29"/>
-      <c r="P28" s="29"/>
-      <c r="Q28" s="29"/>
-      <c r="R28" s="29"/>
-      <c r="S28" s="29"/>
-      <c r="T28" s="29"/>
-      <c r="U28" s="29"/>
-    </row>
-    <row r="29" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B29" t="s">
-        <v>186</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="D29" s="67">
-        <v>3.2890000000000006</v>
-      </c>
-      <c r="E29" s="67">
-        <v>3.2505000000000002</v>
-      </c>
-      <c r="F29" s="67">
-        <v>3.0855000000000006</v>
-      </c>
-      <c r="G29" s="67">
-        <v>3.1625000000000001</v>
-      </c>
-      <c r="H29" s="67">
-        <v>3.5255000000000005</v>
-      </c>
-      <c r="I29" s="67">
-        <v>3.4704999999999999</v>
-      </c>
-      <c r="J29" s="67">
-        <v>3.4375000000000004</v>
-      </c>
-      <c r="K29" s="67">
-        <v>3.3330000000000002</v>
-      </c>
-      <c r="N29" s="39"/>
-      <c r="O29" s="39"/>
-      <c r="P29" s="39"/>
-      <c r="Q29" s="39"/>
-      <c r="R29" s="39"/>
-      <c r="S29" s="39"/>
-      <c r="T29" s="39"/>
-      <c r="U29" s="39"/>
-    </row>
-    <row r="30" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B30" t="s">
-        <v>188</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="D30" s="67">
-        <v>2.9040000000000004</v>
-      </c>
-      <c r="E30" s="67">
-        <v>2.6125000000000003</v>
-      </c>
-      <c r="F30" s="67">
-        <v>2.7115</v>
-      </c>
-      <c r="G30" s="67">
-        <v>2.4090000000000003</v>
-      </c>
-      <c r="H30" s="67">
-        <v>2.8215000000000003</v>
-      </c>
-      <c r="I30" s="67">
-        <v>3.2065000000000001</v>
-      </c>
-      <c r="J30" s="67">
-        <v>3.0579999999999998</v>
-      </c>
-      <c r="K30" s="67">
-        <v>2.8325000000000005</v>
-      </c>
-      <c r="N30" s="29"/>
-      <c r="O30" s="29"/>
-      <c r="P30" s="29"/>
-      <c r="Q30" s="29"/>
-      <c r="R30" s="29"/>
-      <c r="S30" s="29"/>
-      <c r="T30" s="29"/>
-      <c r="U30" s="29"/>
-    </row>
-    <row r="31" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B31" t="s">
-        <v>187</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="D31" s="67">
-        <v>2.7775000000000003</v>
-      </c>
-      <c r="E31" s="67">
-        <v>3.0910000000000002</v>
-      </c>
-      <c r="F31" s="67">
-        <v>1.8920000000000001</v>
-      </c>
-      <c r="G31" s="67">
-        <v>2.3045000000000004</v>
-      </c>
-      <c r="H31" s="67">
-        <v>2.6675</v>
-      </c>
-      <c r="I31" s="67">
-        <v>2.8160000000000003</v>
-      </c>
-      <c r="J31" s="67">
-        <v>2.6840000000000002</v>
-      </c>
-      <c r="K31" s="67">
-        <v>2.4640000000000004</v>
-      </c>
-      <c r="N31" s="29"/>
-      <c r="O31" s="29"/>
-      <c r="P31" s="29"/>
-      <c r="Q31" s="29"/>
-      <c r="R31" s="29"/>
-      <c r="S31" s="29"/>
-      <c r="T31" s="29"/>
-      <c r="U31" s="29"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/simulation_env/environment_maincrops/data/Erträge.xlsx
+++ b/simulation_env/environment_maincrops/data/Erträge.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr codeName="DieseArbeitsmappe"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\magnu\GitHub\cro_symbolic_mbpo\simulation_env\environment_maincrops\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Magnus\Documents\GitHub\cro_symbolic_mbpo\simulation_env\environment_maincrops\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52CB01C5-88AF-4B91-B3CA-48DA6B37AFC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27C260B1-0AAD-4687-9614-31D6AF20481A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="8" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gras 1j" sheetId="35" r:id="rId1"/>
@@ -1048,15 +1048,9 @@
     <t>-</t>
   </si>
   <si>
-    <t>Einheit</t>
-  </si>
-  <si>
     <t>€ / ha</t>
   </si>
   <si>
-    <t>Saatgut (€ / ha)</t>
-  </si>
-  <si>
     <t>€ / t</t>
   </si>
   <si>
@@ -1096,9 +1090,6 @@
     <t>Other costs</t>
   </si>
   <si>
-    <t>€ /ha</t>
-  </si>
-  <si>
     <t>variable</t>
   </si>
   <si>
@@ -1106,6 +1097,15 @@
   </si>
   <si>
     <t>Profit</t>
+  </si>
+  <si>
+    <t>Winter wheat</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Unit</t>
   </si>
 </sst>
 </file>
@@ -1669,21 +1669,6 @@
     <xf numFmtId="2" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -1706,9 +1691,6 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="3" fillId="16" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -1718,6 +1700,24 @@
     </xf>
     <xf numFmtId="2" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -9244,7 +9244,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F08483FC-BFEF-4C03-AC54-85BF0CA86305}">
   <dimension ref="A3:K31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A17" sqref="A11:XFD17"/>
     </sheetView>
   </sheetViews>
@@ -20619,10 +20619,10 @@
       </c>
     </row>
     <row r="3" spans="1:27" ht="31.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="115" t="s">
+      <c r="A3" s="128" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="115"/>
+      <c r="B3" s="128"/>
       <c r="C3" s="5" t="s">
         <v>23</v>
       </c>
@@ -21459,13 +21459,13 @@
       <c r="A2" t="s">
         <v>281</v>
       </c>
-      <c r="B2" s="116" t="s">
+      <c r="B2" s="129" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="117"/>
-      <c r="D2" s="117"/>
-      <c r="E2" s="117"/>
-      <c r="F2" s="117"/>
+      <c r="C2" s="130"/>
+      <c r="D2" s="130"/>
+      <c r="E2" s="130"/>
+      <c r="F2" s="130"/>
     </row>
     <row r="3" spans="1:28" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -25181,15 +25181,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="118" t="s">
+      <c r="A1" s="131" t="s">
         <v>217</v>
       </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
+      <c r="B1" s="131"/>
+      <c r="C1" s="131"/>
+      <c r="D1" s="131"/>
+      <c r="E1" s="131"/>
+      <c r="F1" s="131"/>
+      <c r="G1" s="131"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -25262,10 +25262,10 @@
       <c r="B5" s="43">
         <v>0.05</v>
       </c>
-      <c r="D5" s="119" t="s">
+      <c r="D5" s="132" t="s">
         <v>268</v>
       </c>
-      <c r="E5" s="119"/>
+      <c r="E5" s="132"/>
       <c r="F5" s="19">
         <v>0.4</v>
       </c>
@@ -25433,15 +25433,15 @@
       <c r="K18" s="19"/>
     </row>
     <row r="19" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="118" t="s">
+      <c r="A19" s="131" t="s">
         <v>201</v>
       </c>
-      <c r="B19" s="118"/>
-      <c r="C19" s="118"/>
-      <c r="D19" s="118"/>
-      <c r="E19" s="118"/>
-      <c r="F19" s="118"/>
-      <c r="G19" s="118"/>
+      <c r="B19" s="131"/>
+      <c r="C19" s="131"/>
+      <c r="D19" s="131"/>
+      <c r="E19" s="131"/>
+      <c r="F19" s="131"/>
+      <c r="G19" s="131"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -25449,15 +25449,15 @@
       </c>
     </row>
     <row r="27" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="118" t="s">
+      <c r="A27" s="131" t="s">
         <v>221</v>
       </c>
-      <c r="B27" s="118"/>
-      <c r="C27" s="118"/>
-      <c r="D27" s="118"/>
-      <c r="E27" s="118"/>
-      <c r="F27" s="118"/>
-      <c r="G27" s="118"/>
+      <c r="B27" s="131"/>
+      <c r="C27" s="131"/>
+      <c r="D27" s="131"/>
+      <c r="E27" s="131"/>
+      <c r="F27" s="131"/>
+      <c r="G27" s="131"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
@@ -30021,8 +30021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{429E885F-8D73-4BE9-80B7-B4818AF35EFF}">
   <dimension ref="A2:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K20" sqref="A2:K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30033,134 +30033,134 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="128" t="s">
-        <v>170</v>
-      </c>
-      <c r="B2" s="128"/>
-      <c r="C2" s="128"/>
-      <c r="D2" s="128"/>
-      <c r="E2" s="128"/>
-      <c r="F2" s="128"/>
-      <c r="G2" s="128"/>
-      <c r="H2" s="128"/>
-      <c r="I2" s="128"/>
-      <c r="J2" s="128"/>
-      <c r="K2" s="128"/>
+      <c r="A2" s="127" t="s">
+        <v>335</v>
+      </c>
+      <c r="B2" s="127"/>
+      <c r="C2" s="127"/>
+      <c r="D2" s="127"/>
+      <c r="E2" s="127"/>
+      <c r="F2" s="127"/>
+      <c r="G2" s="127"/>
+      <c r="H2" s="127"/>
+      <c r="I2" s="127"/>
+      <c r="J2" s="127"/>
+      <c r="K2" s="127"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="129" t="s">
+      <c r="A3" s="123" t="s">
         <v>316</v>
       </c>
-      <c r="B3" s="129" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="129" t="s">
-        <v>318</v>
-      </c>
-      <c r="D3" s="129">
+      <c r="B3" s="123" t="s">
+        <v>336</v>
+      </c>
+      <c r="C3" s="123" t="s">
+        <v>337</v>
+      </c>
+      <c r="D3" s="123">
         <v>2015</v>
       </c>
-      <c r="E3" s="129">
+      <c r="E3" s="123">
         <v>2016</v>
       </c>
-      <c r="F3" s="129">
+      <c r="F3" s="123">
         <v>2017</v>
       </c>
-      <c r="G3" s="129">
+      <c r="G3" s="123">
         <v>2018</v>
       </c>
-      <c r="H3" s="129">
+      <c r="H3" s="123">
         <v>2019</v>
       </c>
-      <c r="I3" s="129">
+      <c r="I3" s="123">
         <v>2020</v>
       </c>
-      <c r="J3" s="129">
+      <c r="J3" s="123">
         <v>2021</v>
       </c>
-      <c r="K3" s="129">
+      <c r="K3" s="123">
         <v>2022</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>317</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="D4" s="121">
+        <v>320</v>
+      </c>
+      <c r="D4" s="116">
         <v>3.76</v>
       </c>
-      <c r="E4" s="121">
+      <c r="E4" s="116">
         <v>4.12</v>
       </c>
-      <c r="F4" s="121">
+      <c r="F4" s="116">
         <v>3.33</v>
       </c>
-      <c r="G4" s="121">
+      <c r="G4" s="116">
         <v>3.2</v>
       </c>
-      <c r="H4" s="121">
+      <c r="H4" s="116">
         <v>3.69</v>
       </c>
-      <c r="I4" s="121">
+      <c r="I4" s="116">
         <v>3.82</v>
       </c>
-      <c r="J4" s="121">
+      <c r="J4" s="116">
         <v>3.58</v>
       </c>
-      <c r="K4" s="122">
+      <c r="K4" s="117">
         <v>3.89</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="B5" s="120" t="s">
-        <v>335</v>
+        <v>322</v>
+      </c>
+      <c r="B5" s="115" t="s">
+        <v>332</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>321</v>
-      </c>
-      <c r="D5" s="123">
+        <v>319</v>
+      </c>
+      <c r="D5" s="118">
         <v>331.09</v>
       </c>
-      <c r="E5" s="123">
+      <c r="E5" s="118">
         <v>333.35</v>
       </c>
-      <c r="F5" s="123">
+      <c r="F5" s="118">
         <v>398.33</v>
       </c>
-      <c r="G5" s="123">
+      <c r="G5" s="118">
         <v>318.08999999999997</v>
       </c>
-      <c r="H5" s="123">
+      <c r="H5" s="118">
         <v>268.38</v>
       </c>
-      <c r="I5" s="122">
+      <c r="I5" s="117">
         <v>263.77</v>
       </c>
-      <c r="J5" s="123">
+      <c r="J5" s="118">
         <v>340.26</v>
       </c>
-      <c r="K5" s="124">
+      <c r="K5" s="119">
         <v>418.71</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="B6" s="120" t="s">
-        <v>335</v>
+        <v>322</v>
+      </c>
+      <c r="B6" s="115" t="s">
+        <v>332</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D6" s="90">
         <f>D5*D4</f>
@@ -30197,193 +30197,193 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="B7" s="120" t="s">
+        <v>323</v>
+      </c>
+      <c r="B7" s="115" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="D7" s="125">
+        <v>318</v>
+      </c>
+      <c r="D7" s="120">
         <v>143.99</v>
       </c>
-      <c r="E7" s="125">
+      <c r="E7" s="120">
         <v>145.86000000000001</v>
       </c>
-      <c r="F7" s="124">
+      <c r="F7" s="119">
         <v>157.08000000000001</v>
       </c>
-      <c r="G7" s="124">
+      <c r="G7" s="119">
         <v>158.94999999999999</v>
       </c>
-      <c r="H7" s="124">
+      <c r="H7" s="119">
         <v>157.08000000000001</v>
       </c>
-      <c r="I7" s="122">
+      <c r="I7" s="117">
         <v>158.94999999999999</v>
       </c>
-      <c r="J7" s="124">
+      <c r="J7" s="119">
         <v>170.17</v>
       </c>
-      <c r="K7" s="124">
+      <c r="K7" s="119">
         <v>211.31</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>326</v>
-      </c>
-      <c r="B8" s="120" t="s">
-        <v>335</v>
+        <v>324</v>
+      </c>
+      <c r="B8" s="115" t="s">
+        <v>332</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="D8" s="126">
+      <c r="D8" s="121">
         <v>21.1</v>
       </c>
-      <c r="E8" s="126">
+      <c r="E8" s="121">
         <v>21.1</v>
       </c>
-      <c r="F8" s="126">
+      <c r="F8" s="121">
         <v>21.1</v>
       </c>
-      <c r="G8" s="126">
+      <c r="G8" s="121">
         <v>21.1</v>
       </c>
-      <c r="H8" s="126">
+      <c r="H8" s="121">
         <v>21.1</v>
       </c>
-      <c r="I8" s="126">
+      <c r="I8" s="121">
         <v>21.1</v>
       </c>
-      <c r="J8" s="126">
+      <c r="J8" s="121">
         <v>21.1</v>
       </c>
-      <c r="K8" s="126">
+      <c r="K8" s="121">
         <v>21.1</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>326</v>
-      </c>
-      <c r="B9" s="120" t="s">
-        <v>335</v>
+        <v>324</v>
+      </c>
+      <c r="B9" s="115" t="s">
+        <v>332</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="D9" s="132">
+      <c r="D9" s="126">
         <f>D4*D8</f>
         <v>79.335999999999999</v>
       </c>
-      <c r="E9" s="132">
+      <c r="E9" s="126">
         <f t="shared" ref="E9:K9" si="1">E4*E8</f>
         <v>86.932000000000002</v>
       </c>
-      <c r="F9" s="132">
+      <c r="F9" s="126">
         <f t="shared" si="1"/>
         <v>70.263000000000005</v>
       </c>
-      <c r="G9" s="132">
+      <c r="G9" s="126">
         <f t="shared" si="1"/>
         <v>67.52000000000001</v>
       </c>
-      <c r="H9" s="132">
+      <c r="H9" s="126">
         <f t="shared" si="1"/>
         <v>77.859000000000009</v>
       </c>
-      <c r="I9" s="132">
+      <c r="I9" s="126">
         <f t="shared" si="1"/>
         <v>80.602000000000004</v>
       </c>
-      <c r="J9" s="132">
+      <c r="J9" s="126">
         <f t="shared" si="1"/>
         <v>75.538000000000011</v>
       </c>
-      <c r="K9" s="132">
+      <c r="K9" s="126">
         <f t="shared" si="1"/>
         <v>82.079000000000008</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>327</v>
-      </c>
-      <c r="B10" s="120" t="s">
-        <v>335</v>
+        <v>325</v>
+      </c>
+      <c r="B10" s="115" t="s">
+        <v>332</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="D10" s="123">
+      <c r="D10" s="118">
         <v>3.11</v>
       </c>
-      <c r="E10" s="123">
+      <c r="E10" s="118">
         <v>3.17</v>
       </c>
-      <c r="F10" s="123">
+      <c r="F10" s="118">
         <v>3.48</v>
       </c>
-      <c r="G10" s="123">
+      <c r="G10" s="118">
         <v>3.52</v>
       </c>
-      <c r="H10" s="123">
+      <c r="H10" s="118">
         <v>3.22</v>
       </c>
-      <c r="I10" s="123">
+      <c r="I10" s="118">
         <v>3.18</v>
       </c>
-      <c r="J10" s="123">
+      <c r="J10" s="118">
         <v>3.18</v>
       </c>
-      <c r="K10" s="123">
+      <c r="K10" s="118">
         <v>3.43</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="B11" s="120" t="s">
-        <v>335</v>
+        <v>326</v>
+      </c>
+      <c r="B11" s="115" t="s">
+        <v>332</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="D11" s="131">
+      <c r="D11" s="125">
         <v>8</v>
       </c>
-      <c r="E11" s="131">
+      <c r="E11" s="125">
         <v>8</v>
       </c>
-      <c r="F11" s="131">
+      <c r="F11" s="125">
         <v>8</v>
       </c>
-      <c r="G11" s="131">
+      <c r="G11" s="125">
         <v>8</v>
       </c>
-      <c r="H11" s="131">
+      <c r="H11" s="125">
         <v>8</v>
       </c>
-      <c r="I11" s="131">
+      <c r="I11" s="125">
         <v>8</v>
       </c>
-      <c r="J11" s="131">
+      <c r="J11" s="125">
         <v>8</v>
       </c>
-      <c r="K11" s="131">
+      <c r="K11" s="125">
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="B12" s="120" t="s">
-        <v>335</v>
+        <v>326</v>
+      </c>
+      <c r="B12" s="115" t="s">
+        <v>332</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>310</v>
@@ -30423,80 +30423,80 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>329</v>
-      </c>
-      <c r="B13" s="120" t="s">
-        <v>335</v>
+        <v>327</v>
+      </c>
+      <c r="B13" s="115" t="s">
+        <v>332</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="D13" s="123">
+      <c r="D13" s="118">
         <v>1.42</v>
       </c>
-      <c r="E13" s="123">
+      <c r="E13" s="118">
         <v>1.34</v>
       </c>
-      <c r="F13" s="123">
+      <c r="F13" s="118">
         <v>1.2</v>
       </c>
-      <c r="G13" s="123">
+      <c r="G13" s="118">
         <v>1.2</v>
       </c>
-      <c r="H13" s="123">
+      <c r="H13" s="118">
         <v>1.19</v>
       </c>
-      <c r="I13" s="123">
+      <c r="I13" s="118">
         <v>1.1200000000000001</v>
       </c>
-      <c r="J13" s="123">
+      <c r="J13" s="118">
         <v>1.56</v>
       </c>
-      <c r="K13" s="123">
+      <c r="K13" s="118">
         <v>2.52</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>330</v>
-      </c>
-      <c r="B14" s="120" t="s">
-        <v>335</v>
+        <v>328</v>
+      </c>
+      <c r="B14" s="115" t="s">
+        <v>332</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="D14" s="130">
+      <c r="D14" s="124">
         <v>6</v>
       </c>
-      <c r="E14" s="130">
+      <c r="E14" s="124">
         <v>6</v>
       </c>
-      <c r="F14" s="130">
+      <c r="F14" s="124">
         <v>6</v>
       </c>
-      <c r="G14" s="130">
+      <c r="G14" s="124">
         <v>6</v>
       </c>
-      <c r="H14" s="130">
+      <c r="H14" s="124">
         <v>6</v>
       </c>
-      <c r="I14" s="130">
+      <c r="I14" s="124">
         <v>6</v>
       </c>
-      <c r="J14" s="130">
+      <c r="J14" s="124">
         <v>6</v>
       </c>
-      <c r="K14" s="130">
+      <c r="K14" s="124">
         <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>330</v>
-      </c>
-      <c r="B15" s="120" t="s">
-        <v>335</v>
+        <v>328</v>
+      </c>
+      <c r="B15" s="115" t="s">
+        <v>332</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>313</v>
@@ -30536,48 +30536,48 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>331</v>
-      </c>
-      <c r="B16" s="120" t="s">
-        <v>335</v>
+        <v>329</v>
+      </c>
+      <c r="B16" s="115" t="s">
+        <v>332</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="D16" s="123">
+      <c r="D16" s="118">
         <v>1.72</v>
       </c>
-      <c r="E16" s="123">
+      <c r="E16" s="118">
         <v>1.67</v>
       </c>
-      <c r="F16" s="123">
+      <c r="F16" s="118">
         <v>1.61</v>
       </c>
-      <c r="G16" s="123">
+      <c r="G16" s="118">
         <v>1.58</v>
       </c>
-      <c r="H16" s="123">
+      <c r="H16" s="118">
         <v>1.58</v>
       </c>
-      <c r="I16" s="123">
+      <c r="I16" s="118">
         <v>1.54</v>
       </c>
-      <c r="J16" s="123">
+      <c r="J16" s="118">
         <v>1.56</v>
       </c>
-      <c r="K16" s="123">
+      <c r="K16" s="118">
         <v>2.52</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="B17" s="115" t="s">
         <v>332</v>
       </c>
-      <c r="B17" s="120" t="s">
-        <v>335</v>
-      </c>
       <c r="C17" s="5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D17" s="85">
         <f>D10*D9+D13*D12+D16*D15</f>
@@ -30614,99 +30614,99 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>333</v>
-      </c>
-      <c r="B18" s="120" t="s">
+        <v>331</v>
+      </c>
+      <c r="B18" s="115" t="s">
         <v>4</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="D18" s="125">
+        <v>318</v>
+      </c>
+      <c r="D18" s="120">
         <f>343.96+24.35+4.57</f>
         <v>372.88</v>
       </c>
-      <c r="E18" s="124">
+      <c r="E18" s="119">
         <f>342.84+5.01+25.7</f>
         <v>373.54999999999995</v>
       </c>
-      <c r="F18" s="124">
+      <c r="F18" s="119">
         <f>343.67+4.04+27</f>
         <v>374.71000000000004</v>
       </c>
-      <c r="G18" s="124">
+      <c r="G18" s="119">
         <f>353.68+27+3.89</f>
         <v>384.57</v>
       </c>
-      <c r="H18" s="124">
+      <c r="H18" s="119">
         <f>358.7+4.49+23.8</f>
         <v>386.99</v>
       </c>
-      <c r="I18" s="124">
+      <c r="I18" s="119">
         <f>345.96+5.12+22.1</f>
         <v>373.18</v>
       </c>
-      <c r="J18" s="124">
+      <c r="J18" s="119">
         <f>373.48+4.84+22.1</f>
         <v>400.42</v>
       </c>
-      <c r="K18" s="124">
+      <c r="K18" s="119">
         <f>452+8+22</f>
         <v>482</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="B19" s="120" t="s">
-        <v>335</v>
+        <v>333</v>
+      </c>
+      <c r="B19" s="115" t="s">
+        <v>332</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>319</v>
-      </c>
-      <c r="D19" s="127">
+        <v>318</v>
+      </c>
+      <c r="D19" s="122">
         <f t="shared" ref="D19:K19" si="5">D18+D7+D17</f>
         <v>845.12175999999999</v>
       </c>
-      <c r="E19" s="127">
+      <c r="E19" s="122">
         <f t="shared" si="5"/>
         <v>880.43323999999996</v>
       </c>
-      <c r="F19" s="127">
+      <c r="F19" s="122">
         <f t="shared" si="5"/>
         <v>840.44104000000016</v>
       </c>
-      <c r="G19" s="127">
+      <c r="G19" s="122">
         <f t="shared" si="5"/>
         <v>842.24639999999999</v>
       </c>
-      <c r="H19" s="127">
+      <c r="H19" s="122">
         <f t="shared" si="5"/>
         <v>864.88598000000002</v>
       </c>
-      <c r="I19" s="127">
+      <c r="I19" s="122">
         <f t="shared" si="5"/>
         <v>857.96836000000008</v>
       </c>
-      <c r="J19" s="127">
+      <c r="J19" s="122">
         <f t="shared" si="5"/>
         <v>888.98804000000007</v>
       </c>
-      <c r="K19" s="127">
+      <c r="K19" s="122">
         <f t="shared" si="5"/>
         <v>1112.08017</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="B20" s="120" t="s">
-        <v>335</v>
+        <v>334</v>
+      </c>
+      <c r="B20" s="115" t="s">
+        <v>332</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D20" s="95">
         <f t="shared" ref="D20:K20" si="6">D6-D19</f>
